--- a/Заказы/Zakazy.xlsx
+++ b/Заказы/Zakazy.xlsx
@@ -28,14 +28,15 @@
   </definedNames>
   <calcPr calcId="145621" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="RePack by SPecialiST - Личное представление" guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="543" activeSheetId="1"/>
     <customWorkbookView name="Home - Личное представление" guid="{7C21AB2F-8371-4768-A121-03485CF32494}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1292" windowHeight="542" activeSheetId="1"/>
-    <customWorkbookView name="RePack by SPecialiST - Личное представление" guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="543" activeSheetId="1"/>
   </customWorkbookViews>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="658">
   <si>
     <t>№</t>
   </si>
@@ -1219,15 +1220,9 @@
     <t>skuchotskiy@ukr.net</t>
   </si>
   <si>
-    <t>созвон в конце августа, искать б/у---Позвонить через 2 недели--Позвонить</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Soldatov-al@mail.ru     logist2@flagman.kiev.ua</t>
   </si>
   <si>
-    <t>Созвон в конце августа---Позвонить</t>
-  </si>
-  <si>
     <t>Ждем звонка руководство думает---Позвонить---Заинтерисованны брать, Должны позвонить договорится о просмотре.</t>
   </si>
   <si>
@@ -1591,9 +1586,6 @@
     <t>Позвонят когда будет готово руководство---Позвонить в цех и выяснить готовность---Позвонит Дмитрий Робертович , ,Созвонится</t>
   </si>
   <si>
-    <t>Встреча не состоялась, позвонить---Должен позвонить его товарищь Женя---Сегодня созвон---Приедет с 30.07 по 05.08---Звонить по поводу пленки.  Ждать звонка; дой-паки - фирма Итак 574-04-07 (09), ориентировочно приедут 27, 28.07</t>
-  </si>
-  <si>
     <t>б/у Дмитрия---Найти б/у стик, взять у Дмитрия Заказа УП №2334, наш №127, Позвонить 15.07.2015, предложить Эксприм</t>
   </si>
   <si>
@@ -1604,9 +1596,6 @@
   </si>
   <si>
     <t>ПАФ-20 + 1 тубус</t>
-  </si>
-  <si>
-    <t>Будет проплачивать в сентября--Не берет трубку--Проплата на днях---Выставили счёт на зпп-300 проплата 5-6 августа---Нужен датор или нет, выставить счет--Позвонить насчет ЗПП-300</t>
   </si>
   <si>
     <t>если будет надо сам позвонит--пока нет денег, созвон в середине августа---Считает бизнес (27.07)--Хочет брать, позвонит сам (звонили 21.07.2015, мб б\У)</t>
@@ -1690,9 +1679,6 @@
     <t>Боротко Андрей</t>
   </si>
   <si>
-    <t>Подписать тех задание---Поговорить с Володей---Закончить тех задание---Проплатили, отправить техзадание--Приедет в пятницу, показать аппараты--Созвон</t>
-  </si>
-  <si>
     <t>snab.amina@gmail.com</t>
   </si>
   <si>
@@ -1708,9 +1694,6 @@
     <t>упаковщик печенья</t>
   </si>
   <si>
-    <t>Подписать тех задание, 19.08 будет готов макет но уточнить что-то с Итакой---Созвон. По поводу лам. бумаги---Проплатили, Ждём пленку, делаем тех задание--Приехал, встретить в 16.00---Не берет трубку---Приедет в четверг--Скажет когда приедет--Созвон</t>
-  </si>
-  <si>
     <t>097-147-87-55</t>
   </si>
   <si>
@@ -1840,9 +1823,6 @@
     <t>Передал Атабека--Созвон по заявке</t>
   </si>
   <si>
-    <t>Получили пленку, тестируют, заказчику хорошо забрать аппарат 27.08---В начале августа будет пленка--Напомнить про пленку---Позвонить заказчику насчет Заказы! созвон 17.07</t>
-  </si>
-  <si>
     <t>Связаться с Карпатским чаем--Рассмотрит, позвонит--Позвонить, узнать за мельницу для чая</t>
   </si>
   <si>
@@ -1861,9 +1841,6 @@
     <t>067-848-99-51</t>
   </si>
   <si>
-    <t>099-921-14-72</t>
-  </si>
-  <si>
     <t>Проверить степень готовности--Название фирмы, Позвонить насчет сроков готовности--Составить тех задание---созвон в конце августа, искать б/у---Позвонить через 2 недели--Позвонить</t>
   </si>
   <si>
@@ -1879,9 +1856,6 @@
     <t>Марина</t>
   </si>
   <si>
-    <t>Будет готов 21.08--Узнать плательщика (заказчика), Составить тех задание и подписать---Проплатили</t>
-  </si>
-  <si>
     <t>Ильгар</t>
   </si>
   <si>
@@ -1903,9 +1877,6 @@
     <t>Узнает у директора--Отправил камеру Мельника, позвонить</t>
   </si>
   <si>
-    <t>Дал контакт Мельника, с ним договариваются--У них проверка, заберет камеру или в эту или след пятницу--Дать контакты Мельника--Предложить камеру мельника, Приедет с девочкой пробовать камеру</t>
-  </si>
-  <si>
     <t>Фасовка порошка и кальц соды в полиэт пакеты и коробки</t>
   </si>
   <si>
@@ -1930,28 +1901,136 @@
     <t>Оплатили--Переделать счет</t>
   </si>
   <si>
-    <t>Оплатил</t>
-  </si>
-  <si>
-    <t>Не отвечает 21.08--Позвонить--Выслал коммерческое предложение</t>
-  </si>
-  <si>
     <t>Переключился на семечки--Упаковка своего кофе</t>
   </si>
   <si>
     <t>АЛЖУС</t>
   </si>
   <si>
-    <t>Сбросил АЛЖУС (21.08)</t>
-  </si>
-  <si>
-    <t>Приедет в во вторник, созвон в пон--В цеху будет стоять аппарат до конца недели--Отправил инфо на мейл</t>
-  </si>
-  <si>
-    <t>Примут решение, созвониться--Отправил, перезвонить</t>
-  </si>
-  <si>
     <t>Созвонимся--Скинул аппараты, узнать что есть в цеху посмотреть</t>
+  </si>
+  <si>
+    <t>095-391-60-57</t>
+  </si>
+  <si>
+    <t>Фасовка кошачего наполнителся в пилетах</t>
+  </si>
+  <si>
+    <t>ПАФ-20-В, ВЛД-1, ЗПИ</t>
+  </si>
+  <si>
+    <t>Ivan.pervij@yandex.ru</t>
+  </si>
+  <si>
+    <t>Тестировать пленку будут 26.08, заказчику хорошо забрать аппарат 27.08---В начале августа будет пленка--Напомнить про пленку---Позвонить заказчику насчет Заказы! созвон 17.07</t>
+  </si>
+  <si>
+    <t>Олег, Богдан Николаевич</t>
+  </si>
+  <si>
+    <t>099-921-14-72, 067-238-71-64</t>
+  </si>
+  <si>
+    <t>Решает, может позвонить 26, 27--Отправил инфо, может звонить</t>
+  </si>
+  <si>
+    <t>050-342-13-93</t>
+  </si>
+  <si>
+    <t>vetus66@mail.ru</t>
+  </si>
+  <si>
+    <t>096-048-92-28</t>
+  </si>
+  <si>
+    <t>ВД-1, ЗГП, ЗПП, ПЗШ</t>
+  </si>
+  <si>
+    <t>finn1682@mail.ru</t>
+  </si>
+  <si>
+    <t>Кравченко Константин Анатольевич</t>
+  </si>
+  <si>
+    <t>5168-7555-1162-4880</t>
+  </si>
+  <si>
+    <t>Карточка Игоря</t>
+  </si>
+  <si>
+    <t>Соя Игорь Владимирович</t>
+  </si>
+  <si>
+    <t>5168-7572-2859-7045</t>
+  </si>
+  <si>
+    <t>Карточка Дегтяря</t>
+  </si>
+  <si>
+    <t>Дегтярь Виктор Владимирович</t>
+  </si>
+  <si>
+    <t>Шов 12мм</t>
+  </si>
+  <si>
+    <t>Парус</t>
+  </si>
+  <si>
+    <t>Константин Александрович</t>
+  </si>
+  <si>
+    <t>067-446-40-44</t>
+  </si>
+  <si>
+    <t>director@kbparus.com.ua</t>
+  </si>
+  <si>
+    <t>info@shantil.com.ua, buhgalter.fi@shantil.com.ua</t>
+  </si>
+  <si>
+    <t>Узнать за проплату--Будет готов 21.08--Узнать плательщика (заказчика), Составить тех задание и подписать---Проплатили</t>
+  </si>
+  <si>
+    <t>Отправили договор и номер карточки для оплаты, проплатит 26.08</t>
+  </si>
+  <si>
+    <t>Директор никак не родит, продаем камеру еси чо--Дал контакт Мельника, с ним договариваются--Приедет с девочкой пробовать камеру</t>
+  </si>
+  <si>
+    <t>Не отвечает 26.08--Позвонить--Выслал коммерческое предложение</t>
+  </si>
+  <si>
+    <t>Узнать про счет--Выставить счёт на зпп-300---Нужен датор или нет, выставить счет--Позвонить насчет ЗПП-300</t>
+  </si>
+  <si>
+    <t>Созвон в конце сентября---Позвонить</t>
+  </si>
+  <si>
+    <t>Позвонит--Встреча не состоялась, позвонить---Должен позвонить его товарищь Женя---Сегодня созвон---Приедет с 30.07 по 05.08---Звонить по поводу пленки.  Ждать звонка; дой-паки - фирма Итак 574-04-07 (09), ориентировочно приедут 27, 28.07</t>
+  </si>
+  <si>
+    <t>Созвон через месяц полтора (26.08)--Купил б/у АЛЖУС--Сбросил АЛЖУС (21.08)</t>
+  </si>
+  <si>
+    <t>Не отвечает (26.08)--Примут решение, созвониться--Отправил, перезвонить</t>
+  </si>
+  <si>
+    <t>Фасовка и запайка кофе сублимированного в дой-паки</t>
+  </si>
+  <si>
+    <t>Отправил, и производителей пленки тоже</t>
+  </si>
+  <si>
+    <t>Узнать когда будет готов подобный аппарат, чтобы его сфотать\заснять--Выслал комм. Предложение--Был в цеху, запросить детальное техзадание--В цеху будет стоять аппарат до конца недели--Отправил инфо на мейл</t>
+  </si>
+  <si>
+    <t>Согласовать схему разметки---Закончить тех задание---Проплатили, отправить техзадание--Приедет в пятницу, показать аппараты--Созвон</t>
+  </si>
+  <si>
+    <t>Разобрались с макетом--Подписать тех задание, 19.08 будет готов макет но уточнить что-то с Итакой---Созвон. По поводу лам. бумаги---Проплатили, Ждём пленку, делаем тех задание--Приехал, встретить в 16.00---Не берет трубку---Приедет в четверг--Скажет когда приедет--Созвон</t>
+  </si>
+  <si>
+    <t>Узнать размеры тоннеля--Проконтролировать приход--Оплатил</t>
   </si>
 </sst>
 </file>
@@ -2461,7 +2540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2813,25 +2892,6 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2935,7 +2995,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2951,22 +3010,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2978,15 +3043,18 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="283">
+  <dxfs count="275">
     <dxf>
       <fill>
         <patternFill>
@@ -3810,664 +3878,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5357"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5357"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5357"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5357"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4521,6 +3931,83 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5664,7 +5151,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0"/>
@@ -5896,6 +5383,419 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5357"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5357"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -6335,6 +6235,118 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5357"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6365,109 +6377,109 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:R40" totalsRowShown="0" headerRowDxfId="282" dataDxfId="280" headerRowBorderDxfId="281">
-  <autoFilter ref="A1:R40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:R39" totalsRowShown="0" headerRowDxfId="258" dataDxfId="256" headerRowBorderDxfId="257">
+  <autoFilter ref="A1:R39"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Телефон" dataDxfId="279"/>
-    <tableColumn id="2" name="Напоминание" dataDxfId="278"/>
-    <tableColumn id="3" name="Ф.И.О." dataDxfId="277"/>
-    <tableColumn id="4" name="Наше предложение" dataDxfId="276"/>
-    <tableColumn id="5" name="Статус" dataDxfId="275"/>
-    <tableColumn id="6" name="Почта" dataDxfId="274"/>
-    <tableColumn id="7" name="Цена" dataDxfId="273"/>
-    <tableColumn id="8" name="Город" dataDxfId="272"/>
-    <tableColumn id="9" name="Задача" dataDxfId="271"/>
-    <tableColumn id="10" name="Особенности" dataDxfId="270"/>
-    <tableColumn id="11" name="Дата контакта" dataDxfId="269"/>
-    <tableColumn id="12" name="Дата заказа (предоплаты)" dataDxfId="268"/>
-    <tableColumn id="13" name="Код УТ" dataDxfId="267"/>
-    <tableColumn id="14" name="Дата выполнения" dataDxfId="266"/>
-    <tableColumn id="15" name="Дата сдачи (окончание сделки)" dataDxfId="265"/>
-    <tableColumn id="16" name="Фирма" dataDxfId="264"/>
-    <tableColumn id="17" name="№" dataDxfId="263"/>
-    <tableColumn id="18" name="Как узнали?" dataDxfId="262"/>
+    <tableColumn id="1" name="Телефон" dataDxfId="255"/>
+    <tableColumn id="2" name="Напоминание" dataDxfId="254"/>
+    <tableColumn id="3" name="Ф.И.О." dataDxfId="253"/>
+    <tableColumn id="4" name="Наше предложение" dataDxfId="252"/>
+    <tableColumn id="5" name="Статус" dataDxfId="251"/>
+    <tableColumn id="6" name="Почта" dataDxfId="250"/>
+    <tableColumn id="7" name="Цена" dataDxfId="249"/>
+    <tableColumn id="8" name="Город" dataDxfId="248"/>
+    <tableColumn id="9" name="Задача" dataDxfId="247"/>
+    <tableColumn id="10" name="Особенности" dataDxfId="246"/>
+    <tableColumn id="11" name="Дата контакта" dataDxfId="245"/>
+    <tableColumn id="12" name="Дата заказа (предоплаты)" dataDxfId="244"/>
+    <tableColumn id="13" name="Код УТ" dataDxfId="243"/>
+    <tableColumn id="14" name="Дата выполнения" dataDxfId="242"/>
+    <tableColumn id="15" name="Дата сдачи (окончание сделки)" dataDxfId="241"/>
+    <tableColumn id="16" name="Фирма" dataDxfId="240"/>
+    <tableColumn id="17" name="№" dataDxfId="239"/>
+    <tableColumn id="18" name="Как узнали?" dataDxfId="238"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R7" totalsRowShown="0" dataDxfId="261" tableBorderDxfId="260">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R7" totalsRowShown="0" dataDxfId="178" tableBorderDxfId="177">
   <autoFilter ref="A1:R7"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Телефон" dataDxfId="259"/>
-    <tableColumn id="2" name="Напоминание" dataDxfId="258"/>
-    <tableColumn id="3" name="Ф.И.О." dataDxfId="257"/>
-    <tableColumn id="4" name="Наше предложение" dataDxfId="256"/>
-    <tableColumn id="5" name="Статус" dataDxfId="255"/>
-    <tableColumn id="6" name="Почта" dataDxfId="254"/>
-    <tableColumn id="7" name="Цена" dataDxfId="253"/>
-    <tableColumn id="8" name="Город" dataDxfId="252"/>
-    <tableColumn id="9" name="Задача" dataDxfId="251"/>
-    <tableColumn id="10" name="Особенности" dataDxfId="250"/>
-    <tableColumn id="11" name="Дата контакта" dataDxfId="249"/>
-    <tableColumn id="12" name="Дата заказа (предоплаты)" dataDxfId="248"/>
-    <tableColumn id="13" name="Код УТ" dataDxfId="247"/>
-    <tableColumn id="14" name="Дата выполнения" dataDxfId="246"/>
-    <tableColumn id="15" name="Дата сдачи (окончание сделки)" dataDxfId="245"/>
-    <tableColumn id="16" name="Фирма" dataDxfId="244"/>
-    <tableColumn id="17" name="№" dataDxfId="243"/>
-    <tableColumn id="18" name="Как узнали?" dataDxfId="242"/>
+    <tableColumn id="1" name="Телефон" dataDxfId="176"/>
+    <tableColumn id="2" name="Напоминание" dataDxfId="175"/>
+    <tableColumn id="3" name="Ф.И.О." dataDxfId="174"/>
+    <tableColumn id="4" name="Наше предложение" dataDxfId="173"/>
+    <tableColumn id="5" name="Статус" dataDxfId="172"/>
+    <tableColumn id="6" name="Почта" dataDxfId="171"/>
+    <tableColumn id="7" name="Цена" dataDxfId="170"/>
+    <tableColumn id="8" name="Город" dataDxfId="169"/>
+    <tableColumn id="9" name="Задача" dataDxfId="168"/>
+    <tableColumn id="10" name="Особенности" dataDxfId="167"/>
+    <tableColumn id="11" name="Дата контакта" dataDxfId="166"/>
+    <tableColumn id="12" name="Дата заказа (предоплаты)" dataDxfId="165"/>
+    <tableColumn id="13" name="Код УТ" dataDxfId="164"/>
+    <tableColumn id="14" name="Дата выполнения" dataDxfId="163"/>
+    <tableColumn id="15" name="Дата сдачи (окончание сделки)" dataDxfId="162"/>
+    <tableColumn id="16" name="Фирма" dataDxfId="161"/>
+    <tableColumn id="17" name="№" dataDxfId="160"/>
+    <tableColumn id="18" name="Как узнали?" dataDxfId="159"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A3:T14" totalsRowShown="0" headerRowDxfId="241" dataDxfId="239" headerRowBorderDxfId="240" tableBorderDxfId="238">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A3:T14" totalsRowShown="0" headerRowDxfId="158" dataDxfId="156" headerRowBorderDxfId="157" tableBorderDxfId="155">
   <autoFilter ref="A3:T14"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="Столбец1" dataDxfId="237">
+    <tableColumn id="1" name="Столбец1" dataDxfId="154">
       <calculatedColumnFormula>Завершенные!O7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Столбец2" dataDxfId="236">
+    <tableColumn id="2" name="Столбец2" dataDxfId="153">
       <calculatedColumnFormula>Завершенные!M7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Столбец3" dataDxfId="235">
+    <tableColumn id="3" name="Столбец3" dataDxfId="152">
       <calculatedColumnFormula>Завершенные!F7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Столбец4" dataDxfId="234">
+    <tableColumn id="4" name="Столбец4" dataDxfId="151">
       <calculatedColumnFormula>CONCATENATE(Завершенные!E7," ",Завершенные!R7," ",Завершенные!C7," ",Завершенные!H7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Столбец5" dataDxfId="233">
+    <tableColumn id="5" name="Столбец5" dataDxfId="150">
       <calculatedColumnFormula>Завершенные!I7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Столбец6" dataDxfId="232"/>
-    <tableColumn id="7" name="Столбец7" dataDxfId="231"/>
-    <tableColumn id="8" name="Столбец8" dataDxfId="230">
+    <tableColumn id="6" name="Столбец6" dataDxfId="149"/>
+    <tableColumn id="7" name="Столбец7" dataDxfId="148"/>
+    <tableColumn id="8" name="Столбец8" dataDxfId="147">
       <calculatedColumnFormula>'Таблица-отчет'!$E4-'Таблица-отчет'!$G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Столбец9" dataDxfId="229"/>
-    <tableColumn id="10" name="Столбец10" dataDxfId="228">
+    <tableColumn id="9" name="Столбец9" dataDxfId="146"/>
+    <tableColumn id="10" name="Столбец10" dataDxfId="145">
       <calculatedColumnFormula>E4*I4-G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Столбец11" dataDxfId="227">
+    <tableColumn id="11" name="Столбец11" dataDxfId="144">
       <calculatedColumnFormula>H4-J4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Столбец12" dataDxfId="226"/>
-    <tableColumn id="13" name="Столбец13" dataDxfId="225">
+    <tableColumn id="12" name="Столбец12" dataDxfId="143"/>
+    <tableColumn id="13" name="Столбец13" dataDxfId="142">
       <calculatedColumnFormula>L4/H4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Столбец14" dataDxfId="224">
+    <tableColumn id="14" name="Столбец14" dataDxfId="141">
       <calculatedColumnFormula>Завершенные!N7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Столбец15" dataDxfId="223"/>
-    <tableColumn id="16" name="Столбец16" dataDxfId="222"/>
-    <tableColumn id="17" name="Столбец17" dataDxfId="221">
+    <tableColumn id="15" name="Столбец15" dataDxfId="140"/>
+    <tableColumn id="16" name="Столбец16" dataDxfId="139"/>
+    <tableColumn id="17" name="Столбец17" dataDxfId="138">
       <calculatedColumnFormula>H4-L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Столбец18" dataDxfId="220">
+    <tableColumn id="18" name="Столбец18" dataDxfId="137">
       <calculatedColumnFormula>J4-O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Столбец19" dataDxfId="219">
+    <tableColumn id="19" name="Столбец19" dataDxfId="136">
       <calculatedColumnFormula>K4-P4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Столбец20" dataDxfId="218">
+    <tableColumn id="20" name="Столбец20" dataDxfId="135">
       <calculatedColumnFormula>Завершенные!G7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6476,16 +6488,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:I15" totalsRowShown="0" headerRowDxfId="217">
-  <autoFilter ref="A1:I15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:I16" totalsRowShown="0" headerRowDxfId="123">
+  <autoFilter ref="A1:I16"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Фирма" dataDxfId="216"/>
-    <tableColumn id="2" name="Продукция" dataDxfId="215"/>
+    <tableColumn id="1" name="Фирма" dataDxfId="122"/>
+    <tableColumn id="2" name="Продукция" dataDxfId="121"/>
     <tableColumn id="3" name="Сайт"/>
     <tableColumn id="4" name="Почта"/>
-    <tableColumn id="5" name="Город, Адрес" dataDxfId="214"/>
-    <tableColumn id="6" name="Ф.И.О" dataDxfId="213"/>
-    <tableColumn id="7" name="Телефон" dataDxfId="212"/>
+    <tableColumn id="5" name="Город, Адрес" dataDxfId="120"/>
+    <tableColumn id="6" name="Ф.И.О" dataDxfId="119"/>
+    <tableColumn id="7" name="Телефон" dataDxfId="118"/>
     <tableColumn id="8" name="Доп.Сведения"/>
     <tableColumn id="9" name="Примечание"/>
   </tableColumns>
@@ -6783,13 +6795,13 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E55" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E58" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F61" sqref="F61"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6876,13 +6888,13 @@
         <v>210</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>127</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>264</v>
@@ -6913,29 +6925,27 @@
     </row>
     <row r="3" spans="1:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="51">
-        <v>42241</v>
+        <v>80</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>324</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>394</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>73</v>
+        <v>323</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>81</v>
       </c>
       <c r="G3" s="52"/>
-      <c r="H3" s="52" t="s">
-        <v>60</v>
-      </c>
+      <c r="H3" s="52"/>
       <c r="I3" s="52" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J3" s="52"/>
       <c r="K3" s="51">
@@ -6945,39 +6955,41 @@
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
-      <c r="P3" s="50" t="s">
-        <v>72</v>
-      </c>
+      <c r="P3" s="50"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
     </row>
-    <row r="4" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>324</v>
+        <v>499</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="F4" s="85" t="s">
-        <v>81</v>
+        <v>516</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>51</v>
       </c>
       <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="H4" s="52" t="s">
+        <v>49</v>
+      </c>
       <c r="I4" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="52"/>
+        <v>85</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>52</v>
+      </c>
       <c r="K4" s="51">
-        <v>42187</v>
+        <v>42183</v>
       </c>
       <c r="L4" s="52"/>
       <c r="M4" s="52"/>
@@ -6989,35 +7001,33 @@
     </row>
     <row r="5" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>501</v>
+        <v>419</v>
+      </c>
+      <c r="B5" s="51">
+        <v>42242</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>48</v>
+        <v>420</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>88</v>
+        <v>369</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>519</v>
+        <v>649</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="G5" s="52"/>
       <c r="H5" s="52" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="52" t="s">
-        <v>52</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="J5" s="52"/>
       <c r="K5" s="51">
-        <v>42183</v>
+        <v>42188</v>
       </c>
       <c r="L5" s="52"/>
       <c r="M5" s="52"/>
@@ -7025,40 +7035,42 @@
       <c r="O5" s="52"/>
       <c r="P5" s="50"/>
       <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
+      <c r="R5" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>421</v>
-      </c>
-      <c r="B6" s="51">
-        <v>42230</v>
+        <v>150</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>256</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>422</v>
+        <v>147</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>369</v>
+        <v>259</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>518</v>
+        <v>260</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="G6" s="52"/>
-      <c r="H6" s="52" t="s">
-        <v>123</v>
-      </c>
+      <c r="H6" s="52"/>
       <c r="I6" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" s="52"/>
+        <v>257</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>149</v>
+      </c>
       <c r="K6" s="51">
-        <v>42188</v>
+        <v>42191</v>
       </c>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
@@ -7066,118 +7078,114 @@
       <c r="O6" s="52"/>
       <c r="P6" s="50"/>
       <c r="Q6" s="52"/>
-      <c r="R6" s="52" t="s">
-        <v>84</v>
-      </c>
+      <c r="R6" s="52"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>256</v>
+        <v>495</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>259</v>
+        <v>46</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
+        <v>44</v>
+      </c>
+      <c r="G7" s="52">
+        <v>47000</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>54</v>
+      </c>
       <c r="I7" s="52" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="K7" s="51">
-        <v>42191</v>
+        <v>42179</v>
       </c>
       <c r="L7" s="52"/>
       <c r="M7" s="52"/>
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
-      <c r="P7" s="50"/>
+      <c r="P7" s="50" t="s">
+        <v>87</v>
+      </c>
       <c r="Q7" s="52"/>
       <c r="R7" s="52"/>
     </row>
-    <row r="8" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>497</v>
+        <v>263</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>46</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="D8" s="52"/>
       <c r="E8" s="52" t="s">
-        <v>340</v>
-      </c>
-      <c r="F8" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="52">
-        <v>47000</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>54</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
       <c r="I8" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>47</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="J8" s="52"/>
       <c r="K8" s="51">
-        <v>42179</v>
+        <v>42193</v>
       </c>
       <c r="L8" s="52"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
-      <c r="P8" s="50" t="s">
-        <v>87</v>
-      </c>
+      <c r="P8" s="50"/>
       <c r="Q8" s="52"/>
       <c r="R8" s="52"/>
     </row>
     <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>263</v>
+        <v>201</v>
+      </c>
+      <c r="B9" s="51">
+        <v>42292</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="D9" s="52"/>
+        <v>199</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>203</v>
+      </c>
       <c r="E9" s="52" t="s">
-        <v>266</v>
-      </c>
-      <c r="F9" s="50"/>
+        <v>325</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>202</v>
+      </c>
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
       <c r="I9" s="52" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="51">
-        <v>42193</v>
+        <v>42066</v>
       </c>
       <c r="L9" s="52"/>
       <c r="M9" s="52"/>
@@ -7187,33 +7195,39 @@
       <c r="Q9" s="52"/>
       <c r="R9" s="52"/>
     </row>
-    <row r="10" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="51">
-        <v>42292</v>
+        <v>55</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>263</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
+        <v>56</v>
+      </c>
+      <c r="G10" s="52">
+        <v>12000</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>54</v>
+      </c>
       <c r="I10" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="J10" s="52"/>
+        <v>57</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>91</v>
+      </c>
       <c r="K10" s="51">
-        <v>42066</v>
+        <v>42175</v>
       </c>
       <c r="L10" s="52"/>
       <c r="M10" s="52"/>
@@ -7223,39 +7237,35 @@
       <c r="Q10" s="52"/>
       <c r="R10" s="52"/>
     </row>
-    <row r="11" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>55</v>
+    <row r="11" spans="1:22" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>231</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>263</v>
+        <v>521</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>53</v>
+        <v>233</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>58</v>
+        <v>372</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>265</v>
+        <v>520</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="52">
-        <v>12000</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="G11" s="52"/>
       <c r="H11" s="52" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>91</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="J11" s="52"/>
       <c r="K11" s="51">
-        <v>42175</v>
+        <v>42099</v>
       </c>
       <c r="L11" s="52"/>
       <c r="M11" s="52"/>
@@ -7267,213 +7277,213 @@
     </row>
     <row r="12" spans="1:22" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>372</v>
+        <v>196</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52" t="s">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="I12" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="J12" s="52"/>
+        <v>197</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>198</v>
+      </c>
       <c r="K12" s="51">
-        <v>42099</v>
+        <v>42171</v>
       </c>
       <c r="L12" s="52"/>
       <c r="M12" s="52"/>
       <c r="N12" s="52"/>
       <c r="O12" s="52"/>
-      <c r="P12" s="50"/>
+      <c r="P12" s="50" t="s">
+        <v>195</v>
+      </c>
       <c r="Q12" s="52"/>
       <c r="R12" s="52"/>
     </row>
     <row r="13" spans="1:22" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>517</v>
-      </c>
-      <c r="F13" s="50" t="s">
-        <v>240</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="F13" s="50"/>
       <c r="G13" s="52"/>
       <c r="H13" s="52" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I13" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="J13" s="52" t="s">
-        <v>198</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J13" s="52"/>
       <c r="K13" s="51">
-        <v>42171</v>
+        <v>42187</v>
       </c>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
-      <c r="P13" s="50" t="s">
-        <v>195</v>
-      </c>
+      <c r="P13" s="50"/>
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
     </row>
     <row r="14" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>66</v>
+      <c r="A14" s="54" t="s">
+        <v>249</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>501</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>65</v>
+        <v>499</v>
+      </c>
+      <c r="C14" s="121" t="s">
+        <v>246</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>516</v>
-      </c>
-      <c r="F14" s="50"/>
+        <v>513</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>250</v>
+      </c>
       <c r="G14" s="52"/>
-      <c r="H14" s="52" t="s">
+      <c r="H14" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="52"/>
+      <c r="I14" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" s="50"/>
       <c r="K14" s="51">
-        <v>42187</v>
+        <v>42195</v>
       </c>
       <c r="L14" s="52"/>
       <c r="M14" s="52"/>
       <c r="N14" s="52"/>
       <c r="O14" s="52"/>
-      <c r="P14" s="50"/>
+      <c r="P14" s="52"/>
       <c r="Q14" s="52"/>
       <c r="R14" s="52"/>
     </row>
     <row r="15" spans="1:22" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
-        <v>249</v>
+      <c r="A15" s="53" t="s">
+        <v>251</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>501</v>
-      </c>
-      <c r="C15" s="121" t="s">
-        <v>246</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>247</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="52"/>
       <c r="E15" s="52" t="s">
-        <v>515</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>250</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F15" s="50"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="50" t="s">
-        <v>60</v>
-      </c>
+      <c r="H15" s="50"/>
       <c r="I15" s="50" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="J15" s="50"/>
       <c r="K15" s="51">
-        <v>42195</v>
+        <v>42198</v>
       </c>
       <c r="L15" s="52"/>
       <c r="M15" s="52"/>
       <c r="N15" s="52"/>
       <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
+      <c r="P15" s="50"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
     </row>
     <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>263</v>
-      </c>
+      <c r="A16" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="56"/>
       <c r="C16" s="50" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="50"/>
+        <v>274</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="58" t="s">
+        <v>60</v>
+      </c>
       <c r="I16" s="50" t="s">
-        <v>253</v>
-      </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51">
-        <v>42198</v>
-      </c>
-      <c r="L16" s="52"/>
+        <v>273</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="K16" s="59">
+        <v>42200</v>
+      </c>
+      <c r="L16" s="56"/>
       <c r="M16" s="52"/>
       <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="50"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="52"/>
       <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-    </row>
-    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="R16" s="56"/>
+    </row>
+    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="B17" s="56"/>
+        <v>283</v>
+      </c>
+      <c r="B17" s="59">
+        <v>42234</v>
+      </c>
       <c r="C17" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="52"/>
+        <v>277</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>247</v>
+      </c>
       <c r="E17" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="56"/>
+        <v>575</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>282</v>
+      </c>
       <c r="G17" s="56"/>
       <c r="H17" s="58" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="J17" s="50" t="s">
-        <v>275</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="J17" s="50"/>
       <c r="K17" s="59">
         <v>42200</v>
       </c>
@@ -7485,35 +7495,33 @@
       <c r="Q17" s="52"/>
       <c r="R17" s="56"/>
     </row>
-    <row r="18" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="B18" s="59">
-        <v>42234</v>
+        <v>42274</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>581</v>
+        <v>371</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="G18" s="56"/>
-      <c r="H18" s="58" t="s">
-        <v>281</v>
-      </c>
+      <c r="H18" s="58"/>
       <c r="I18" s="50" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="J18" s="50"/>
       <c r="K18" s="59">
-        <v>42200</v>
+        <v>42201</v>
       </c>
       <c r="L18" s="56"/>
       <c r="M18" s="52"/>
@@ -7523,33 +7531,31 @@
       <c r="Q18" s="52"/>
       <c r="R18" s="56"/>
     </row>
-    <row r="19" spans="1:18" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
-        <v>303</v>
-      </c>
+    <row r="19" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
       <c r="B19" s="59">
-        <v>42274</v>
+        <v>42203</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>304</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="D19" s="52"/>
       <c r="E19" s="52" t="s">
-        <v>371</v>
+        <v>511</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="G19" s="56"/>
-      <c r="H19" s="58"/>
+      <c r="H19" s="58" t="s">
+        <v>317</v>
+      </c>
       <c r="I19" s="50" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="J19" s="50"/>
       <c r="K19" s="59">
-        <v>42201</v>
+        <v>42202</v>
       </c>
       <c r="L19" s="56"/>
       <c r="M19" s="52"/>
@@ -7560,30 +7566,34 @@
       <c r="R19" s="56"/>
     </row>
     <row r="20" spans="1:18" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="59">
-        <v>42203</v>
+      <c r="A20" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>499</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>337</v>
-      </c>
-      <c r="D20" s="52"/>
+        <v>318</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>319</v>
+      </c>
       <c r="E20" s="52" t="s">
-        <v>513</v>
+        <v>395</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="G20" s="56"/>
       <c r="H20" s="58" t="s">
-        <v>317</v>
+        <v>140</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>326</v>
+        <v>510</v>
       </c>
       <c r="J20" s="50"/>
       <c r="K20" s="59">
-        <v>42202</v>
+        <v>42205</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="52"/>
@@ -7595,149 +7605,147 @@
     </row>
     <row r="21" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>321</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>501</v>
+        <v>335</v>
+      </c>
+      <c r="B21" s="59">
+        <v>42234</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>319</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>397</v>
+        <v>508</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>320</v>
-      </c>
-      <c r="G21" s="56"/>
+        <v>339</v>
+      </c>
+      <c r="G21" s="58"/>
       <c r="H21" s="58" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>512</v>
-      </c>
-      <c r="J21" s="50"/>
+        <v>509</v>
+      </c>
+      <c r="J21" s="52"/>
       <c r="K21" s="59">
         <v>42205</v>
       </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="56"/>
       <c r="N21" s="52"/>
       <c r="O21" s="56"/>
       <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
+      <c r="Q21" s="57"/>
       <c r="R21" s="56"/>
     </row>
-    <row r="22" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>335</v>
+        <v>160</v>
       </c>
       <c r="B22" s="59">
-        <v>42234</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>319</v>
-      </c>
+        <v>42273</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="51"/>
       <c r="E22" s="52" t="s">
-        <v>510</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>339</v>
-      </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>511</v>
+        <v>648</v>
+      </c>
+      <c r="F22" s="118" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>161</v>
       </c>
       <c r="J22" s="52"/>
       <c r="K22" s="59">
-        <v>42205</v>
-      </c>
-      <c r="L22" s="52"/>
-      <c r="M22" s="56"/>
+        <v>42171</v>
+      </c>
+      <c r="L22" s="56"/>
+      <c r="M22" s="52"/>
       <c r="N22" s="52"/>
       <c r="O22" s="56"/>
-      <c r="P22" s="52"/>
+      <c r="P22" s="52" t="s">
+        <v>159</v>
+      </c>
       <c r="Q22" s="57"/>
       <c r="R22" s="56"/>
     </row>
-    <row r="23" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>160</v>
+        <v>507</v>
       </c>
       <c r="B23" s="59">
-        <v>42241</v>
+        <v>42236</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="51"/>
+        <v>213</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>366</v>
+      </c>
       <c r="E23" s="52" t="s">
-        <v>396</v>
-      </c>
-      <c r="F23" s="118" t="s">
-        <v>162</v>
+        <v>443</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>215</v>
       </c>
       <c r="G23" s="56"/>
       <c r="H23" s="56" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="I23" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="J23" s="52"/>
+        <v>333</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>348</v>
+      </c>
       <c r="K23" s="59">
-        <v>42171</v>
+        <v>42160</v>
       </c>
       <c r="L23" s="56"/>
       <c r="M23" s="52"/>
       <c r="N23" s="52"/>
       <c r="O23" s="56"/>
-      <c r="P23" s="52" t="s">
-        <v>159</v>
-      </c>
+      <c r="P23" s="52"/>
       <c r="Q23" s="57"/>
       <c r="R23" s="56"/>
     </row>
     <row r="24" spans="1:18" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="B24" s="59">
-        <v>42236</v>
+        <v>218</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>440</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>366</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="D24" s="52"/>
       <c r="E24" s="52" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G24" s="56"/>
       <c r="H24" s="56" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I24" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>348</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="J24" s="52"/>
       <c r="K24" s="59">
-        <v>42160</v>
+        <v>42158</v>
       </c>
       <c r="L24" s="56"/>
       <c r="M24" s="52"/>
@@ -7747,30 +7755,30 @@
       <c r="Q24" s="57"/>
       <c r="R24" s="56"/>
     </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="B25" s="59" t="s">
-        <v>442</v>
+        <v>226</v>
+      </c>
+      <c r="B25" s="59">
+        <v>42243</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="D25" s="52"/>
+        <v>127</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>64</v>
+      </c>
       <c r="E25" s="52" t="s">
-        <v>443</v>
+        <v>647</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>219</v>
+        <v>642</v>
       </c>
       <c r="G25" s="56"/>
       <c r="H25" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>220</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="I25" s="52"/>
       <c r="J25" s="52"/>
       <c r="K25" s="59">
         <v>42158</v>
@@ -7779,66 +7787,70 @@
       <c r="M25" s="52"/>
       <c r="N25" s="52"/>
       <c r="O25" s="56"/>
-      <c r="P25" s="52"/>
+      <c r="P25" s="52" t="s">
+        <v>356</v>
+      </c>
       <c r="Q25" s="57"/>
       <c r="R25" s="56"/>
     </row>
     <row r="26" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
       <c r="B26" s="59">
-        <v>42250</v>
+        <v>42274</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>64</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="D26" s="52"/>
       <c r="E26" s="52" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="F26" s="56"/>
       <c r="G26" s="56"/>
-      <c r="H26" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="I26" s="52"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="52" t="s">
+        <v>272</v>
+      </c>
       <c r="J26" s="52"/>
       <c r="K26" s="56"/>
       <c r="L26" s="56"/>
       <c r="M26" s="52"/>
       <c r="N26" s="52"/>
       <c r="O26" s="56"/>
-      <c r="P26" s="52" t="s">
-        <v>356</v>
-      </c>
+      <c r="P26" s="52"/>
       <c r="Q26" s="57"/>
       <c r="R26" s="56"/>
     </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="B27" s="59">
-        <v>42243</v>
+        <v>42222</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D27" s="52"/>
       <c r="E27" s="52" t="s">
-        <v>508</v>
-      </c>
-      <c r="F27" s="56"/>
+        <v>444</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>329</v>
+      </c>
       <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
+      <c r="H27" s="56" t="s">
+        <v>60</v>
+      </c>
       <c r="I27" s="52" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="J27" s="52"/>
-      <c r="K27" s="56"/>
+      <c r="K27" s="59">
+        <v>42206</v>
+      </c>
       <c r="L27" s="56"/>
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
@@ -7848,171 +7860,165 @@
       <c r="R27" s="56"/>
     </row>
     <row r="28" spans="1:18" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="B28" s="59">
-        <v>42222</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>277</v>
+      <c r="A28" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>229</v>
       </c>
       <c r="D28" s="52"/>
       <c r="E28" s="52" t="s">
-        <v>446</v>
-      </c>
-      <c r="F28" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56" t="s">
-        <v>60</v>
+        <v>438</v>
+      </c>
+      <c r="F28" s="50"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52" t="s">
+        <v>214</v>
       </c>
       <c r="I28" s="52" t="s">
-        <v>327</v>
+        <v>230</v>
       </c>
       <c r="J28" s="52"/>
-      <c r="K28" s="59">
-        <v>42206</v>
-      </c>
-      <c r="L28" s="56"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
       <c r="M28" s="52"/>
       <c r="N28" s="52"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="56"/>
-    </row>
-    <row r="29" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>441</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52" t="s">
-        <v>440</v>
-      </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="I29" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+    </row>
+    <row r="29" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="141" t="s">
+        <v>349</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>343</v>
+      </c>
+      <c r="D29" s="95" t="s">
+        <v>344</v>
+      </c>
+      <c r="E29" s="95" t="s">
+        <v>363</v>
+      </c>
+      <c r="F29" s="109" t="s">
+        <v>345</v>
+      </c>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96" t="s">
+        <v>346</v>
+      </c>
+      <c r="I29" s="95" t="s">
+        <v>347</v>
+      </c>
+      <c r="J29" s="94"/>
+      <c r="K29" s="93">
+        <v>42208</v>
+      </c>
+      <c r="L29" s="96"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="96"/>
+      <c r="R29" s="96"/>
     </row>
     <row r="30" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="150" t="s">
-        <v>349</v>
-      </c>
-      <c r="B30" s="93" t="s">
-        <v>380</v>
-      </c>
-      <c r="C30" s="94" t="s">
-        <v>343</v>
-      </c>
-      <c r="D30" s="95" t="s">
-        <v>344</v>
-      </c>
-      <c r="E30" s="95" t="s">
-        <v>363</v>
-      </c>
-      <c r="F30" s="109" t="s">
-        <v>345</v>
-      </c>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96" t="s">
-        <v>346</v>
-      </c>
-      <c r="I30" s="95" t="s">
-        <v>347</v>
-      </c>
-      <c r="J30" s="94"/>
-      <c r="K30" s="93">
+      <c r="A30" s="106" t="s">
+        <v>350</v>
+      </c>
+      <c r="B30" s="105"/>
+      <c r="C30" s="106" t="s">
+        <v>351</v>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="52" t="s">
+        <v>352</v>
+      </c>
+      <c r="J30" s="106"/>
+      <c r="K30" s="107">
         <v>42208</v>
       </c>
-      <c r="L30" s="96"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="96"/>
-    </row>
-    <row r="31" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="106" t="s">
-        <v>350</v>
-      </c>
-      <c r="B31" s="105"/>
-      <c r="C31" s="106" t="s">
-        <v>351</v>
-      </c>
-      <c r="D31" s="52"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="105"/>
+      <c r="R30" s="105"/>
+    </row>
+    <row r="31" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="111" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" s="113" t="s">
+        <v>505</v>
+      </c>
+      <c r="C31" s="111" t="s">
+        <v>357</v>
+      </c>
+      <c r="D31" s="112" t="s">
+        <v>76</v>
+      </c>
       <c r="E31" s="52" t="s">
-        <v>353</v>
-      </c>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="52" t="s">
-        <v>352</v>
-      </c>
-      <c r="J31" s="106"/>
-      <c r="K31" s="107">
-        <v>42208</v>
-      </c>
-      <c r="L31" s="105"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="105"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="105"/>
-    </row>
-    <row r="32" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="F31" s="105" t="s">
+        <v>359</v>
+      </c>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110" t="s">
+        <v>361</v>
+      </c>
+      <c r="I31" s="112" t="s">
+        <v>358</v>
+      </c>
+      <c r="J31" s="111"/>
+      <c r="K31" s="113">
+        <v>42209</v>
+      </c>
+      <c r="L31" s="110"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="112"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+    </row>
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="111" t="s">
-        <v>360</v>
-      </c>
-      <c r="B32" s="113" t="s">
-        <v>507</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B32" s="110"/>
       <c r="C32" s="111" t="s">
-        <v>357</v>
-      </c>
-      <c r="D32" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="52" t="s">
-        <v>398</v>
+        <v>421</v>
+      </c>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112" t="s">
+        <v>437</v>
       </c>
       <c r="F32" s="105" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="G32" s="110"/>
-      <c r="H32" s="110" t="s">
-        <v>361</v>
-      </c>
+      <c r="H32" s="110"/>
       <c r="I32" s="112" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="J32" s="111"/>
-      <c r="K32" s="113">
-        <v>42209</v>
-      </c>
+      <c r="K32" s="110"/>
       <c r="L32" s="110"/>
       <c r="M32" s="112"/>
       <c r="N32" s="112"/>
@@ -8023,23 +8029,25 @@
     </row>
     <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="111" t="s">
-        <v>381</v>
-      </c>
-      <c r="B33" s="110"/>
+        <v>386</v>
+      </c>
+      <c r="B33" s="113" t="s">
+        <v>504</v>
+      </c>
       <c r="C33" s="111" t="s">
-        <v>423</v>
+        <v>384</v>
       </c>
       <c r="D33" s="112"/>
       <c r="E33" s="112" t="s">
-        <v>439</v>
-      </c>
-      <c r="F33" s="105" t="s">
-        <v>382</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="F33" s="110"/>
       <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
+      <c r="H33" s="110" t="s">
+        <v>385</v>
+      </c>
       <c r="I33" s="112" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="J33" s="111"/>
       <c r="K33" s="110"/>
@@ -8053,28 +8061,34 @@
     </row>
     <row r="34" spans="1:18" s="97" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="111" t="s">
-        <v>386</v>
-      </c>
-      <c r="B34" s="113" t="s">
-        <v>506</v>
+        <v>400</v>
+      </c>
+      <c r="B34" s="107" t="s">
+        <v>576</v>
       </c>
       <c r="C34" s="111" t="s">
-        <v>384</v>
-      </c>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112" t="s">
-        <v>505</v>
-      </c>
-      <c r="F34" s="110"/>
+        <v>399</v>
+      </c>
+      <c r="D34" s="112" t="s">
+        <v>502</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>577</v>
+      </c>
+      <c r="F34" s="110" t="s">
+        <v>407</v>
+      </c>
       <c r="G34" s="110"/>
       <c r="H34" s="110" t="s">
-        <v>385</v>
+        <v>60</v>
       </c>
       <c r="I34" s="112" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="J34" s="111"/>
-      <c r="K34" s="110"/>
+      <c r="K34" s="113">
+        <v>42216</v>
+      </c>
       <c r="L34" s="110"/>
       <c r="M34" s="112"/>
       <c r="N34" s="112"/>
@@ -8085,29 +8099,27 @@
     </row>
     <row r="35" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="111" t="s">
-        <v>402</v>
-      </c>
-      <c r="B35" s="107" t="s">
-        <v>582</v>
+        <v>405</v>
+      </c>
+      <c r="B35" s="113">
+        <v>42220</v>
       </c>
       <c r="C35" s="111" t="s">
-        <v>401</v>
-      </c>
-      <c r="D35" s="112" t="s">
-        <v>504</v>
-      </c>
-      <c r="E35" s="52" t="s">
-        <v>583</v>
+        <v>404</v>
+      </c>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112" t="s">
+        <v>415</v>
       </c>
       <c r="F35" s="110" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G35" s="110"/>
       <c r="H35" s="110" t="s">
         <v>60</v>
       </c>
       <c r="I35" s="112" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="J35" s="111"/>
       <c r="K35" s="113">
@@ -8121,29 +8133,27 @@
       <c r="Q35" s="110"/>
       <c r="R35" s="110"/>
     </row>
-    <row r="36" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="111" t="s">
-        <v>407</v>
-      </c>
-      <c r="B36" s="113">
-        <v>42220</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B36" s="110"/>
       <c r="C36" s="111" t="s">
-        <v>406</v>
+        <v>277</v>
       </c>
       <c r="D36" s="112"/>
       <c r="E36" s="112" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F36" s="110" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G36" s="110"/>
       <c r="H36" s="110" t="s">
         <v>60</v>
       </c>
       <c r="I36" s="112" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="J36" s="111"/>
       <c r="K36" s="113">
@@ -8159,29 +8169,31 @@
     </row>
     <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="111" t="s">
-        <v>415</v>
-      </c>
-      <c r="B37" s="110"/>
+        <v>433</v>
+      </c>
+      <c r="B37" s="113" t="s">
+        <v>521</v>
+      </c>
       <c r="C37" s="111" t="s">
-        <v>277</v>
-      </c>
-      <c r="D37" s="112"/>
+        <v>432</v>
+      </c>
+      <c r="D37" s="112" t="s">
+        <v>304</v>
+      </c>
       <c r="E37" s="112" t="s">
-        <v>420</v>
+        <v>522</v>
       </c>
       <c r="F37" s="110" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="G37" s="110"/>
       <c r="H37" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" s="112" t="s">
-        <v>416</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="I37" s="112"/>
       <c r="J37" s="111"/>
       <c r="K37" s="113">
-        <v>42216</v>
+        <v>42221</v>
       </c>
       <c r="L37" s="110"/>
       <c r="M37" s="112"/>
@@ -8191,28 +8203,26 @@
       <c r="Q37" s="110"/>
       <c r="R37" s="110"/>
     </row>
-    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="111" t="s">
         <v>435</v>
       </c>
-      <c r="B38" s="113" t="s">
-        <v>525</v>
+      <c r="B38" s="110" t="s">
+        <v>499</v>
       </c>
       <c r="C38" s="111" t="s">
-        <v>434</v>
+        <v>127</v>
       </c>
       <c r="D38" s="112" t="s">
-        <v>304</v>
+        <v>436</v>
       </c>
       <c r="E38" s="112" t="s">
-        <v>526</v>
-      </c>
-      <c r="F38" s="110" t="s">
-        <v>436</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F38" s="110"/>
       <c r="G38" s="110"/>
       <c r="H38" s="110" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="I38" s="112"/>
       <c r="J38" s="111"/>
@@ -8227,32 +8237,28 @@
       <c r="Q38" s="110"/>
       <c r="R38" s="110"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="111" t="s">
-        <v>437</v>
-      </c>
-      <c r="B39" s="110" t="s">
-        <v>501</v>
-      </c>
-      <c r="C39" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="112" t="s">
-        <v>438</v>
-      </c>
-      <c r="E39" s="112" t="s">
-        <v>266</v>
+        <v>446</v>
+      </c>
+      <c r="B39" s="107" t="s">
+        <v>521</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="D39" s="112"/>
+      <c r="E39" s="52" t="s">
+        <v>587</v>
       </c>
       <c r="F39" s="110"/>
       <c r="G39" s="110"/>
-      <c r="H39" s="110" t="s">
-        <v>140</v>
-      </c>
-      <c r="I39" s="112"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="112" t="s">
+        <v>501</v>
+      </c>
       <c r="J39" s="111"/>
-      <c r="K39" s="113">
-        <v>42221</v>
-      </c>
+      <c r="K39" s="110"/>
       <c r="L39" s="110"/>
       <c r="M39" s="112"/>
       <c r="N39" s="112"/>
@@ -8261,178 +8267,171 @@
       <c r="Q39" s="110"/>
       <c r="R39" s="110"/>
     </row>
-    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="111" t="s">
-        <v>448</v>
-      </c>
-      <c r="B40" s="107" t="s">
-        <v>525</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="52" t="s">
-        <v>593</v>
-      </c>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="112" t="s">
-        <v>503</v>
-      </c>
-      <c r="J40" s="111"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="110"/>
-      <c r="P40" s="111"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
-    </row>
-    <row r="41" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="151" t="s">
+    <row r="40" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="142" t="s">
+        <v>450</v>
+      </c>
+      <c r="B40" s="120" t="s">
+        <v>499</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29" t="s">
+        <v>596</v>
+      </c>
+      <c r="F40" s="123" t="s">
+        <v>453</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="I40" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="B41" s="120" t="s">
-        <v>501</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29" t="s">
-        <v>604</v>
-      </c>
-      <c r="F41" s="123" t="s">
+      <c r="J40" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="K40" s="120">
+        <v>42227</v>
+      </c>
+      <c r="L40" s="32"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="32"/>
+    </row>
+    <row r="41" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="143" t="s">
         <v>455</v>
       </c>
-      <c r="G41" s="35" t="s">
-        <v>521</v>
-      </c>
-      <c r="H41" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="J41" s="32" t="s">
+      <c r="B41" s="124">
+        <v>42273</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="J41" s="33"/>
+      <c r="K41" s="124">
+        <v>42227</v>
+      </c>
+      <c r="L41" s="33"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="33"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="K41" s="120">
+      <c r="C42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K42" s="13">
         <v>42227</v>
       </c>
-      <c r="L41" s="32"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="32"/>
-    </row>
-    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="152" t="s">
-        <v>457</v>
-      </c>
-      <c r="B42" s="124">
-        <v>42242</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>628</v>
-      </c>
-      <c r="F42" s="39" t="s">
-        <v>465</v>
-      </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="I42" s="26" t="s">
-        <v>626</v>
-      </c>
-      <c r="J42" s="33"/>
-      <c r="K42" s="124">
-        <v>42227</v>
-      </c>
-      <c r="L42" s="33"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="33"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
+      </c>
+      <c r="B43" s="13">
+        <v>42235</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>459</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="G43" s="3">
-        <v>9000</v>
+      <c r="I43" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="K43" s="13">
         <v>42227</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>464</v>
+        <v>623</v>
       </c>
       <c r="B44" s="13">
-        <v>42235</v>
+        <v>42241</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>461</v>
+        <v>622</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>480</v>
+        <v>304</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>463</v>
+        <v>645</v>
+      </c>
+      <c r="F44" s="168" t="s">
+        <v>574</v>
       </c>
       <c r="K44" s="13">
-        <v>42227</v>
+        <v>42228</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>601</v>
+        <v>465</v>
       </c>
       <c r="B45" s="13">
-        <v>42237</v>
+        <v>42236</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>158</v>
+        <v>464</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>304</v>
+        <v>466</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="F45" s="178" t="s">
-        <v>580</v>
+        <v>646</v>
+      </c>
+      <c r="F45" s="85" t="s">
+        <v>467</v>
       </c>
       <c r="K45" s="13">
         <v>42228</v>
@@ -8440,68 +8439,62 @@
     </row>
     <row r="46" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B46" s="13">
-        <v>42236</v>
+        <v>468</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>576</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>468</v>
+        <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="F46" s="85" t="s">
         <v>469</v>
       </c>
+      <c r="I46" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>477</v>
+      </c>
       <c r="K46" s="13">
         <v>42228</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
       <c r="F47" s="85" t="s">
         <v>471</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="K47" s="13">
         <v>42228</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>501</v>
+        <v>424</v>
+      </c>
+      <c r="B48" s="13">
+        <v>42241</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F48" s="85" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="K48" s="13">
         <v>42228</v>
@@ -8509,120 +8502,126 @@
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="B49" s="13">
-        <v>42241</v>
+        <v>42237</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>423</v>
+        <v>473</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>490</v>
+        <v>523</v>
+      </c>
+      <c r="F49" s="85" t="s">
+        <v>475</v>
       </c>
       <c r="K49" s="13">
         <v>42228</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B50" s="13">
-        <v>42237</v>
+      <c r="B50" s="13" t="s">
+        <v>595</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>476</v>
+        <v>304</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="F50" s="85" t="s">
-        <v>477</v>
+        <v>484</v>
+      </c>
+      <c r="F50" t="s">
+        <v>480</v>
       </c>
       <c r="K50" s="13">
-        <v>42228</v>
+        <v>42219</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>485</v>
+      </c>
       <c r="B51" s="13" t="s">
-        <v>603</v>
+        <v>499</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>483</v>
+        <v>127</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>304</v>
+        <v>487</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F51" s="85" t="s">
         <v>486</v>
       </c>
-      <c r="F51" t="s">
-        <v>482</v>
+      <c r="H51" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="K51" s="13">
-        <v>42219</v>
+        <v>42229</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F52" s="85" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="K52" s="13">
         <v>42229</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="K53" s="13">
-        <v>42229</v>
+    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B54" s="13">
+        <v>42244</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F54" s="85" t="s">
+        <v>533</v>
+      </c>
+      <c r="K54" s="13">
+        <v>42233</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -8630,283 +8629,347 @@
         <v>536</v>
       </c>
       <c r="B55" s="13">
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>535</v>
+        <v>277</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>614</v>
+        <v>538</v>
       </c>
       <c r="F55" s="85" t="s">
         <v>537</v>
       </c>
+      <c r="H55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="K55" s="13">
         <v>42233</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F56" s="85" t="s">
         <v>540</v>
       </c>
-      <c r="B56" s="13">
-        <v>42243</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="F56" s="85" t="s">
-        <v>541</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="K56" s="13">
-        <v>42233</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>42234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
+      </c>
+      <c r="B57" s="13">
+        <v>42249</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D57" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F57" s="85" t="s">
         <v>546</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="F57" s="85" t="s">
-        <v>545</v>
-      </c>
       <c r="H57" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>549</v>
+        <v>60</v>
       </c>
       <c r="K57" s="13">
         <v>42234</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>551</v>
       </c>
       <c r="B58" s="13">
-        <v>42249</v>
+        <v>42236</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>127</v>
+        <v>550</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>552</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>60</v>
       </c>
       <c r="K58" s="13">
-        <v>42234</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="B59" s="13">
-        <v>42236</v>
+        <v>42242</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F59" s="85" t="s">
+        <v>571</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F59" s="85" t="s">
-        <v>559</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="K59" s="13">
         <v>42235</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="B60" s="13">
-        <v>42240</v>
+        <v>42241</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>556</v>
+        <v>598</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="F60" s="85" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>562</v>
+        <v>591</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>590</v>
       </c>
       <c r="K60" s="13">
         <v>42235</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B61" s="13">
+        <v>42242</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="F61" s="85" t="s">
         <v>600</v>
       </c>
-      <c r="B61" s="13">
-        <v>42241</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="H61" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F61" s="85" t="s">
-        <v>596</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>597</v>
-      </c>
       <c r="K61" s="13">
-        <v>42235</v>
+        <v>42236</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="B62" s="13">
-        <v>42242</v>
+        <v>42244</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>608</v>
+        <v>42</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F62" s="85" t="s">
+        <v>620</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="K62" s="13">
+        <v>42237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B63" s="13">
+        <v>42243</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="F62" s="85" t="s">
-        <v>609</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="K62" s="13">
-        <v>42236</v>
+      <c r="D63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F63" s="85" t="s">
+        <v>626</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="K63" s="13">
+        <v>42241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B64" s="13">
+        <v>42243</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="F64" s="85" t="s">
+        <v>629</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="K64" s="13">
+        <v>42241</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
+      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:R8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
-      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:R8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="B1 B55:B1048576 B30:B40 B43:B52">
-    <cfRule type="timePeriod" dxfId="203" priority="27" timePeriod="last7Days">
+  <conditionalFormatting sqref="B1 B54:B1048576 B29:B39 B42:B51">
+    <cfRule type="timePeriod" dxfId="274" priority="27" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="202" priority="28" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="273" priority="28" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="201" priority="29" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="272" priority="29" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B40">
-    <cfRule type="endsWith" dxfId="200" priority="19" operator="endsWith" text="*">
+  <conditionalFormatting sqref="B2:B39">
+    <cfRule type="endsWith" dxfId="271" priority="19" operator="endsWith" text="*">
       <formula>RIGHT(B2,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="199" priority="20" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="270" priority="20" timePeriod="today">
       <formula>FLOOR(B2,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="198" priority="21" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="269" priority="21" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B2,1)&lt;=6,FLOOR(B2,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="197" priority="22" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="268" priority="22" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A1048576 A1:A40 A43:A52">
-    <cfRule type="beginsWith" dxfId="196" priority="9" operator="beginsWith" text="068">
+  <conditionalFormatting sqref="A54:A1048576 A42:A51 A1:A39">
+    <cfRule type="beginsWith" dxfId="267" priority="9" operator="beginsWith" text="068">
       <formula>LEFT(A1,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="195" priority="10" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="266" priority="10" operator="beginsWith" text="098">
       <formula>LEFT(A1,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="194" priority="11" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="265" priority="11" operator="beginsWith" text="097">
       <formula>LEFT(A1,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="193" priority="12" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="264" priority="12" operator="beginsWith" text="096">
       <formula>LEFT(A1,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="192" priority="14" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="263" priority="14" operator="beginsWith" text="067">
       <formula>LEFT(A1,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B42">
-    <cfRule type="endsWith" dxfId="191" priority="1" operator="endsWith" text="*">
-      <formula>RIGHT(B41,LEN("*"))="*"</formula>
+  <conditionalFormatting sqref="B40:B41">
+    <cfRule type="endsWith" dxfId="262" priority="1" operator="endsWith" text="*">
+      <formula>RIGHT(B40,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="190" priority="2" timePeriod="today">
-      <formula>FLOOR(B41,1)=TODAY()</formula>
+    <cfRule type="timePeriod" dxfId="261" priority="2" timePeriod="today">
+      <formula>FLOOR(B40,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="189" priority="3" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(B41,1)&lt;=6,FLOOR(B41,1)&lt;=TODAY())</formula>
+    <cfRule type="timePeriod" dxfId="260" priority="3" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(B40,1)&lt;=6,FLOOR(B40,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="188" priority="4" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(B41,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B41,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    <cfRule type="timePeriod" dxfId="259" priority="4" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(B40,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B40,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F41" r:id="rId1"/>
+    <hyperlink ref="F40" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8924,10 +8987,10 @@
   <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8938,7 +9001,7 @@
     <col min="4" max="4" width="21.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="31" style="2" customWidth="1"/>
     <col min="6" max="6" width="29" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="133" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="19" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="29.85546875" style="3" customWidth="1"/>
@@ -8971,7 +9034,7 @@
       <c r="F1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="G1" s="23" t="s">
         <v>35</v>
       </c>
       <c r="H1" s="23" t="s">
@@ -9027,7 +9090,7 @@
       <c r="F2" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="126">
+      <c r="G2" s="52">
         <v>5400</v>
       </c>
       <c r="H2" s="52" t="s">
@@ -9062,24 +9125,24 @@
     </row>
     <row r="3" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B3" s="51">
-        <v>42240</v>
+        <v>42242</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>71</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>594</v>
+        <v>621</v>
       </c>
       <c r="F3" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="G3" s="126">
+      <c r="G3" s="52">
         <v>80200</v>
       </c>
       <c r="H3" s="52" t="s">
@@ -9125,7 +9188,7 @@
       <c r="F4" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="126">
+      <c r="G4" s="52">
         <v>55920</v>
       </c>
       <c r="H4" s="52" t="s">
@@ -9152,12 +9215,12 @@
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
     </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="9" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
         <v>315</v>
       </c>
       <c r="B5" s="88">
-        <v>42234</v>
+        <v>42244</v>
       </c>
       <c r="C5" s="89" t="s">
         <v>365</v>
@@ -9166,12 +9229,12 @@
         <v>322</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>544</v>
+        <v>655</v>
       </c>
       <c r="F5" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="G5" s="127">
+      <c r="G5" s="91">
         <v>233000</v>
       </c>
       <c r="H5" s="90" t="s">
@@ -9205,21 +9268,21 @@
         <v>307</v>
       </c>
       <c r="B6" s="59">
-        <v>42234</v>
+        <v>42242</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="F6" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="G6" s="129">
+      <c r="G6" s="56">
         <v>31200</v>
       </c>
       <c r="H6" s="58" t="s">
@@ -9246,26 +9309,26 @@
       <c r="Q6" s="52"/>
       <c r="R6" s="56"/>
     </row>
-    <row r="7" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B7" s="59">
-        <v>42236</v>
+        <v>42242</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>607</v>
+        <v>643</v>
       </c>
       <c r="F7" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="171">
+      <c r="G7" s="170">
         <v>23500</v>
       </c>
       <c r="H7" s="58" t="s">
@@ -9285,41 +9348,41 @@
       </c>
       <c r="O7" s="56"/>
       <c r="P7" s="52" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="Q7" s="57"/>
       <c r="R7" s="56"/>
     </row>
     <row r="8" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="110" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B8" s="113">
-        <v>42243</v>
+        <v>42244</v>
       </c>
       <c r="C8" s="111" t="s">
         <v>277</v>
       </c>
       <c r="D8" s="112" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E8" s="112" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F8" s="117" t="s">
-        <v>411</v>
-      </c>
-      <c r="G8" s="128">
+        <v>409</v>
+      </c>
+      <c r="G8" s="110">
         <v>35900</v>
       </c>
       <c r="H8" s="110" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="I8" s="112" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="J8" s="111" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K8" s="113">
         <v>42216</v>
@@ -9335,7 +9398,7 @@
       </c>
       <c r="O8" s="110"/>
       <c r="P8" s="111" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q8" s="110"/>
       <c r="R8" s="110"/>
@@ -9351,15 +9414,15 @@
         <v>89</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="F9" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="126">
+      <c r="G9" s="52">
         <v>53300</v>
       </c>
       <c r="H9" s="52" t="s">
@@ -9390,34 +9453,34 @@
     </row>
     <row r="10" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B10" s="63">
         <v>42237</v>
       </c>
       <c r="C10" s="60" t="s">
+        <v>604</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>448</v>
+      </c>
+      <c r="E10" s="61" t="s">
         <v>613</v>
       </c>
-      <c r="D10" s="61" t="s">
-        <v>450</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>623</v>
-      </c>
       <c r="F10" s="66" t="s">
-        <v>617</v>
-      </c>
-      <c r="G10" s="188">
+        <v>607</v>
+      </c>
+      <c r="G10" s="169">
         <v>57300</v>
       </c>
       <c r="H10" s="66" t="s">
         <v>143</v>
       </c>
       <c r="I10" s="61" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="J10" s="64" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="K10" s="64"/>
       <c r="L10" s="63">
@@ -9426,46 +9489,46 @@
       <c r="M10" s="61">
         <v>2895</v>
       </c>
-      <c r="N10" s="148">
+      <c r="N10" s="139">
         <v>42289</v>
       </c>
       <c r="O10" s="64"/>
       <c r="P10" s="61" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="Q10" s="65"/>
       <c r="R10" s="67"/>
     </row>
     <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B11" s="13">
-        <v>42236</v>
+        <v>42244</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>624</v>
+        <v>657</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G11" s="3">
         <v>81550</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="K11" s="13">
         <v>42233</v>
@@ -9488,7 +9551,7 @@
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="36"/>
-      <c r="G12" s="130"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="29"/>
       <c r="J12" s="32"/>
@@ -9508,7 +9571,7 @@
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="39"/>
-      <c r="G13" s="131"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="26"/>
       <c r="J13" s="33"/>
@@ -9528,7 +9591,7 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="36"/>
-      <c r="G14" s="130"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="36"/>
       <c r="I14" s="29"/>
       <c r="J14" s="32"/>
@@ -9548,7 +9611,7 @@
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
       <c r="F15" s="39"/>
-      <c r="G15" s="131"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="26"/>
       <c r="J15" s="33"/>
@@ -9568,7 +9631,7 @@
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="36"/>
-      <c r="G16" s="130"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="29"/>
       <c r="J16" s="32"/>
@@ -9588,7 +9651,7 @@
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="39"/>
-      <c r="G17" s="131"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="39"/>
       <c r="I17" s="26"/>
       <c r="J17" s="33"/>
@@ -9608,7 +9671,7 @@
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="36"/>
-      <c r="G18" s="130"/>
+      <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="29"/>
       <c r="J18" s="32"/>
@@ -9628,7 +9691,7 @@
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="39"/>
-      <c r="G19" s="131"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="39"/>
       <c r="I19" s="26"/>
       <c r="J19" s="33"/>
@@ -9648,7 +9711,7 @@
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="36"/>
-      <c r="G20" s="130"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="29"/>
       <c r="J20" s="32"/>
@@ -9668,7 +9731,7 @@
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="39"/>
-      <c r="G21" s="131"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="39"/>
       <c r="I21" s="26"/>
       <c r="J21" s="33"/>
@@ -9688,7 +9751,7 @@
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="36"/>
-      <c r="G22" s="130"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="29"/>
       <c r="J22" s="32"/>
@@ -9708,7 +9771,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="39"/>
-      <c r="G23" s="131"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="39"/>
       <c r="I23" s="26"/>
       <c r="J23" s="33"/>
@@ -9728,7 +9791,7 @@
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="36"/>
-      <c r="G24" s="130"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="36"/>
       <c r="I24" s="29"/>
       <c r="J24" s="32"/>
@@ -9748,7 +9811,7 @@
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
       <c r="F25" s="39"/>
-      <c r="G25" s="131"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="39"/>
       <c r="I25" s="26"/>
       <c r="J25" s="33"/>
@@ -9768,7 +9831,7 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="36"/>
-      <c r="G26" s="130"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="36"/>
       <c r="I26" s="29"/>
       <c r="J26" s="32"/>
@@ -9788,7 +9851,7 @@
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="39"/>
-      <c r="G27" s="131"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="26"/>
       <c r="J27" s="33"/>
@@ -9808,7 +9871,7 @@
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="36"/>
-      <c r="G28" s="130"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="36"/>
       <c r="I28" s="29"/>
       <c r="J28" s="32"/>
@@ -9828,7 +9891,7 @@
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="39"/>
-      <c r="G29" s="131"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="26"/>
       <c r="J29" s="33"/>
@@ -9848,7 +9911,7 @@
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="36"/>
-      <c r="G30" s="130"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="36"/>
       <c r="I30" s="29"/>
       <c r="J30" s="32"/>
@@ -9868,7 +9931,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="39"/>
-      <c r="G31" s="131"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="39"/>
       <c r="I31" s="26"/>
       <c r="J31" s="33"/>
@@ -9888,7 +9951,7 @@
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
       <c r="F32" s="36"/>
-      <c r="G32" s="130"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="36"/>
       <c r="I32" s="29"/>
       <c r="J32" s="32"/>
@@ -9908,7 +9971,7 @@
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="39"/>
-      <c r="G33" s="131"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="39"/>
       <c r="I33" s="26"/>
       <c r="J33" s="33"/>
@@ -9928,7 +9991,7 @@
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
       <c r="F34" s="36"/>
-      <c r="G34" s="130"/>
+      <c r="G34" s="36"/>
       <c r="H34" s="36"/>
       <c r="I34" s="29"/>
       <c r="J34" s="32"/>
@@ -9948,7 +10011,7 @@
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="39"/>
-      <c r="G35" s="131"/>
+      <c r="G35" s="39"/>
       <c r="H35" s="39"/>
       <c r="I35" s="26"/>
       <c r="J35" s="33"/>
@@ -9968,7 +10031,7 @@
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
       <c r="F36" s="36"/>
-      <c r="G36" s="130"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="36"/>
       <c r="I36" s="29"/>
       <c r="J36" s="32"/>
@@ -9988,7 +10051,7 @@
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="39"/>
-      <c r="G37" s="131"/>
+      <c r="G37" s="39"/>
       <c r="H37" s="39"/>
       <c r="I37" s="26"/>
       <c r="J37" s="33"/>
@@ -10008,7 +10071,7 @@
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
       <c r="F38" s="36"/>
-      <c r="G38" s="130"/>
+      <c r="G38" s="36"/>
       <c r="H38" s="36"/>
       <c r="I38" s="29"/>
       <c r="J38" s="32"/>
@@ -10028,7 +10091,7 @@
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="39"/>
-      <c r="G39" s="131"/>
+      <c r="G39" s="39"/>
       <c r="H39" s="39"/>
       <c r="I39" s="26"/>
       <c r="J39" s="33"/>
@@ -10048,7 +10111,7 @@
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
       <c r="F40" s="36"/>
-      <c r="G40" s="130"/>
+      <c r="G40" s="36"/>
       <c r="H40" s="36"/>
       <c r="I40" s="29"/>
       <c r="J40" s="32"/>
@@ -10068,7 +10131,7 @@
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="39"/>
-      <c r="G41" s="131"/>
+      <c r="G41" s="39"/>
       <c r="H41" s="39"/>
       <c r="I41" s="26"/>
       <c r="J41" s="33"/>
@@ -10088,7 +10151,7 @@
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
       <c r="F42" s="36"/>
-      <c r="G42" s="130"/>
+      <c r="G42" s="36"/>
       <c r="H42" s="36"/>
       <c r="I42" s="29"/>
       <c r="J42" s="32"/>
@@ -10108,7 +10171,7 @@
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="131"/>
+      <c r="G43" s="39"/>
       <c r="H43" s="39"/>
       <c r="I43" s="26"/>
       <c r="J43" s="33"/>
@@ -10128,7 +10191,7 @@
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
       <c r="F44" s="36"/>
-      <c r="G44" s="130"/>
+      <c r="G44" s="36"/>
       <c r="H44" s="36"/>
       <c r="I44" s="29"/>
       <c r="J44" s="32"/>
@@ -10148,7 +10211,7 @@
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
       <c r="F45" s="39"/>
-      <c r="G45" s="131"/>
+      <c r="G45" s="39"/>
       <c r="H45" s="39"/>
       <c r="I45" s="26"/>
       <c r="J45" s="33"/>
@@ -10168,7 +10231,7 @@
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
       <c r="F46" s="36"/>
-      <c r="G46" s="130"/>
+      <c r="G46" s="36"/>
       <c r="H46" s="36"/>
       <c r="I46" s="29"/>
       <c r="J46" s="32"/>
@@ -10188,7 +10251,7 @@
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
       <c r="F47" s="39"/>
-      <c r="G47" s="131"/>
+      <c r="G47" s="39"/>
       <c r="H47" s="39"/>
       <c r="I47" s="26"/>
       <c r="J47" s="33"/>
@@ -10208,7 +10271,7 @@
       <c r="D48" s="29"/>
       <c r="E48" s="29"/>
       <c r="F48" s="36"/>
-      <c r="G48" s="130"/>
+      <c r="G48" s="36"/>
       <c r="H48" s="36"/>
       <c r="I48" s="29"/>
       <c r="J48" s="32"/>
@@ -10228,7 +10291,7 @@
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="39"/>
-      <c r="G49" s="131"/>
+      <c r="G49" s="39"/>
       <c r="H49" s="39"/>
       <c r="I49" s="26"/>
       <c r="J49" s="33"/>
@@ -10248,7 +10311,7 @@
       <c r="D50" s="29"/>
       <c r="E50" s="29"/>
       <c r="F50" s="36"/>
-      <c r="G50" s="130"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="36"/>
       <c r="I50" s="29"/>
       <c r="J50" s="32"/>
@@ -10268,7 +10331,7 @@
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="39"/>
-      <c r="G51" s="131"/>
+      <c r="G51" s="39"/>
       <c r="H51" s="39"/>
       <c r="I51" s="26"/>
       <c r="J51" s="33"/>
@@ -10288,7 +10351,7 @@
       <c r="D52" s="29"/>
       <c r="E52" s="29"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="130"/>
+      <c r="G52" s="36"/>
       <c r="H52" s="36"/>
       <c r="I52" s="29"/>
       <c r="J52" s="32"/>
@@ -10308,7 +10371,7 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="39"/>
-      <c r="G53" s="131"/>
+      <c r="G53" s="39"/>
       <c r="H53" s="39"/>
       <c r="I53" s="26"/>
       <c r="J53" s="33"/>
@@ -10328,7 +10391,7 @@
       <c r="D54" s="29"/>
       <c r="E54" s="29"/>
       <c r="F54" s="36"/>
-      <c r="G54" s="130"/>
+      <c r="G54" s="36"/>
       <c r="H54" s="36"/>
       <c r="I54" s="29"/>
       <c r="J54" s="32"/>
@@ -10348,7 +10411,7 @@
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="39"/>
-      <c r="G55" s="131"/>
+      <c r="G55" s="39"/>
       <c r="H55" s="39"/>
       <c r="I55" s="26"/>
       <c r="J55" s="33"/>
@@ -10368,7 +10431,7 @@
       <c r="D56" s="29"/>
       <c r="E56" s="29"/>
       <c r="F56" s="36"/>
-      <c r="G56" s="130"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="36"/>
       <c r="I56" s="29"/>
       <c r="J56" s="32"/>
@@ -10388,7 +10451,7 @@
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
       <c r="F57" s="39"/>
-      <c r="G57" s="131"/>
+      <c r="G57" s="39"/>
       <c r="H57" s="39"/>
       <c r="I57" s="26"/>
       <c r="J57" s="33"/>
@@ -10408,7 +10471,7 @@
       <c r="D58" s="29"/>
       <c r="E58" s="29"/>
       <c r="F58" s="36"/>
-      <c r="G58" s="130"/>
+      <c r="G58" s="36"/>
       <c r="H58" s="36"/>
       <c r="I58" s="29"/>
       <c r="J58" s="32"/>
@@ -10428,7 +10491,7 @@
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
       <c r="F59" s="39"/>
-      <c r="G59" s="131"/>
+      <c r="G59" s="39"/>
       <c r="H59" s="39"/>
       <c r="I59" s="26"/>
       <c r="J59" s="33"/>
@@ -10448,7 +10511,7 @@
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
       <c r="F60" s="36"/>
-      <c r="G60" s="130"/>
+      <c r="G60" s="36"/>
       <c r="H60" s="36"/>
       <c r="I60" s="29"/>
       <c r="J60" s="32"/>
@@ -10468,7 +10531,7 @@
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="39"/>
-      <c r="G61" s="131"/>
+      <c r="G61" s="39"/>
       <c r="H61" s="39"/>
       <c r="I61" s="26"/>
       <c r="J61" s="33"/>
@@ -10488,7 +10551,7 @@
       <c r="D62" s="29"/>
       <c r="E62" s="29"/>
       <c r="F62" s="36"/>
-      <c r="G62" s="130"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="36"/>
       <c r="I62" s="29"/>
       <c r="J62" s="32"/>
@@ -10508,7 +10571,7 @@
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" s="39"/>
-      <c r="G63" s="131"/>
+      <c r="G63" s="39"/>
       <c r="H63" s="39"/>
       <c r="I63" s="26"/>
       <c r="J63" s="33"/>
@@ -10528,7 +10591,7 @@
       <c r="D64" s="29"/>
       <c r="E64" s="29"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="130"/>
+      <c r="G64" s="36"/>
       <c r="H64" s="36"/>
       <c r="I64" s="29"/>
       <c r="J64" s="32"/>
@@ -10548,7 +10611,7 @@
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
       <c r="F65" s="39"/>
-      <c r="G65" s="131"/>
+      <c r="G65" s="39"/>
       <c r="H65" s="39"/>
       <c r="I65" s="26"/>
       <c r="J65" s="33"/>
@@ -10568,7 +10631,7 @@
       <c r="D66" s="29"/>
       <c r="E66" s="29"/>
       <c r="F66" s="36"/>
-      <c r="G66" s="130"/>
+      <c r="G66" s="36"/>
       <c r="H66" s="36"/>
       <c r="I66" s="29"/>
       <c r="J66" s="32"/>
@@ -10588,7 +10651,7 @@
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
       <c r="F67" s="39"/>
-      <c r="G67" s="131"/>
+      <c r="G67" s="39"/>
       <c r="H67" s="39"/>
       <c r="I67" s="26"/>
       <c r="J67" s="33"/>
@@ -10608,7 +10671,7 @@
       <c r="D68" s="29"/>
       <c r="E68" s="29"/>
       <c r="F68" s="36"/>
-      <c r="G68" s="130"/>
+      <c r="G68" s="36"/>
       <c r="H68" s="36"/>
       <c r="I68" s="29"/>
       <c r="J68" s="32"/>
@@ -10628,7 +10691,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
       <c r="F69" s="39"/>
-      <c r="G69" s="131"/>
+      <c r="G69" s="39"/>
       <c r="H69" s="39"/>
       <c r="I69" s="26"/>
       <c r="J69" s="33"/>
@@ -10648,7 +10711,7 @@
       <c r="D70" s="29"/>
       <c r="E70" s="29"/>
       <c r="F70" s="36"/>
-      <c r="G70" s="130"/>
+      <c r="G70" s="36"/>
       <c r="H70" s="36"/>
       <c r="I70" s="29"/>
       <c r="J70" s="32"/>
@@ -10668,7 +10731,7 @@
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="39"/>
-      <c r="G71" s="131"/>
+      <c r="G71" s="39"/>
       <c r="H71" s="39"/>
       <c r="I71" s="26"/>
       <c r="J71" s="33"/>
@@ -10688,7 +10751,7 @@
       <c r="D72" s="29"/>
       <c r="E72" s="29"/>
       <c r="F72" s="36"/>
-      <c r="G72" s="130"/>
+      <c r="G72" s="36"/>
       <c r="H72" s="36"/>
       <c r="I72" s="29"/>
       <c r="J72" s="32"/>
@@ -10708,7 +10771,7 @@
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
       <c r="F73" s="39"/>
-      <c r="G73" s="131"/>
+      <c r="G73" s="39"/>
       <c r="H73" s="39"/>
       <c r="I73" s="26"/>
       <c r="J73" s="33"/>
@@ -10728,7 +10791,7 @@
       <c r="D74" s="29"/>
       <c r="E74" s="29"/>
       <c r="F74" s="36"/>
-      <c r="G74" s="130"/>
+      <c r="G74" s="36"/>
       <c r="H74" s="36"/>
       <c r="I74" s="29"/>
       <c r="J74" s="32"/>
@@ -10748,7 +10811,7 @@
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="39"/>
-      <c r="G75" s="131"/>
+      <c r="G75" s="39"/>
       <c r="H75" s="39"/>
       <c r="I75" s="26"/>
       <c r="J75" s="33"/>
@@ -10768,7 +10831,7 @@
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
       <c r="F76" s="36"/>
-      <c r="G76" s="130"/>
+      <c r="G76" s="36"/>
       <c r="H76" s="36"/>
       <c r="I76" s="29"/>
       <c r="J76" s="32"/>
@@ -10788,7 +10851,7 @@
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
       <c r="F77" s="39"/>
-      <c r="G77" s="131"/>
+      <c r="G77" s="39"/>
       <c r="H77" s="39"/>
       <c r="I77" s="26"/>
       <c r="J77" s="33"/>
@@ -10808,7 +10871,7 @@
       <c r="D78" s="29"/>
       <c r="E78" s="29"/>
       <c r="F78" s="36"/>
-      <c r="G78" s="130"/>
+      <c r="G78" s="36"/>
       <c r="H78" s="36"/>
       <c r="I78" s="29"/>
       <c r="J78" s="32"/>
@@ -10828,7 +10891,7 @@
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
       <c r="F79" s="39"/>
-      <c r="G79" s="131"/>
+      <c r="G79" s="39"/>
       <c r="H79" s="39"/>
       <c r="I79" s="26"/>
       <c r="J79" s="33"/>
@@ -10848,7 +10911,7 @@
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
       <c r="F80" s="36"/>
-      <c r="G80" s="130"/>
+      <c r="G80" s="36"/>
       <c r="H80" s="36"/>
       <c r="I80" s="29"/>
       <c r="J80" s="32"/>
@@ -10868,7 +10931,7 @@
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
       <c r="F81" s="39"/>
-      <c r="G81" s="131"/>
+      <c r="G81" s="39"/>
       <c r="H81" s="39"/>
       <c r="I81" s="26"/>
       <c r="J81" s="33"/>
@@ -10888,7 +10951,7 @@
       <c r="D82" s="29"/>
       <c r="E82" s="29"/>
       <c r="F82" s="36"/>
-      <c r="G82" s="130"/>
+      <c r="G82" s="36"/>
       <c r="H82" s="36"/>
       <c r="I82" s="29"/>
       <c r="J82" s="32"/>
@@ -10908,7 +10971,7 @@
       <c r="D83" s="26"/>
       <c r="E83" s="26"/>
       <c r="F83" s="39"/>
-      <c r="G83" s="131"/>
+      <c r="G83" s="39"/>
       <c r="H83" s="39"/>
       <c r="I83" s="26"/>
       <c r="J83" s="33"/>
@@ -10928,7 +10991,7 @@
       <c r="D84" s="29"/>
       <c r="E84" s="29"/>
       <c r="F84" s="36"/>
-      <c r="G84" s="130"/>
+      <c r="G84" s="36"/>
       <c r="H84" s="36"/>
       <c r="I84" s="29"/>
       <c r="J84" s="32"/>
@@ -10948,7 +11011,7 @@
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
       <c r="F85" s="39"/>
-      <c r="G85" s="131"/>
+      <c r="G85" s="39"/>
       <c r="H85" s="39"/>
       <c r="I85" s="26"/>
       <c r="J85" s="33"/>
@@ -10968,7 +11031,7 @@
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
       <c r="F86" s="36"/>
-      <c r="G86" s="130"/>
+      <c r="G86" s="36"/>
       <c r="H86" s="36"/>
       <c r="I86" s="29"/>
       <c r="J86" s="32"/>
@@ -10988,7 +11051,7 @@
       <c r="D87" s="26"/>
       <c r="E87" s="26"/>
       <c r="F87" s="39"/>
-      <c r="G87" s="131"/>
+      <c r="G87" s="39"/>
       <c r="H87" s="39"/>
       <c r="I87" s="26"/>
       <c r="J87" s="33"/>
@@ -11008,7 +11071,7 @@
       <c r="D88" s="29"/>
       <c r="E88" s="29"/>
       <c r="F88" s="36"/>
-      <c r="G88" s="130"/>
+      <c r="G88" s="36"/>
       <c r="H88" s="36"/>
       <c r="I88" s="29"/>
       <c r="J88" s="32"/>
@@ -11028,7 +11091,7 @@
       <c r="D89" s="26"/>
       <c r="E89" s="26"/>
       <c r="F89" s="39"/>
-      <c r="G89" s="131"/>
+      <c r="G89" s="39"/>
       <c r="H89" s="39"/>
       <c r="I89" s="26"/>
       <c r="J89" s="33"/>
@@ -11048,7 +11111,7 @@
       <c r="D90" s="29"/>
       <c r="E90" s="29"/>
       <c r="F90" s="36"/>
-      <c r="G90" s="130"/>
+      <c r="G90" s="36"/>
       <c r="H90" s="36"/>
       <c r="I90" s="29"/>
       <c r="J90" s="32"/>
@@ -11068,7 +11131,7 @@
       <c r="D91" s="26"/>
       <c r="E91" s="26"/>
       <c r="F91" s="39"/>
-      <c r="G91" s="131"/>
+      <c r="G91" s="39"/>
       <c r="H91" s="39"/>
       <c r="I91" s="26"/>
       <c r="J91" s="33"/>
@@ -11088,7 +11151,7 @@
       <c r="D92" s="29"/>
       <c r="E92" s="29"/>
       <c r="F92" s="36"/>
-      <c r="G92" s="130"/>
+      <c r="G92" s="36"/>
       <c r="H92" s="36"/>
       <c r="I92" s="29"/>
       <c r="J92" s="32"/>
@@ -11108,7 +11171,7 @@
       <c r="D93" s="26"/>
       <c r="E93" s="26"/>
       <c r="F93" s="39"/>
-      <c r="G93" s="131"/>
+      <c r="G93" s="39"/>
       <c r="H93" s="39"/>
       <c r="I93" s="26"/>
       <c r="J93" s="33"/>
@@ -11128,7 +11191,7 @@
       <c r="D94" s="29"/>
       <c r="E94" s="29"/>
       <c r="F94" s="36"/>
-      <c r="G94" s="130"/>
+      <c r="G94" s="36"/>
       <c r="H94" s="36"/>
       <c r="I94" s="29"/>
       <c r="J94" s="32"/>
@@ -11148,7 +11211,7 @@
       <c r="D95" s="26"/>
       <c r="E95" s="26"/>
       <c r="F95" s="39"/>
-      <c r="G95" s="131"/>
+      <c r="G95" s="39"/>
       <c r="H95" s="39"/>
       <c r="I95" s="26"/>
       <c r="J95" s="33"/>
@@ -11168,7 +11231,7 @@
       <c r="D96" s="29"/>
       <c r="E96" s="29"/>
       <c r="F96" s="36"/>
-      <c r="G96" s="130"/>
+      <c r="G96" s="36"/>
       <c r="H96" s="36"/>
       <c r="I96" s="29"/>
       <c r="J96" s="32"/>
@@ -11188,7 +11251,7 @@
       <c r="D97" s="26"/>
       <c r="E97" s="26"/>
       <c r="F97" s="39"/>
-      <c r="G97" s="131"/>
+      <c r="G97" s="39"/>
       <c r="H97" s="39"/>
       <c r="I97" s="26"/>
       <c r="J97" s="33"/>
@@ -11208,7 +11271,7 @@
       <c r="D98" s="29"/>
       <c r="E98" s="29"/>
       <c r="F98" s="36"/>
-      <c r="G98" s="130"/>
+      <c r="G98" s="36"/>
       <c r="H98" s="36"/>
       <c r="I98" s="29"/>
       <c r="J98" s="32"/>
@@ -11228,7 +11291,7 @@
       <c r="D99" s="26"/>
       <c r="E99" s="26"/>
       <c r="F99" s="39"/>
-      <c r="G99" s="131"/>
+      <c r="G99" s="39"/>
       <c r="H99" s="39"/>
       <c r="I99" s="26"/>
       <c r="J99" s="33"/>
@@ -11248,7 +11311,7 @@
       <c r="D100" s="29"/>
       <c r="E100" s="29"/>
       <c r="F100" s="36"/>
-      <c r="G100" s="130"/>
+      <c r="G100" s="36"/>
       <c r="H100" s="36"/>
       <c r="I100" s="29"/>
       <c r="J100" s="32"/>
@@ -11268,7 +11331,7 @@
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
       <c r="F101" s="39"/>
-      <c r="G101" s="131"/>
+      <c r="G101" s="39"/>
       <c r="H101" s="39"/>
       <c r="I101" s="26"/>
       <c r="J101" s="33"/>
@@ -11288,7 +11351,7 @@
       <c r="D102" s="29"/>
       <c r="E102" s="29"/>
       <c r="F102" s="36"/>
-      <c r="G102" s="130"/>
+      <c r="G102" s="36"/>
       <c r="H102" s="36"/>
       <c r="I102" s="29"/>
       <c r="J102" s="32"/>
@@ -11308,7 +11371,7 @@
       <c r="D103" s="26"/>
       <c r="E103" s="26"/>
       <c r="F103" s="39"/>
-      <c r="G103" s="131"/>
+      <c r="G103" s="39"/>
       <c r="H103" s="39"/>
       <c r="I103" s="26"/>
       <c r="J103" s="33"/>
@@ -11328,7 +11391,7 @@
       <c r="D104" s="29"/>
       <c r="E104" s="29"/>
       <c r="F104" s="36"/>
-      <c r="G104" s="130"/>
+      <c r="G104" s="36"/>
       <c r="H104" s="36"/>
       <c r="I104" s="29"/>
       <c r="J104" s="32"/>
@@ -11348,7 +11411,7 @@
       <c r="D105" s="26"/>
       <c r="E105" s="26"/>
       <c r="F105" s="39"/>
-      <c r="G105" s="131"/>
+      <c r="G105" s="39"/>
       <c r="H105" s="39"/>
       <c r="I105" s="26"/>
       <c r="J105" s="33"/>
@@ -11368,7 +11431,7 @@
       <c r="D106" s="29"/>
       <c r="E106" s="29"/>
       <c r="F106" s="36"/>
-      <c r="G106" s="130"/>
+      <c r="G106" s="36"/>
       <c r="H106" s="36"/>
       <c r="I106" s="29"/>
       <c r="J106" s="32"/>
@@ -11388,7 +11451,7 @@
       <c r="D107" s="26"/>
       <c r="E107" s="26"/>
       <c r="F107" s="39"/>
-      <c r="G107" s="131"/>
+      <c r="G107" s="39"/>
       <c r="H107" s="39"/>
       <c r="I107" s="26"/>
       <c r="J107" s="33"/>
@@ -11408,7 +11471,7 @@
       <c r="D108" s="29"/>
       <c r="E108" s="29"/>
       <c r="F108" s="36"/>
-      <c r="G108" s="130"/>
+      <c r="G108" s="36"/>
       <c r="H108" s="36"/>
       <c r="I108" s="29"/>
       <c r="J108" s="32"/>
@@ -11428,7 +11491,7 @@
       <c r="D109" s="26"/>
       <c r="E109" s="26"/>
       <c r="F109" s="39"/>
-      <c r="G109" s="131"/>
+      <c r="G109" s="39"/>
       <c r="H109" s="39"/>
       <c r="I109" s="26"/>
       <c r="J109" s="33"/>
@@ -11448,7 +11511,7 @@
       <c r="D110" s="29"/>
       <c r="E110" s="29"/>
       <c r="F110" s="36"/>
-      <c r="G110" s="130"/>
+      <c r="G110" s="36"/>
       <c r="H110" s="36"/>
       <c r="I110" s="29"/>
       <c r="J110" s="32"/>
@@ -11468,7 +11531,7 @@
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
       <c r="F111" s="39"/>
-      <c r="G111" s="131"/>
+      <c r="G111" s="39"/>
       <c r="H111" s="39"/>
       <c r="I111" s="26"/>
       <c r="J111" s="33"/>
@@ -11488,7 +11551,7 @@
       <c r="D112" s="29"/>
       <c r="E112" s="29"/>
       <c r="F112" s="36"/>
-      <c r="G112" s="130"/>
+      <c r="G112" s="36"/>
       <c r="H112" s="36"/>
       <c r="I112" s="29"/>
       <c r="J112" s="32"/>
@@ -11508,7 +11571,7 @@
       <c r="D113" s="26"/>
       <c r="E113" s="26"/>
       <c r="F113" s="39"/>
-      <c r="G113" s="131"/>
+      <c r="G113" s="39"/>
       <c r="H113" s="39"/>
       <c r="I113" s="26"/>
       <c r="J113" s="33"/>
@@ -11528,7 +11591,7 @@
       <c r="D114" s="29"/>
       <c r="E114" s="29"/>
       <c r="F114" s="36"/>
-      <c r="G114" s="130"/>
+      <c r="G114" s="36"/>
       <c r="H114" s="36"/>
       <c r="I114" s="29"/>
       <c r="J114" s="32"/>
@@ -11548,7 +11611,7 @@
       <c r="D115" s="26"/>
       <c r="E115" s="26"/>
       <c r="F115" s="39"/>
-      <c r="G115" s="131"/>
+      <c r="G115" s="39"/>
       <c r="H115" s="39"/>
       <c r="I115" s="26"/>
       <c r="J115" s="33"/>
@@ -11568,7 +11631,7 @@
       <c r="D116" s="29"/>
       <c r="E116" s="29"/>
       <c r="F116" s="36"/>
-      <c r="G116" s="130"/>
+      <c r="G116" s="36"/>
       <c r="H116" s="36"/>
       <c r="I116" s="29"/>
       <c r="J116" s="32"/>
@@ -11588,7 +11651,7 @@
       <c r="D117" s="26"/>
       <c r="E117" s="26"/>
       <c r="F117" s="39"/>
-      <c r="G117" s="131"/>
+      <c r="G117" s="39"/>
       <c r="H117" s="39"/>
       <c r="I117" s="26"/>
       <c r="J117" s="33"/>
@@ -11608,7 +11671,7 @@
       <c r="D118" s="29"/>
       <c r="E118" s="29"/>
       <c r="F118" s="36"/>
-      <c r="G118" s="130"/>
+      <c r="G118" s="36"/>
       <c r="H118" s="36"/>
       <c r="I118" s="29"/>
       <c r="J118" s="32"/>
@@ -11628,7 +11691,7 @@
       <c r="D119" s="26"/>
       <c r="E119" s="26"/>
       <c r="F119" s="39"/>
-      <c r="G119" s="131"/>
+      <c r="G119" s="39"/>
       <c r="H119" s="39"/>
       <c r="I119" s="26"/>
       <c r="J119" s="33"/>
@@ -11648,7 +11711,7 @@
       <c r="D120" s="29"/>
       <c r="E120" s="29"/>
       <c r="F120" s="36"/>
-      <c r="G120" s="130"/>
+      <c r="G120" s="36"/>
       <c r="H120" s="36"/>
       <c r="I120" s="29"/>
       <c r="J120" s="32"/>
@@ -11668,7 +11731,7 @@
       <c r="D121" s="26"/>
       <c r="E121" s="26"/>
       <c r="F121" s="39"/>
-      <c r="G121" s="131"/>
+      <c r="G121" s="39"/>
       <c r="H121" s="39"/>
       <c r="I121" s="26"/>
       <c r="J121" s="33"/>
@@ -11688,7 +11751,7 @@
       <c r="D122" s="29"/>
       <c r="E122" s="29"/>
       <c r="F122" s="36"/>
-      <c r="G122" s="130"/>
+      <c r="G122" s="36"/>
       <c r="H122" s="36"/>
       <c r="I122" s="29"/>
       <c r="J122" s="32"/>
@@ -11708,7 +11771,7 @@
       <c r="D123" s="26"/>
       <c r="E123" s="26"/>
       <c r="F123" s="39"/>
-      <c r="G123" s="131"/>
+      <c r="G123" s="39"/>
       <c r="H123" s="39"/>
       <c r="I123" s="26"/>
       <c r="J123" s="33"/>
@@ -11728,7 +11791,7 @@
       <c r="D124" s="29"/>
       <c r="E124" s="29"/>
       <c r="F124" s="36"/>
-      <c r="G124" s="130"/>
+      <c r="G124" s="36"/>
       <c r="H124" s="36"/>
       <c r="I124" s="29"/>
       <c r="J124" s="32"/>
@@ -11748,7 +11811,7 @@
       <c r="D125" s="26"/>
       <c r="E125" s="26"/>
       <c r="F125" s="39"/>
-      <c r="G125" s="131"/>
+      <c r="G125" s="39"/>
       <c r="H125" s="39"/>
       <c r="I125" s="26"/>
       <c r="J125" s="33"/>
@@ -11768,7 +11831,7 @@
       <c r="D126" s="29"/>
       <c r="E126" s="29"/>
       <c r="F126" s="36"/>
-      <c r="G126" s="130"/>
+      <c r="G126" s="36"/>
       <c r="H126" s="36"/>
       <c r="I126" s="29"/>
       <c r="J126" s="32"/>
@@ -11788,7 +11851,7 @@
       <c r="D127" s="26"/>
       <c r="E127" s="26"/>
       <c r="F127" s="39"/>
-      <c r="G127" s="131"/>
+      <c r="G127" s="39"/>
       <c r="H127" s="39"/>
       <c r="I127" s="26"/>
       <c r="J127" s="33"/>
@@ -11808,7 +11871,7 @@
       <c r="D128" s="29"/>
       <c r="E128" s="29"/>
       <c r="F128" s="36"/>
-      <c r="G128" s="130"/>
+      <c r="G128" s="36"/>
       <c r="H128" s="36"/>
       <c r="I128" s="29"/>
       <c r="J128" s="32"/>
@@ -11828,7 +11891,7 @@
       <c r="D129" s="26"/>
       <c r="E129" s="26"/>
       <c r="F129" s="39"/>
-      <c r="G129" s="131"/>
+      <c r="G129" s="39"/>
       <c r="H129" s="39"/>
       <c r="I129" s="26"/>
       <c r="J129" s="33"/>
@@ -11848,7 +11911,7 @@
       <c r="D130" s="29"/>
       <c r="E130" s="29"/>
       <c r="F130" s="36"/>
-      <c r="G130" s="130"/>
+      <c r="G130" s="36"/>
       <c r="H130" s="36"/>
       <c r="I130" s="29"/>
       <c r="J130" s="32"/>
@@ -11868,7 +11931,7 @@
       <c r="D131" s="26"/>
       <c r="E131" s="26"/>
       <c r="F131" s="39"/>
-      <c r="G131" s="131"/>
+      <c r="G131" s="39"/>
       <c r="H131" s="39"/>
       <c r="I131" s="26"/>
       <c r="J131" s="33"/>
@@ -11888,7 +11951,7 @@
       <c r="D132" s="29"/>
       <c r="E132" s="29"/>
       <c r="F132" s="36"/>
-      <c r="G132" s="130"/>
+      <c r="G132" s="36"/>
       <c r="H132" s="36"/>
       <c r="I132" s="29"/>
       <c r="J132" s="32"/>
@@ -11908,7 +11971,7 @@
       <c r="D133" s="26"/>
       <c r="E133" s="26"/>
       <c r="F133" s="39"/>
-      <c r="G133" s="131"/>
+      <c r="G133" s="39"/>
       <c r="H133" s="39"/>
       <c r="I133" s="26"/>
       <c r="J133" s="33"/>
@@ -11928,7 +11991,7 @@
       <c r="D134" s="29"/>
       <c r="E134" s="29"/>
       <c r="F134" s="36"/>
-      <c r="G134" s="130"/>
+      <c r="G134" s="36"/>
       <c r="H134" s="36"/>
       <c r="I134" s="29"/>
       <c r="J134" s="32"/>
@@ -11948,7 +12011,7 @@
       <c r="D135" s="26"/>
       <c r="E135" s="26"/>
       <c r="F135" s="39"/>
-      <c r="G135" s="131"/>
+      <c r="G135" s="39"/>
       <c r="H135" s="39"/>
       <c r="I135" s="26"/>
       <c r="J135" s="33"/>
@@ -11968,7 +12031,7 @@
       <c r="D136" s="29"/>
       <c r="E136" s="29"/>
       <c r="F136" s="36"/>
-      <c r="G136" s="130"/>
+      <c r="G136" s="36"/>
       <c r="H136" s="36"/>
       <c r="I136" s="29"/>
       <c r="J136" s="32"/>
@@ -11988,7 +12051,7 @@
       <c r="D137" s="26"/>
       <c r="E137" s="26"/>
       <c r="F137" s="39"/>
-      <c r="G137" s="131"/>
+      <c r="G137" s="39"/>
       <c r="H137" s="39"/>
       <c r="I137" s="26"/>
       <c r="J137" s="33"/>
@@ -12008,7 +12071,7 @@
       <c r="D138" s="29"/>
       <c r="E138" s="29"/>
       <c r="F138" s="36"/>
-      <c r="G138" s="130"/>
+      <c r="G138" s="36"/>
       <c r="H138" s="36"/>
       <c r="I138" s="29"/>
       <c r="J138" s="32"/>
@@ -12028,7 +12091,7 @@
       <c r="D139" s="26"/>
       <c r="E139" s="26"/>
       <c r="F139" s="39"/>
-      <c r="G139" s="131"/>
+      <c r="G139" s="39"/>
       <c r="H139" s="39"/>
       <c r="I139" s="26"/>
       <c r="J139" s="33"/>
@@ -12048,7 +12111,7 @@
       <c r="D140" s="29"/>
       <c r="E140" s="29"/>
       <c r="F140" s="36"/>
-      <c r="G140" s="130"/>
+      <c r="G140" s="36"/>
       <c r="H140" s="36"/>
       <c r="I140" s="29"/>
       <c r="J140" s="32"/>
@@ -12068,7 +12131,7 @@
       <c r="D141" s="26"/>
       <c r="E141" s="26"/>
       <c r="F141" s="39"/>
-      <c r="G141" s="131"/>
+      <c r="G141" s="39"/>
       <c r="H141" s="39"/>
       <c r="I141" s="26"/>
       <c r="J141" s="33"/>
@@ -12088,7 +12151,7 @@
       <c r="D142" s="29"/>
       <c r="E142" s="29"/>
       <c r="F142" s="36"/>
-      <c r="G142" s="130"/>
+      <c r="G142" s="36"/>
       <c r="H142" s="36"/>
       <c r="I142" s="29"/>
       <c r="J142" s="32"/>
@@ -12108,7 +12171,7 @@
       <c r="D143" s="26"/>
       <c r="E143" s="26"/>
       <c r="F143" s="39"/>
-      <c r="G143" s="131"/>
+      <c r="G143" s="39"/>
       <c r="H143" s="39"/>
       <c r="I143" s="26"/>
       <c r="J143" s="33"/>
@@ -12128,7 +12191,7 @@
       <c r="D144" s="29"/>
       <c r="E144" s="29"/>
       <c r="F144" s="36"/>
-      <c r="G144" s="130"/>
+      <c r="G144" s="36"/>
       <c r="H144" s="36"/>
       <c r="I144" s="29"/>
       <c r="J144" s="32"/>
@@ -12148,7 +12211,7 @@
       <c r="D145" s="26"/>
       <c r="E145" s="26"/>
       <c r="F145" s="39"/>
-      <c r="G145" s="131"/>
+      <c r="G145" s="39"/>
       <c r="H145" s="39"/>
       <c r="I145" s="26"/>
       <c r="J145" s="33"/>
@@ -12168,7 +12231,7 @@
       <c r="D146" s="29"/>
       <c r="E146" s="29"/>
       <c r="F146" s="36"/>
-      <c r="G146" s="130"/>
+      <c r="G146" s="36"/>
       <c r="H146" s="36"/>
       <c r="I146" s="29"/>
       <c r="J146" s="32"/>
@@ -12188,7 +12251,7 @@
       <c r="D147" s="26"/>
       <c r="E147" s="26"/>
       <c r="F147" s="39"/>
-      <c r="G147" s="131"/>
+      <c r="G147" s="39"/>
       <c r="H147" s="39"/>
       <c r="I147" s="26"/>
       <c r="J147" s="33"/>
@@ -12207,7 +12270,7 @@
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="6"/>
-      <c r="G148" s="132"/>
+      <c r="G148" s="6"/>
       <c r="H148" s="6"/>
       <c r="I148" s="5"/>
       <c r="J148" s="4"/>
@@ -12225,7 +12288,7 @@
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="6"/>
-      <c r="G149" s="132"/>
+      <c r="G149" s="6"/>
       <c r="H149" s="6"/>
       <c r="I149" s="5"/>
       <c r="J149" s="4"/>
@@ -12243,7 +12306,7 @@
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="6"/>
-      <c r="G150" s="132"/>
+      <c r="G150" s="6"/>
       <c r="H150" s="6"/>
       <c r="I150" s="5"/>
       <c r="J150" s="4"/>
@@ -12261,7 +12324,7 @@
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="6"/>
-      <c r="G151" s="132"/>
+      <c r="G151" s="6"/>
       <c r="H151" s="6"/>
       <c r="I151" s="5"/>
       <c r="J151" s="4"/>
@@ -12279,7 +12342,7 @@
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="6"/>
-      <c r="G152" s="132"/>
+      <c r="G152" s="6"/>
       <c r="H152" s="6"/>
       <c r="I152" s="5"/>
       <c r="J152" s="4"/>
@@ -12297,7 +12360,7 @@
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="6"/>
-      <c r="G153" s="132"/>
+      <c r="G153" s="6"/>
       <c r="H153" s="6"/>
       <c r="I153" s="5"/>
       <c r="J153" s="4"/>
@@ -12315,7 +12378,7 @@
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="6"/>
-      <c r="G154" s="132"/>
+      <c r="G154" s="6"/>
       <c r="H154" s="6"/>
       <c r="I154" s="5"/>
       <c r="J154" s="4"/>
@@ -12333,7 +12396,7 @@
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="6"/>
-      <c r="G155" s="132"/>
+      <c r="G155" s="6"/>
       <c r="H155" s="6"/>
       <c r="I155" s="5"/>
       <c r="J155" s="4"/>
@@ -12351,7 +12414,7 @@
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="6"/>
-      <c r="G156" s="132"/>
+      <c r="G156" s="6"/>
       <c r="H156" s="6"/>
       <c r="I156" s="5"/>
       <c r="J156" s="4"/>
@@ -12369,7 +12432,7 @@
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="6"/>
-      <c r="G157" s="132"/>
+      <c r="G157" s="6"/>
       <c r="H157" s="6"/>
       <c r="I157" s="5"/>
       <c r="J157" s="4"/>
@@ -12387,7 +12450,7 @@
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="6"/>
-      <c r="G158" s="132"/>
+      <c r="G158" s="6"/>
       <c r="H158" s="6"/>
       <c r="I158" s="5"/>
       <c r="J158" s="4"/>
@@ -12405,7 +12468,7 @@
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="6"/>
-      <c r="G159" s="132"/>
+      <c r="G159" s="6"/>
       <c r="H159" s="6"/>
       <c r="I159" s="5"/>
       <c r="J159" s="4"/>
@@ -12423,7 +12486,7 @@
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="6"/>
-      <c r="G160" s="132"/>
+      <c r="G160" s="6"/>
       <c r="H160" s="6"/>
       <c r="I160" s="5"/>
       <c r="J160" s="4"/>
@@ -12441,7 +12504,7 @@
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="6"/>
-      <c r="G161" s="132"/>
+      <c r="G161" s="6"/>
       <c r="H161" s="6"/>
       <c r="I161" s="5"/>
       <c r="J161" s="4"/>
@@ -12459,7 +12522,7 @@
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="6"/>
-      <c r="G162" s="132"/>
+      <c r="G162" s="6"/>
       <c r="H162" s="6"/>
       <c r="I162" s="5"/>
       <c r="J162" s="4"/>
@@ -12477,7 +12540,7 @@
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="6"/>
-      <c r="G163" s="132"/>
+      <c r="G163" s="6"/>
       <c r="H163" s="6"/>
       <c r="I163" s="5"/>
       <c r="J163" s="4"/>
@@ -12495,7 +12558,7 @@
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="6"/>
-      <c r="G164" s="132"/>
+      <c r="G164" s="6"/>
       <c r="H164" s="6"/>
       <c r="I164" s="5"/>
       <c r="J164" s="4"/>
@@ -12513,7 +12576,7 @@
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="6"/>
-      <c r="G165" s="132"/>
+      <c r="G165" s="6"/>
       <c r="H165" s="6"/>
       <c r="I165" s="5"/>
       <c r="J165" s="4"/>
@@ -12531,7 +12594,7 @@
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="6"/>
-      <c r="G166" s="132"/>
+      <c r="G166" s="6"/>
       <c r="H166" s="6"/>
       <c r="I166" s="5"/>
       <c r="J166" s="4"/>
@@ -12549,7 +12612,7 @@
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="6"/>
-      <c r="G167" s="132"/>
+      <c r="G167" s="6"/>
       <c r="H167" s="6"/>
       <c r="I167" s="5"/>
       <c r="J167" s="4"/>
@@ -12567,7 +12630,7 @@
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="6"/>
-      <c r="G168" s="132"/>
+      <c r="G168" s="6"/>
       <c r="H168" s="6"/>
       <c r="I168" s="5"/>
       <c r="J168" s="4"/>
@@ -12585,7 +12648,7 @@
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="6"/>
-      <c r="G169" s="132"/>
+      <c r="G169" s="6"/>
       <c r="H169" s="6"/>
       <c r="I169" s="5"/>
       <c r="J169" s="4"/>
@@ -12603,7 +12666,7 @@
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="6"/>
-      <c r="G170" s="132"/>
+      <c r="G170" s="6"/>
       <c r="H170" s="6"/>
       <c r="I170" s="5"/>
       <c r="J170" s="4"/>
@@ -12621,7 +12684,7 @@
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="6"/>
-      <c r="G171" s="132"/>
+      <c r="G171" s="6"/>
       <c r="H171" s="6"/>
       <c r="I171" s="5"/>
       <c r="J171" s="4"/>
@@ -12639,7 +12702,7 @@
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="6"/>
-      <c r="G172" s="132"/>
+      <c r="G172" s="6"/>
       <c r="H172" s="6"/>
       <c r="I172" s="5"/>
       <c r="J172" s="4"/>
@@ -12657,7 +12720,7 @@
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="6"/>
-      <c r="G173" s="132"/>
+      <c r="G173" s="6"/>
       <c r="H173" s="6"/>
       <c r="I173" s="5"/>
       <c r="J173" s="4"/>
@@ -12675,7 +12738,7 @@
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="6"/>
-      <c r="G174" s="132"/>
+      <c r="G174" s="6"/>
       <c r="H174" s="6"/>
       <c r="I174" s="5"/>
       <c r="J174" s="4"/>
@@ -12693,7 +12756,7 @@
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="6"/>
-      <c r="G175" s="132"/>
+      <c r="G175" s="6"/>
       <c r="H175" s="6"/>
       <c r="I175" s="5"/>
       <c r="J175" s="4"/>
@@ -12711,7 +12774,7 @@
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="6"/>
-      <c r="G176" s="132"/>
+      <c r="G176" s="6"/>
       <c r="H176" s="6"/>
       <c r="I176" s="5"/>
       <c r="J176" s="4"/>
@@ -12729,7 +12792,7 @@
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="6"/>
-      <c r="G177" s="132"/>
+      <c r="G177" s="6"/>
       <c r="H177" s="6"/>
       <c r="I177" s="5"/>
       <c r="J177" s="4"/>
@@ -12747,7 +12810,7 @@
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="6"/>
-      <c r="G178" s="132"/>
+      <c r="G178" s="6"/>
       <c r="H178" s="6"/>
       <c r="I178" s="5"/>
       <c r="J178" s="4"/>
@@ -12765,7 +12828,7 @@
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="6"/>
-      <c r="G179" s="132"/>
+      <c r="G179" s="6"/>
       <c r="H179" s="6"/>
       <c r="I179" s="5"/>
       <c r="J179" s="4"/>
@@ -12783,7 +12846,7 @@
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="6"/>
-      <c r="G180" s="132"/>
+      <c r="G180" s="6"/>
       <c r="H180" s="6"/>
       <c r="I180" s="5"/>
       <c r="J180" s="4"/>
@@ -12801,7 +12864,7 @@
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="6"/>
-      <c r="G181" s="132"/>
+      <c r="G181" s="6"/>
       <c r="H181" s="6"/>
       <c r="I181" s="5"/>
       <c r="J181" s="4"/>
@@ -12819,7 +12882,7 @@
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="6"/>
-      <c r="G182" s="132"/>
+      <c r="G182" s="6"/>
       <c r="H182" s="6"/>
       <c r="I182" s="5"/>
       <c r="J182" s="4"/>
@@ -12837,7 +12900,7 @@
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="6"/>
-      <c r="G183" s="132"/>
+      <c r="G183" s="6"/>
       <c r="H183" s="6"/>
       <c r="I183" s="5"/>
       <c r="J183" s="4"/>
@@ -12855,7 +12918,7 @@
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="6"/>
-      <c r="G184" s="132"/>
+      <c r="G184" s="6"/>
       <c r="H184" s="6"/>
       <c r="I184" s="5"/>
       <c r="J184" s="4"/>
@@ -12873,7 +12936,7 @@
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="6"/>
-      <c r="G185" s="132"/>
+      <c r="G185" s="6"/>
       <c r="H185" s="6"/>
       <c r="I185" s="5"/>
       <c r="J185" s="4"/>
@@ -12891,7 +12954,7 @@
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="6"/>
-      <c r="G186" s="132"/>
+      <c r="G186" s="6"/>
       <c r="H186" s="6"/>
       <c r="I186" s="5"/>
       <c r="J186" s="4"/>
@@ -12909,7 +12972,7 @@
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="6"/>
-      <c r="G187" s="132"/>
+      <c r="G187" s="6"/>
       <c r="H187" s="6"/>
       <c r="I187" s="5"/>
       <c r="J187" s="4"/>
@@ -12927,7 +12990,7 @@
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="6"/>
-      <c r="G188" s="132"/>
+      <c r="G188" s="6"/>
       <c r="H188" s="6"/>
       <c r="I188" s="5"/>
       <c r="J188" s="4"/>
@@ -12945,7 +13008,7 @@
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="6"/>
-      <c r="G189" s="132"/>
+      <c r="G189" s="6"/>
       <c r="H189" s="6"/>
       <c r="I189" s="5"/>
       <c r="J189" s="4"/>
@@ -12963,7 +13026,7 @@
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="6"/>
-      <c r="G190" s="132"/>
+      <c r="G190" s="6"/>
       <c r="H190" s="6"/>
       <c r="I190" s="5"/>
       <c r="J190" s="4"/>
@@ -12981,7 +13044,7 @@
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="6"/>
-      <c r="G191" s="132"/>
+      <c r="G191" s="6"/>
       <c r="H191" s="6"/>
       <c r="I191" s="5"/>
       <c r="J191" s="4"/>
@@ -12999,7 +13062,7 @@
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="6"/>
-      <c r="G192" s="132"/>
+      <c r="G192" s="6"/>
       <c r="H192" s="6"/>
       <c r="I192" s="5"/>
       <c r="J192" s="4"/>
@@ -13017,7 +13080,7 @@
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="6"/>
-      <c r="G193" s="132"/>
+      <c r="G193" s="6"/>
       <c r="H193" s="6"/>
       <c r="I193" s="5"/>
       <c r="J193" s="4"/>
@@ -13035,7 +13098,7 @@
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="6"/>
-      <c r="G194" s="132"/>
+      <c r="G194" s="6"/>
       <c r="H194" s="6"/>
       <c r="I194" s="5"/>
       <c r="J194" s="4"/>
@@ -13053,7 +13116,7 @@
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="6"/>
-      <c r="G195" s="132"/>
+      <c r="G195" s="6"/>
       <c r="H195" s="6"/>
       <c r="I195" s="5"/>
       <c r="J195" s="4"/>
@@ -13071,7 +13134,7 @@
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="6"/>
-      <c r="G196" s="132"/>
+      <c r="G196" s="6"/>
       <c r="H196" s="6"/>
       <c r="I196" s="5"/>
       <c r="J196" s="4"/>
@@ -13089,7 +13152,7 @@
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="6"/>
-      <c r="G197" s="132"/>
+      <c r="G197" s="6"/>
       <c r="H197" s="6"/>
       <c r="I197" s="5"/>
       <c r="J197" s="4"/>
@@ -13107,7 +13170,7 @@
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="6"/>
-      <c r="G198" s="132"/>
+      <c r="G198" s="6"/>
       <c r="H198" s="6"/>
       <c r="I198" s="5"/>
       <c r="J198" s="4"/>
@@ -13125,7 +13188,7 @@
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="6"/>
-      <c r="G199" s="132"/>
+      <c r="G199" s="6"/>
       <c r="H199" s="6"/>
       <c r="I199" s="5"/>
       <c r="J199" s="4"/>
@@ -13143,7 +13206,7 @@
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="6"/>
-      <c r="G200" s="132"/>
+      <c r="G200" s="6"/>
       <c r="H200" s="6"/>
       <c r="I200" s="5"/>
       <c r="J200" s="4"/>
@@ -13161,7 +13224,7 @@
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="6"/>
-      <c r="G201" s="132"/>
+      <c r="G201" s="6"/>
       <c r="H201" s="6"/>
       <c r="I201" s="5"/>
       <c r="J201" s="4"/>
@@ -13178,222 +13241,222 @@
     <sortCondition ref="C4"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}" showAutoFilter="1">
+      <pane xSplit="4" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <autoFilter ref="A1:R33"/>
+    </customSheetView>
     <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}" scale="85">
       <pane xSplit="4" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}" showAutoFilter="1">
-      <pane xSplit="4" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="A1:R33"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B7 B12:B1048576 B1:B4">
-    <cfRule type="endsWith" dxfId="187" priority="165" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="237" priority="165" operator="endsWith" text="*">
       <formula>RIGHT(B1,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="186" priority="167" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="236" priority="167" timePeriod="today">
       <formula>FLOOR(B1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="185" priority="168" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="235" priority="168" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="184" priority="169" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="234" priority="169" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="endsWith" dxfId="183" priority="153" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="233" priority="153" operator="endsWith" text="*">
       <formula>RIGHT(B5,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="182" priority="154" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="232" priority="154" timePeriod="today">
       <formula>FLOOR(B5,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="181" priority="155" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="231" priority="155" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B5,1)&lt;=6,FLOOR(B5,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="180" priority="156" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="230" priority="156" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B5,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B5,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="endsWith" dxfId="179" priority="149" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="229" priority="149" operator="endsWith" text="*">
       <formula>RIGHT(B5,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="178" priority="150" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="228" priority="150" timePeriod="today">
       <formula>FLOOR(B5,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="177" priority="151" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="227" priority="151" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B5,1)&lt;=6,FLOOR(B5,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="176" priority="152" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="226" priority="152" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B5,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B5,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="beginsWith" dxfId="175" priority="144" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="225" priority="144" operator="beginsWith" text="068">
       <formula>LEFT(A5,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="174" priority="145" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="224" priority="145" operator="beginsWith" text="098">
       <formula>LEFT(A5,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="173" priority="146" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="223" priority="146" operator="beginsWith" text="097">
       <formula>LEFT(A5,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="172" priority="147" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="222" priority="147" operator="beginsWith" text="096">
       <formula>LEFT(A5,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="171" priority="148" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="221" priority="148" operator="beginsWith" text="067">
       <formula>LEFT(A5,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="beginsWith" dxfId="170" priority="114" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="220" priority="114" operator="beginsWith" text="068">
       <formula>LEFT(A6,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="169" priority="115" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="219" priority="115" operator="beginsWith" text="098">
       <formula>LEFT(A6,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="168" priority="116" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="218" priority="116" operator="beginsWith" text="097">
       <formula>LEFT(A6,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="167" priority="117" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="217" priority="117" operator="beginsWith" text="096">
       <formula>LEFT(A6,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="166" priority="118" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="216" priority="118" operator="beginsWith" text="067">
       <formula>LEFT(A6,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="endsWith" dxfId="165" priority="119" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="215" priority="119" operator="endsWith" text="*">
       <formula>RIGHT(B6,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="164" priority="120" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="214" priority="120" timePeriod="today">
       <formula>FLOOR(B6,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="163" priority="121" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="213" priority="121" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B6,1)&lt;=6,FLOOR(B6,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="162" priority="122" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="212" priority="122" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B6,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B6,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="beginsWith" dxfId="161" priority="30" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="211" priority="30" operator="beginsWith" text="068">
       <formula>LEFT(A8,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="160" priority="31" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="210" priority="31" operator="beginsWith" text="098">
       <formula>LEFT(A8,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="159" priority="32" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="209" priority="32" operator="beginsWith" text="097">
       <formula>LEFT(A8,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="158" priority="33" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="208" priority="33" operator="beginsWith" text="096">
       <formula>LEFT(A8,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="157" priority="34" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="207" priority="34" operator="beginsWith" text="067">
       <formula>LEFT(A8,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="timePeriod" dxfId="156" priority="39" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="206" priority="39" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B8,1)&lt;=6,FLOOR(B8,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="155" priority="40" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="205" priority="40" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B8,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B8,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="154" priority="41" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="204" priority="41" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B8,1)&lt;=6,FLOOR(B8,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="endsWith" dxfId="153" priority="35" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="203" priority="35" operator="endsWith" text="*">
       <formula>RIGHT(B8,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="152" priority="36" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="202" priority="36" timePeriod="today">
       <formula>FLOOR(B8,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="151" priority="37" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="201" priority="37" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B8,1)&lt;=6,FLOOR(B8,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="150" priority="38" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="200" priority="38" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B8,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B8,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="beginsWith" dxfId="149" priority="21" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="199" priority="21" operator="beginsWith" text="068">
       <formula>LEFT(A9,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="148" priority="22" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="198" priority="22" operator="beginsWith" text="098">
       <formula>LEFT(A9,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="147" priority="23" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="197" priority="23" operator="beginsWith" text="097">
       <formula>LEFT(A9,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="146" priority="24" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="196" priority="24" operator="beginsWith" text="096">
       <formula>LEFT(A9,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="145" priority="25" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="195" priority="25" operator="beginsWith" text="067">
       <formula>LEFT(A9,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="endsWith" dxfId="144" priority="26" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="194" priority="26" operator="endsWith" text="*">
       <formula>RIGHT(B9,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="143" priority="27" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="193" priority="27" timePeriod="today">
       <formula>FLOOR(B9,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="142" priority="28" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="192" priority="28" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B9,1)&lt;=6,FLOOR(B9,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="141" priority="29" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="191" priority="29" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B9,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B9,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="endsWith" dxfId="140" priority="9" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="190" priority="9" operator="endsWith" text="*">
       <formula>RIGHT(B10,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="139" priority="10" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="189" priority="10" timePeriod="today">
       <formula>FLOOR(B10,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="138" priority="11" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="188" priority="11" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B10,1)&lt;=6,FLOOR(B10,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="137" priority="12" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="187" priority="12" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B10,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B10,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="timePeriod" dxfId="136" priority="6" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="186" priority="6" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B11,1)&lt;=6,FLOOR(B11,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="135" priority="7" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="185" priority="7" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B11,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B11,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="134" priority="8" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="184" priority="8" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B11,1)&lt;=6,FLOOR(B11,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="beginsWith" dxfId="133" priority="1" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="183" priority="1" operator="beginsWith" text="068">
       <formula>LEFT(A11,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="132" priority="2" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="182" priority="2" operator="beginsWith" text="098">
       <formula>LEFT(A11,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="131" priority="3" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="181" priority="3" operator="beginsWith" text="097">
       <formula>LEFT(A11,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="130" priority="4" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="180" priority="4" operator="beginsWith" text="096">
       <formula>LEFT(A11,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="129" priority="5" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="179" priority="5" operator="beginsWith" text="067">
       <formula>LEFT(A11,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13413,10 +13476,10 @@
   <dimension ref="A1:U237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E10" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="F8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13438,72 +13501,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="181" t="s">
+      <c r="B1" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="181" t="s">
+      <c r="D1" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="181" t="s">
+      <c r="E1" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="181" t="s">
+      <c r="F1" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="181" t="s">
+      <c r="G1" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="181" t="s">
+      <c r="H1" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="181" t="s">
+      <c r="I1" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="185" t="s">
+      <c r="J1" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="181" t="s">
+      <c r="K1" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="181" t="s">
+      <c r="L1" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181" t="s">
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181" t="s">
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="181" t="s">
+      <c r="R1" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="187"/>
-      <c r="T1" s="183" t="s">
+      <c r="S1" s="179"/>
+      <c r="T1" s="173" t="s">
         <v>11</v>
       </c>
       <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180"/>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
-      <c r="I2" s="182"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="182"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="176"/>
       <c r="L2" s="82" t="s">
         <v>24</v>
       </c>
@@ -13519,14 +13582,14 @@
       <c r="P2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="182"/>
+      <c r="Q2" s="176"/>
       <c r="R2" s="82" t="s">
         <v>21</v>
       </c>
       <c r="S2" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="184"/>
+      <c r="T2" s="174"/>
       <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13734,7 +13797,7 @@
       </c>
       <c r="T5" s="73" t="str">
         <f>Заказы!E3</f>
-        <v>Получили пленку, тестируют, заказчику хорошо забрать аппарат 27.08---В начале августа будет пленка--Напомнить про пленку---Позвонить заказчику насчет Заказы! созвон 17.07</v>
+        <v>Тестировать пленку будут 26.08, заказчику хорошо забрать аппарат 27.08---В начале августа будет пленка--Напомнить про пленку---Позвонить заказчику насчет Заказы! созвон 17.07</v>
       </c>
       <c r="U5" s="8"/>
     </row>
@@ -13815,7 +13878,7 @@
       </c>
       <c r="U6" s="8"/>
     </row>
-    <row r="7" spans="1:21" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="68" t="str">
         <f>Заказы!M5</f>
         <v>2767 (ж), 2766 (в)</v>
@@ -13884,11 +13947,11 @@
       </c>
       <c r="T7" s="73" t="str">
         <f>Заказы!E5</f>
-        <v>Подписать тех задание---Поговорить с Володей---Закончить тех задание---Проплатили, отправить техзадание--Приедет в пятницу, показать аппараты--Созвон</v>
+        <v>Согласовать схему разметки---Закончить тех задание---Проплатили, отправить техзадание--Приедет в пятницу, показать аппараты--Созвон</v>
       </c>
       <c r="U7" s="8"/>
     </row>
-    <row r="8" spans="1:21" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A8" s="68">
         <f>Заказы!M6</f>
         <v>2828</v>
@@ -13955,11 +14018,11 @@
       </c>
       <c r="T8" s="73" t="str">
         <f>Заказы!E6</f>
-        <v>Подписать тех задание, 19.08 будет готов макет но уточнить что-то с Итакой---Созвон. По поводу лам. бумаги---Проплатили, Ждём пленку, делаем тех задание--Приехал, встретить в 16.00---Не берет трубку---Приедет в четверг--Скажет когда приедет--Созвон</v>
+        <v>Разобрались с макетом--Подписать тех задание, 19.08 будет готов макет но уточнить что-то с Итакой---Созвон. По поводу лам. бумаги---Проплатили, Ждём пленку, делаем тех задание--Приехал, встретить в 16.00---Не берет трубку---Приедет в четверг--Скажет когда приедет--Созвон</v>
       </c>
       <c r="U8" s="8"/>
     </row>
-    <row r="9" spans="1:21" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A9" s="68">
         <f>Заказы!M7</f>
         <v>2602</v>
@@ -14026,7 +14089,7 @@
       </c>
       <c r="T9" s="73" t="str">
         <f>Заказы!E7</f>
-        <v>Будет готов 21.08--Узнать плательщика (заказчика), Составить тех задание и подписать---Проплатили</v>
+        <v>Узнать за проплату--Будет готов 21.08--Узнать плательщика (заказчика), Составить тех задание и подписать---Проплатили</v>
       </c>
       <c r="U9" s="8"/>
     </row>
@@ -14239,7 +14302,7 @@
       </c>
       <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="68">
         <f>Заказы!M11</f>
         <v>2896</v>
@@ -14308,7 +14371,7 @@
       </c>
       <c r="T13" s="73" t="str">
         <f>Заказы!E11</f>
-        <v>Оплатил</v>
+        <v>Узнать размеры тоннеля--Проконтролировать приход--Оплатил</v>
       </c>
       <c r="U13" s="8"/>
     </row>
@@ -18128,20 +18191,25 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
+      <pane xSplit="4" ySplit="2" topLeftCell="E31" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
-      <pane xSplit="4" ySplit="2" topLeftCell="E31" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="16">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -18153,11 +18221,6 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -18210,12 +18273,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
+      <selection activeCell="C2" sqref="C2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
       <selection activeCell="F1" sqref="F1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
-      <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18234,14 +18297,14 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="3" customWidth="1"/>
@@ -18259,7 +18322,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="98" t="s">
@@ -18315,13 +18378,13 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="171">
         <v>42212</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -18338,10 +18401,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -18392,63 +18455,81 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>633</v>
+      </c>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>636</v>
+      </c>
       <c r="S7" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
+      <c r="B11" s="171"/>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
       <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="B5:B9 B11:B1048576 B2">
-    <cfRule type="timePeriod" dxfId="128" priority="9" timePeriod="lastWeek">
+  <conditionalFormatting sqref="B5 B11:B1048576 B2 B7:B9">
+    <cfRule type="timePeriod" dxfId="134" priority="9" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="127" priority="10" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="133" priority="10" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B2,1)&lt;=6,FLOOR(B2,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="endsWith" dxfId="126" priority="5" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="132" priority="5" operator="endsWith" text="*">
       <formula>RIGHT(B1,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="125" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="131" priority="6" timePeriod="today">
       <formula>FLOOR(B1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="124" priority="7" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="130" priority="7" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="123" priority="8" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="129" priority="8" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="endsWith" dxfId="122" priority="1" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="128" priority="1" operator="endsWith" text="*">
       <formula>RIGHT(B4,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="121" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="127" priority="2" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="120" priority="3" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="126" priority="3" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B4,1)&lt;=6,FLOOR(B4,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="119" priority="4" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="125" priority="4" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18462,10 +18543,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A7" sqref="A7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18473,7 +18554,7 @@
     <col min="1" max="1" width="27" style="115" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -18622,6 +18703,9 @@
       <c r="B7" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>332</v>
       </c>
@@ -18658,117 +18742,132 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>140</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="115" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>576</v>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="115" t="s">
+        <v>638</v>
+      </c>
+      <c r="D16" t="s">
+        <v>641</v>
+      </c>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172" t="s">
+        <v>639</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
-      <selection activeCell="C9" sqref="C9"/>
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
+      <selection activeCell="C9" sqref="C9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1">
-    <cfRule type="timePeriod" dxfId="118" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="124" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19086,10 +19185,10 @@
       <c r="B6" s="43">
         <v>0.1</v>
       </c>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="148"/>
+      <c r="D6" s="139"/>
       <c r="E6" s="60" t="s">
         <v>83</v>
       </c>
@@ -19112,289 +19211,289 @@
       <c r="L6" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="M6" s="148">
+      <c r="M6" s="139">
         <v>42177</v>
       </c>
-      <c r="N6" s="148">
+      <c r="N6" s="139">
         <v>42185</v>
       </c>
       <c r="O6" s="61">
         <v>2368</v>
       </c>
-      <c r="P6" s="148">
+      <c r="P6" s="139">
         <v>42215</v>
       </c>
-      <c r="Q6" s="148">
+      <c r="Q6" s="139">
         <v>42228</v>
       </c>
       <c r="R6" s="60" t="s">
         <v>86</v>
       </c>
       <c r="S6" s="61"/>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="140" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="169">
+      <c r="A7" s="160">
         <v>10560</v>
       </c>
-      <c r="B7" s="167">
+      <c r="B7" s="158">
         <v>0.1</v>
       </c>
-      <c r="C7" s="153" t="s">
+      <c r="C7" s="144" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="154"/>
-      <c r="E7" s="153" t="s">
+      <c r="D7" s="145"/>
+      <c r="E7" s="144" t="s">
         <v>362</v>
       </c>
-      <c r="F7" s="155" t="s">
+      <c r="F7" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="155"/>
-      <c r="H7" s="153" t="s">
+      <c r="G7" s="146"/>
+      <c r="H7" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="158" t="s">
-        <v>484</v>
-      </c>
-      <c r="J7" s="155" t="s">
+      <c r="I7" s="149" t="s">
+        <v>482</v>
+      </c>
+      <c r="J7" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="155" t="s">
+      <c r="K7" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="L7" s="155"/>
-      <c r="M7" s="154">
+      <c r="L7" s="146"/>
+      <c r="M7" s="145">
         <v>42158</v>
       </c>
-      <c r="N7" s="154" t="s">
+      <c r="N7" s="145" t="s">
         <v>268</v>
       </c>
-      <c r="O7" s="155">
+      <c r="O7" s="146">
         <v>2592</v>
       </c>
-      <c r="P7" s="155" t="s">
+      <c r="P7" s="146" t="s">
         <v>269</v>
       </c>
-      <c r="Q7" s="155"/>
-      <c r="R7" s="153" t="s">
+      <c r="Q7" s="146"/>
+      <c r="R7" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="155"/>
-      <c r="T7" s="164"/>
+      <c r="S7" s="146"/>
+      <c r="T7" s="155"/>
     </row>
     <row r="8" spans="1:20" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1330</v>
       </c>
-      <c r="B8" s="167">
+      <c r="B8" s="158">
         <v>0.1</v>
       </c>
-      <c r="C8" s="153" t="s">
+      <c r="C8" s="144" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="154"/>
-      <c r="E8" s="153" t="s">
+      <c r="D8" s="145"/>
+      <c r="E8" s="144" t="s">
         <v>362</v>
       </c>
-      <c r="F8" s="155" t="s">
+      <c r="F8" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="155"/>
-      <c r="H8" s="153" t="s">
+      <c r="G8" s="146"/>
+      <c r="H8" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="158" t="s">
-        <v>484</v>
-      </c>
-      <c r="J8" s="155" t="s">
+      <c r="I8" s="149" t="s">
+        <v>482</v>
+      </c>
+      <c r="J8" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="155" t="s">
+      <c r="K8" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="L8" s="155"/>
-      <c r="M8" s="154">
+      <c r="L8" s="146"/>
+      <c r="M8" s="145">
         <v>42158</v>
       </c>
-      <c r="N8" s="154" t="s">
+      <c r="N8" s="145" t="s">
         <v>268</v>
       </c>
-      <c r="O8" s="155">
+      <c r="O8" s="146">
         <v>2592</v>
       </c>
-      <c r="P8" s="155" t="s">
+      <c r="P8" s="146" t="s">
         <v>269</v>
       </c>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="153" t="s">
+      <c r="Q8" s="146"/>
+      <c r="R8" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="S8" s="155"/>
-      <c r="T8" s="164"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="155"/>
     </row>
     <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="169">
+      <c r="A9" s="160">
         <v>420</v>
       </c>
-      <c r="B9" s="167">
+      <c r="B9" s="158">
         <v>0.1</v>
       </c>
-      <c r="C9" s="140" t="s">
-        <v>400</v>
-      </c>
-      <c r="D9" s="143"/>
-      <c r="E9" s="142" t="s">
-        <v>412</v>
-      </c>
-      <c r="F9" s="142" t="s">
+      <c r="C9" s="131" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9" s="134"/>
+      <c r="E9" s="133" t="s">
+        <v>410</v>
+      </c>
+      <c r="F9" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="141" t="s">
-        <v>413</v>
-      </c>
-      <c r="I9" s="166">
+      <c r="G9" s="133"/>
+      <c r="H9" s="132" t="s">
+        <v>411</v>
+      </c>
+      <c r="I9" s="157">
         <v>4200</v>
       </c>
-      <c r="J9" s="141" t="s">
+      <c r="J9" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="142" t="s">
-        <v>399</v>
-      </c>
-      <c r="L9" s="142"/>
-      <c r="M9" s="143">
+      <c r="K9" s="133" t="s">
+        <v>397</v>
+      </c>
+      <c r="L9" s="133"/>
+      <c r="M9" s="134">
         <v>42216</v>
       </c>
-      <c r="N9" s="143">
+      <c r="N9" s="134">
         <v>42221</v>
       </c>
-      <c r="O9" s="142">
+      <c r="O9" s="133">
         <v>2556</v>
       </c>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="143">
+      <c r="P9" s="133"/>
+      <c r="Q9" s="134">
         <v>42225</v>
       </c>
-      <c r="R9" s="142"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="147"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="138"/>
     </row>
     <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="169">
+      <c r="A10" s="160">
         <v>350</v>
       </c>
-      <c r="B10" s="167">
+      <c r="B10" s="158">
         <v>0.1</v>
       </c>
-      <c r="C10" s="162" t="s">
+      <c r="C10" s="153" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="151"/>
+      <c r="E10" s="125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>430</v>
+      </c>
+      <c r="G10" s="127"/>
+      <c r="H10" s="152" t="s">
+        <v>428</v>
+      </c>
+      <c r="I10" s="154" t="s">
+        <v>447</v>
+      </c>
+      <c r="J10" s="152"/>
+      <c r="K10" s="127" t="s">
         <v>431</v>
       </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="134" t="s">
-        <v>246</v>
-      </c>
-      <c r="F10" s="136" t="s">
-        <v>432</v>
-      </c>
-      <c r="G10" s="136"/>
-      <c r="H10" s="161" t="s">
-        <v>430</v>
-      </c>
-      <c r="I10" s="163" t="s">
-        <v>449</v>
-      </c>
-      <c r="J10" s="161"/>
-      <c r="K10" s="136" t="s">
-        <v>433</v>
-      </c>
-      <c r="L10" s="145"/>
-      <c r="M10" s="160">
+      <c r="L10" s="136"/>
+      <c r="M10" s="151">
         <v>42221</v>
       </c>
-      <c r="N10" s="160">
+      <c r="N10" s="151">
         <v>42222</v>
       </c>
-      <c r="O10" s="136">
+      <c r="O10" s="127">
         <v>2542</v>
       </c>
-      <c r="P10" s="135">
+      <c r="P10" s="126">
         <v>42226</v>
       </c>
-      <c r="Q10" s="160">
+      <c r="Q10" s="151">
         <v>42226</v>
       </c>
-      <c r="R10" s="136"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="165"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="159"/>
+      <c r="T10" s="156"/>
     </row>
     <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="169">
+      <c r="A11" s="160">
         <v>2350</v>
       </c>
-      <c r="B11" s="167">
+      <c r="B11" s="158">
         <v>0.1</v>
       </c>
-      <c r="C11" s="137" t="s">
-        <v>426</v>
-      </c>
-      <c r="D11" s="138"/>
-      <c r="E11" s="139" t="s">
+      <c r="C11" s="128" t="s">
+        <v>424</v>
+      </c>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="139" t="s">
-        <v>425</v>
-      </c>
-      <c r="G11" s="139"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="159">
+      <c r="F11" s="130" t="s">
+        <v>423</v>
+      </c>
+      <c r="G11" s="130"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="150">
         <v>23500</v>
       </c>
-      <c r="J11" s="144" t="s">
+      <c r="J11" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="139" t="s">
-        <v>424</v>
-      </c>
-      <c r="L11" s="139"/>
-      <c r="M11" s="138">
+      <c r="K11" s="130" t="s">
+        <v>422</v>
+      </c>
+      <c r="L11" s="130"/>
+      <c r="M11" s="129">
         <v>42220</v>
       </c>
-      <c r="N11" s="138">
+      <c r="N11" s="129">
         <v>42220</v>
       </c>
-      <c r="O11" s="139">
+      <c r="O11" s="130">
         <v>2490</v>
       </c>
-      <c r="P11" s="157">
+      <c r="P11" s="148">
         <v>42223</v>
       </c>
-      <c r="Q11" s="138">
+      <c r="Q11" s="129">
         <v>42224</v>
       </c>
-      <c r="R11" s="139"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="146"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="137"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="172">
+      <c r="A12" s="162">
         <v>155</v>
       </c>
-      <c r="B12" s="167">
+      <c r="B12" s="158">
         <v>0.05</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="85"/>
@@ -19424,14 +19523,14 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="172">
+      <c r="A13" s="162">
         <v>350</v>
       </c>
-      <c r="B13" s="167">
+      <c r="B13" s="158">
         <v>0.1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="2" t="s">
@@ -19441,10 +19540,10 @@
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H13" s="85" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="I13" s="3">
         <v>3500</v>
@@ -19457,74 +19556,74 @@
       <c r="M13" s="13">
         <v>42234</v>
       </c>
-      <c r="N13" s="177">
+      <c r="N13" s="167">
         <v>42235</v>
       </c>
       <c r="O13" s="3">
         <v>2544</v>
       </c>
-      <c r="P13" s="177">
+      <c r="P13" s="167">
         <v>42235</v>
       </c>
-      <c r="Q13" s="177">
+      <c r="Q13" s="167">
         <v>42235</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="172">
+      <c r="A14" s="162">
         <v>660</v>
       </c>
-      <c r="B14" s="167">
+      <c r="B14" s="158">
         <v>0.1</v>
       </c>
-      <c r="C14" s="137" t="s">
-        <v>499</v>
-      </c>
-      <c r="D14" s="138"/>
-      <c r="E14" s="136" t="s">
-        <v>444</v>
-      </c>
-      <c r="F14" s="136" t="s">
+      <c r="C14" s="128" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" s="129"/>
+      <c r="E14" s="127" t="s">
+        <v>442</v>
+      </c>
+      <c r="F14" s="127" t="s">
         <v>388</v>
       </c>
-      <c r="G14" s="136" t="s">
-        <v>533</v>
-      </c>
-      <c r="H14" s="173" t="s">
-        <v>395</v>
-      </c>
-      <c r="I14" s="159">
+      <c r="G14" s="127" t="s">
+        <v>529</v>
+      </c>
+      <c r="H14" s="163" t="s">
+        <v>394</v>
+      </c>
+      <c r="I14" s="150">
         <v>6600</v>
       </c>
-      <c r="J14" s="145" t="s">
+      <c r="J14" s="136" t="s">
         <v>389</v>
       </c>
-      <c r="K14" s="136" t="s">
+      <c r="K14" s="127" t="s">
         <v>390</v>
       </c>
-      <c r="L14" s="139"/>
-      <c r="M14" s="138">
+      <c r="L14" s="130"/>
+      <c r="M14" s="129">
         <v>42213</v>
       </c>
-      <c r="N14" s="138">
+      <c r="N14" s="129">
         <v>42214</v>
       </c>
-      <c r="O14" s="136" t="s">
+      <c r="O14" s="127" t="s">
         <v>391</v>
       </c>
-      <c r="P14" s="157">
+      <c r="P14" s="148">
         <v>42230</v>
       </c>
-      <c r="Q14" s="144"/>
+      <c r="Q14" s="135"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
+    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20104,51 +20203,51 @@
       <c r="R6" s="67"/>
     </row>
     <row r="7" spans="1:18" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="161" t="s">
         <v>284</v>
       </c>
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="151" t="s">
         <v>354</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="127" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="136" t="s">
-        <v>514</v>
-      </c>
-      <c r="F7" s="145" t="s">
+      <c r="E7" s="127" t="s">
+        <v>512</v>
+      </c>
+      <c r="F7" s="136" t="s">
         <v>285</v>
       </c>
-      <c r="G7" s="145"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="134" t="s">
+      <c r="G7" s="136"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="125" t="s">
         <v>288</v>
       </c>
-      <c r="J7" s="134" t="s">
+      <c r="J7" s="125" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="160">
+      <c r="K7" s="151">
         <v>42200</v>
       </c>
-      <c r="L7" s="145"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="136"/>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="165"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="156"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
+    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20301,51 +20400,51 @@
       <c r="C1" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="174" t="s">
+      <c r="D1" s="164" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="175" t="s">
+      <c r="G1" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="175" t="s">
+      <c r="H1" s="165" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="176" t="s">
+      <c r="I1" s="166" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F2" t="s">
         <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="E3" t="s">
         <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>

--- a/Заказы/Zakazy.xlsx
+++ b/Заказы/Zakazy.xlsx
@@ -28,15 +28,14 @@
   </definedNames>
   <calcPr calcId="145621" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Home - Личное представление" guid="{7C21AB2F-8371-4768-A121-03485CF32494}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1292" windowHeight="542" activeSheetId="1"/>
     <customWorkbookView name="RePack by SPecialiST - Личное представление" guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="543" activeSheetId="1"/>
-    <customWorkbookView name="Home - Личное представление" guid="{7C21AB2F-8371-4768-A121-03485CF32494}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1292" windowHeight="542" activeSheetId="1"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="661">
   <si>
     <t>№</t>
   </si>
@@ -1379,9 +1378,6 @@
     <t>050-910-41-42</t>
   </si>
   <si>
-    <t>3500</t>
-  </si>
-  <si>
     <t>ТТ-15-ПАМ</t>
   </si>
   <si>
@@ -1532,9 +1528,6 @@
     <t>098-019-16-02, 050-458-23-10</t>
   </si>
   <si>
-    <t>на 700 грн больше, идут нам</t>
-  </si>
-  <si>
     <t>14.08.2015*</t>
   </si>
   <si>
@@ -1608,9 +1601,6 @@
   </si>
   <si>
     <t>Рассматривает, будет набирать--Наберет</t>
-  </si>
-  <si>
-    <t>Ждем выполнения--Выяснить приход денег, позвонить Сереже---Ждать проплату---Созвон, Отправили счет---Подготавливает тех задание,позвонит сегодня</t>
   </si>
   <si>
     <t>Неделя, две на размышление--Смотрит</t>
@@ -1673,9 +1663,6 @@
     <t>T.favor@mail.ru</t>
   </si>
   <si>
-    <t>Неделя, две на принятие решения--Вечером перезвонить, сбросил</t>
-  </si>
-  <si>
     <t>Боротко Андрей</t>
   </si>
   <si>
@@ -1706,9 +1693,6 @@
     <t>отправил информацию Вадиму и Зиновию</t>
   </si>
   <si>
-    <t>Купили ЗПИ-500, планируют брать что-то больше вплоть до Мастодонта, Позвонить--Приедет в 10 утра в цех</t>
-  </si>
-  <si>
     <t>Евгений</t>
   </si>
   <si>
@@ -1778,9 +1762,6 @@
     <t>АФ-10-В</t>
   </si>
   <si>
-    <t>098-328-80-88</t>
-  </si>
-  <si>
     <t>mmdcomp@ukr.net, lom159@ukr.net</t>
   </si>
   <si>
@@ -1817,9 +1798,6 @@
     <t>б/у кондитерское оборудование</t>
   </si>
   <si>
-    <t>передал Зинченко</t>
-  </si>
-  <si>
     <t>Передал Атабека--Созвон по заявке</t>
   </si>
   <si>
@@ -1874,9 +1852,6 @@
     <t>Лапин Игорь</t>
   </si>
   <si>
-    <t>Узнает у директора--Отправил камеру Мельника, позвонить</t>
-  </si>
-  <si>
     <t>Фасовка порошка и кальц соды в полиэт пакеты и коробки</t>
   </si>
   <si>
@@ -1898,18 +1873,12 @@
     <t>Мункачі Роберт Золтанович</t>
   </si>
   <si>
-    <t>Оплатили--Переделать счет</t>
-  </si>
-  <si>
     <t>Переключился на семечки--Упаковка своего кофе</t>
   </si>
   <si>
     <t>АЛЖУС</t>
   </si>
   <si>
-    <t>Созвонимся--Скинул аппараты, узнать что есть в цеху посмотреть</t>
-  </si>
-  <si>
     <t>095-391-60-57</t>
   </si>
   <si>
@@ -1931,9 +1900,6 @@
     <t>099-921-14-72, 067-238-71-64</t>
   </si>
   <si>
-    <t>Решает, может позвонить 26, 27--Отправил инфо, может звонить</t>
-  </si>
-  <si>
     <t>050-342-13-93</t>
   </si>
   <si>
@@ -1988,15 +1954,6 @@
     <t>info@shantil.com.ua, buhgalter.fi@shantil.com.ua</t>
   </si>
   <si>
-    <t>Узнать за проплату--Будет готов 21.08--Узнать плательщика (заказчика), Составить тех задание и подписать---Проплатили</t>
-  </si>
-  <si>
-    <t>Отправили договор и номер карточки для оплаты, проплатит 26.08</t>
-  </si>
-  <si>
-    <t>Директор никак не родит, продаем камеру еси чо--Дал контакт Мельника, с ним договариваются--Приедет с девочкой пробовать камеру</t>
-  </si>
-  <si>
     <t>Не отвечает 26.08--Позвонить--Выслал коммерческое предложение</t>
   </si>
   <si>
@@ -2012,18 +1969,9 @@
     <t>Созвон через месяц полтора (26.08)--Купил б/у АЛЖУС--Сбросил АЛЖУС (21.08)</t>
   </si>
   <si>
-    <t>Не отвечает (26.08)--Примут решение, созвониться--Отправил, перезвонить</t>
-  </si>
-  <si>
     <t>Фасовка и запайка кофе сублимированного в дой-паки</t>
   </si>
   <si>
-    <t>Отправил, и производителей пленки тоже</t>
-  </si>
-  <si>
-    <t>Узнать когда будет готов подобный аппарат, чтобы его сфотать\заснять--Выслал комм. Предложение--Был в цеху, запросить детальное техзадание--В цеху будет стоять аппарат до конца недели--Отправил инфо на мейл</t>
-  </si>
-  <si>
     <t>Согласовать схему разметки---Закончить тех задание---Проплатили, отправить техзадание--Приедет в пятницу, показать аппараты--Созвон</t>
   </si>
   <si>
@@ -2031,6 +1979,66 @@
   </si>
   <si>
     <t>Узнать размеры тоннеля--Проконтролировать приход--Оплатил</t>
+  </si>
+  <si>
+    <t>Не отвечает (28.08)--Неделя, две на принятие решения--Вечером перезвонить, сбросил</t>
+  </si>
+  <si>
+    <t>Приезжает на след неделе--Узнает у директора--Отправил камеру Мельника, позвонить</t>
+  </si>
+  <si>
+    <t>Не отвечает (27.08)--Примут решение, созвониться--Отправил, перезвонить</t>
+  </si>
+  <si>
+    <t>Должен был выслать фотки</t>
+  </si>
+  <si>
+    <t>068-415-78-04</t>
+  </si>
+  <si>
+    <t>Продали камеру Мельника</t>
+  </si>
+  <si>
+    <t>Хотели вернуть деньги за ЗПИ--Купили ЗПИ-500, планируют брать что-то больше вплоть до Мастодонта, Позвонить--Приедет в 10 утра в цех</t>
+  </si>
+  <si>
+    <t>Забирать будут в начале сентября--Проплатили полностью--Будет готов 21.08--Узнать плательщика (заказчика), Составить тех задание и подписать---Проплатили</t>
+  </si>
+  <si>
+    <t>Проконтродировать готовность, проблемы--Оплатили--Переделать счет</t>
+  </si>
+  <si>
+    <t>27.08.2015*</t>
+  </si>
+  <si>
+    <t>Сам позвонит, нет денег--Отправил, и производителей пленки тоже</t>
+  </si>
+  <si>
+    <t>Сильно долго 3 недели ждать--Отправили договор и номер карточки для оплаты, проплатит 26.08</t>
+  </si>
+  <si>
+    <t>НЕ-300</t>
+  </si>
+  <si>
+    <t>098-328-80-88, 066-436-89-18</t>
+  </si>
+  <si>
+    <t>Отправил ВД-1, хотят брать мастодонт--Выслал комм. Предложение--Был в цеху, запросить детальное техзадание--В цеху будет стоять аппарат до конца недели--Отправил инфо на мейл</t>
+  </si>
+  <si>
+    <t>Решают, наберут (28.08)--Скинул аппараты, узнать что есть в цеху посмотреть</t>
+  </si>
+  <si>
+    <t>Пакеты для тестов, ШД готов, запайщик еще нет--Выяснить приход денег, позвонить Сереже---Ждать проплату---Созвон, Отправили счет---Подготавливает тех задание,позвонит сегодня</t>
+  </si>
+  <si>
+    <t>передал Вадиму</t>
+  </si>
+  <si>
+    <t>Позвонит сам--Решает, позвонить в конце дня--Отправил инфо, может звонить</t>
+  </si>
+  <si>
+    <t>28.08.2015*</t>
   </si>
 </sst>
 </file>
@@ -2540,7 +2548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2870,7 +2878,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2979,7 +2986,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3022,16 +3028,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3043,18 +3055,27 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="275">
+  <dxfs count="299">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3065,7 +3086,42 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3100,6 +3156,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3296,6 +3359,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5357"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3878,6 +3997,664 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5357"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5357"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF38194"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5357"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5357"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3931,83 +4708,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5383,419 +6083,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5357"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5357"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -6235,118 +6522,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFF38194"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5357"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6377,109 +6552,109 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:R39" totalsRowShown="0" headerRowDxfId="258" dataDxfId="256" headerRowBorderDxfId="257">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:R39" totalsRowShown="0" headerRowDxfId="298" dataDxfId="296" headerRowBorderDxfId="297">
   <autoFilter ref="A1:R39"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Телефон" dataDxfId="255"/>
-    <tableColumn id="2" name="Напоминание" dataDxfId="254"/>
-    <tableColumn id="3" name="Ф.И.О." dataDxfId="253"/>
-    <tableColumn id="4" name="Наше предложение" dataDxfId="252"/>
-    <tableColumn id="5" name="Статус" dataDxfId="251"/>
-    <tableColumn id="6" name="Почта" dataDxfId="250"/>
-    <tableColumn id="7" name="Цена" dataDxfId="249"/>
-    <tableColumn id="8" name="Город" dataDxfId="248"/>
-    <tableColumn id="9" name="Задача" dataDxfId="247"/>
-    <tableColumn id="10" name="Особенности" dataDxfId="246"/>
-    <tableColumn id="11" name="Дата контакта" dataDxfId="245"/>
-    <tableColumn id="12" name="Дата заказа (предоплаты)" dataDxfId="244"/>
-    <tableColumn id="13" name="Код УТ" dataDxfId="243"/>
-    <tableColumn id="14" name="Дата выполнения" dataDxfId="242"/>
-    <tableColumn id="15" name="Дата сдачи (окончание сделки)" dataDxfId="241"/>
-    <tableColumn id="16" name="Фирма" dataDxfId="240"/>
-    <tableColumn id="17" name="№" dataDxfId="239"/>
-    <tableColumn id="18" name="Как узнали?" dataDxfId="238"/>
+    <tableColumn id="1" name="Телефон" dataDxfId="295"/>
+    <tableColumn id="2" name="Напоминание" dataDxfId="294"/>
+    <tableColumn id="3" name="Ф.И.О." dataDxfId="293"/>
+    <tableColumn id="4" name="Наше предложение" dataDxfId="292"/>
+    <tableColumn id="5" name="Статус" dataDxfId="291"/>
+    <tableColumn id="6" name="Почта" dataDxfId="290"/>
+    <tableColumn id="7" name="Цена" dataDxfId="289"/>
+    <tableColumn id="8" name="Город" dataDxfId="288"/>
+    <tableColumn id="9" name="Задача" dataDxfId="287"/>
+    <tableColumn id="10" name="Особенности" dataDxfId="286"/>
+    <tableColumn id="11" name="Дата контакта" dataDxfId="285"/>
+    <tableColumn id="12" name="Дата заказа (предоплаты)" dataDxfId="284"/>
+    <tableColumn id="13" name="Код УТ" dataDxfId="283"/>
+    <tableColumn id="14" name="Дата выполнения" dataDxfId="282"/>
+    <tableColumn id="15" name="Дата сдачи (окончание сделки)" dataDxfId="281"/>
+    <tableColumn id="16" name="Фирма" dataDxfId="280"/>
+    <tableColumn id="17" name="№" dataDxfId="279"/>
+    <tableColumn id="18" name="Как узнали?" dataDxfId="278"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R7" totalsRowShown="0" dataDxfId="178" tableBorderDxfId="177">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R7" totalsRowShown="0" dataDxfId="277" tableBorderDxfId="276">
   <autoFilter ref="A1:R7"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Телефон" dataDxfId="176"/>
-    <tableColumn id="2" name="Напоминание" dataDxfId="175"/>
-    <tableColumn id="3" name="Ф.И.О." dataDxfId="174"/>
-    <tableColumn id="4" name="Наше предложение" dataDxfId="173"/>
-    <tableColumn id="5" name="Статус" dataDxfId="172"/>
-    <tableColumn id="6" name="Почта" dataDxfId="171"/>
-    <tableColumn id="7" name="Цена" dataDxfId="170"/>
-    <tableColumn id="8" name="Город" dataDxfId="169"/>
-    <tableColumn id="9" name="Задача" dataDxfId="168"/>
-    <tableColumn id="10" name="Особенности" dataDxfId="167"/>
-    <tableColumn id="11" name="Дата контакта" dataDxfId="166"/>
-    <tableColumn id="12" name="Дата заказа (предоплаты)" dataDxfId="165"/>
-    <tableColumn id="13" name="Код УТ" dataDxfId="164"/>
-    <tableColumn id="14" name="Дата выполнения" dataDxfId="163"/>
-    <tableColumn id="15" name="Дата сдачи (окончание сделки)" dataDxfId="162"/>
-    <tableColumn id="16" name="Фирма" dataDxfId="161"/>
-    <tableColumn id="17" name="№" dataDxfId="160"/>
-    <tableColumn id="18" name="Как узнали?" dataDxfId="159"/>
+    <tableColumn id="1" name="Телефон" dataDxfId="275"/>
+    <tableColumn id="2" name="Напоминание" dataDxfId="274"/>
+    <tableColumn id="3" name="Ф.И.О." dataDxfId="273"/>
+    <tableColumn id="4" name="Наше предложение" dataDxfId="272"/>
+    <tableColumn id="5" name="Статус" dataDxfId="271"/>
+    <tableColumn id="6" name="Почта" dataDxfId="270"/>
+    <tableColumn id="7" name="Цена" dataDxfId="269"/>
+    <tableColumn id="8" name="Город" dataDxfId="268"/>
+    <tableColumn id="9" name="Задача" dataDxfId="267"/>
+    <tableColumn id="10" name="Особенности" dataDxfId="266"/>
+    <tableColumn id="11" name="Дата контакта" dataDxfId="265"/>
+    <tableColumn id="12" name="Дата заказа (предоплаты)" dataDxfId="264"/>
+    <tableColumn id="13" name="Код УТ" dataDxfId="263"/>
+    <tableColumn id="14" name="Дата выполнения" dataDxfId="262"/>
+    <tableColumn id="15" name="Дата сдачи (окончание сделки)" dataDxfId="261"/>
+    <tableColumn id="16" name="Фирма" dataDxfId="260"/>
+    <tableColumn id="17" name="№" dataDxfId="259"/>
+    <tableColumn id="18" name="Как узнали?" dataDxfId="258"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A3:T14" totalsRowShown="0" headerRowDxfId="158" dataDxfId="156" headerRowBorderDxfId="157" tableBorderDxfId="155">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A3:T14" totalsRowShown="0" headerRowDxfId="257" dataDxfId="255" headerRowBorderDxfId="256" tableBorderDxfId="254">
   <autoFilter ref="A3:T14"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="Столбец1" dataDxfId="154">
+    <tableColumn id="1" name="Столбец1" dataDxfId="253">
       <calculatedColumnFormula>Завершенные!O7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Столбец2" dataDxfId="153">
+    <tableColumn id="2" name="Столбец2" dataDxfId="252">
       <calculatedColumnFormula>Завершенные!M7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Столбец3" dataDxfId="152">
+    <tableColumn id="3" name="Столбец3" dataDxfId="251">
       <calculatedColumnFormula>Завершенные!F7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Столбец4" dataDxfId="151">
+    <tableColumn id="4" name="Столбец4" dataDxfId="250">
       <calculatedColumnFormula>CONCATENATE(Завершенные!E7," ",Завершенные!R7," ",Завершенные!C7," ",Завершенные!H7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Столбец5" dataDxfId="150">
+    <tableColumn id="5" name="Столбец5" dataDxfId="249">
       <calculatedColumnFormula>Завершенные!I7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Столбец6" dataDxfId="149"/>
-    <tableColumn id="7" name="Столбец7" dataDxfId="148"/>
-    <tableColumn id="8" name="Столбец8" dataDxfId="147">
+    <tableColumn id="6" name="Столбец6" dataDxfId="248"/>
+    <tableColumn id="7" name="Столбец7" dataDxfId="247"/>
+    <tableColumn id="8" name="Столбец8" dataDxfId="246">
       <calculatedColumnFormula>'Таблица-отчет'!$E4-'Таблица-отчет'!$G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Столбец9" dataDxfId="146"/>
-    <tableColumn id="10" name="Столбец10" dataDxfId="145">
+    <tableColumn id="9" name="Столбец9" dataDxfId="245"/>
+    <tableColumn id="10" name="Столбец10" dataDxfId="244">
       <calculatedColumnFormula>E4*I4-G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Столбец11" dataDxfId="144">
+    <tableColumn id="11" name="Столбец11" dataDxfId="243">
       <calculatedColumnFormula>H4-J4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Столбец12" dataDxfId="143"/>
-    <tableColumn id="13" name="Столбец13" dataDxfId="142">
+    <tableColumn id="12" name="Столбец12" dataDxfId="242"/>
+    <tableColumn id="13" name="Столбец13" dataDxfId="241">
       <calculatedColumnFormula>L4/H4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Столбец14" dataDxfId="141">
+    <tableColumn id="14" name="Столбец14" dataDxfId="240">
       <calculatedColumnFormula>Завершенные!N7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Столбец15" dataDxfId="140"/>
-    <tableColumn id="16" name="Столбец16" dataDxfId="139"/>
-    <tableColumn id="17" name="Столбец17" dataDxfId="138">
+    <tableColumn id="15" name="Столбец15" dataDxfId="239"/>
+    <tableColumn id="16" name="Столбец16" dataDxfId="238"/>
+    <tableColumn id="17" name="Столбец17" dataDxfId="237">
       <calculatedColumnFormula>H4-L4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Столбец18" dataDxfId="137">
+    <tableColumn id="18" name="Столбец18" dataDxfId="236">
       <calculatedColumnFormula>J4-O4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Столбец19" dataDxfId="136">
+    <tableColumn id="19" name="Столбец19" dataDxfId="235">
       <calculatedColumnFormula>K4-P4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="Столбец20" dataDxfId="135">
+    <tableColumn id="20" name="Столбец20" dataDxfId="234">
       <calculatedColumnFormula>Завершенные!G7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6488,16 +6663,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:I16" totalsRowShown="0" headerRowDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:I16" totalsRowShown="0" headerRowDxfId="233">
   <autoFilter ref="A1:I16"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Фирма" dataDxfId="122"/>
-    <tableColumn id="2" name="Продукция" dataDxfId="121"/>
+    <tableColumn id="1" name="Фирма" dataDxfId="232"/>
+    <tableColumn id="2" name="Продукция" dataDxfId="231"/>
     <tableColumn id="3" name="Сайт"/>
     <tableColumn id="4" name="Почта"/>
-    <tableColumn id="5" name="Город, Адрес" dataDxfId="120"/>
-    <tableColumn id="6" name="Ф.И.О" dataDxfId="119"/>
-    <tableColumn id="7" name="Телефон" dataDxfId="118"/>
+    <tableColumn id="5" name="Город, Адрес" dataDxfId="230"/>
+    <tableColumn id="6" name="Ф.И.О" dataDxfId="229"/>
+    <tableColumn id="7" name="Телефон" dataDxfId="228"/>
     <tableColumn id="8" name="Доп.Сведения"/>
     <tableColumn id="9" name="Примечание"/>
   </tableColumns>
@@ -6795,13 +6970,13 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E58" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6888,13 +7063,13 @@
         <v>210</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C2" s="50" t="s">
         <v>127</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>264</v>
@@ -6964,7 +7139,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>48</v>
@@ -6973,7 +7148,7 @@
         <v>88</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F4" s="50" t="s">
         <v>51</v>
@@ -7013,7 +7188,7 @@
         <v>369</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="F5" s="50" t="s">
         <v>122</v>
@@ -7088,7 +7263,7 @@
         <v>43</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>42</v>
@@ -7242,7 +7417,7 @@
         <v>231</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>233</v>
@@ -7251,7 +7426,7 @@
         <v>372</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F11" s="50" t="s">
         <v>232</v>
@@ -7280,7 +7455,7 @@
         <v>239</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C12" s="50" t="s">
         <v>238</v>
@@ -7289,7 +7464,7 @@
         <v>196</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F12" s="50" t="s">
         <v>240</v>
@@ -7322,7 +7497,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C13" s="50" t="s">
         <v>65</v>
@@ -7331,7 +7506,7 @@
         <v>71</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F13" s="50"/>
       <c r="G13" s="52"/>
@@ -7358,16 +7533,16 @@
         <v>249</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>499</v>
-      </c>
-      <c r="C14" s="121" t="s">
+        <v>497</v>
+      </c>
+      <c r="C14" s="120" t="s">
         <v>246</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>247</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>250</v>
@@ -7471,7 +7646,7 @@
         <v>247</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F17" s="56" t="s">
         <v>282</v>
@@ -7541,7 +7716,7 @@
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="52" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F19" s="56" t="s">
         <v>338</v>
@@ -7570,7 +7745,7 @@
         <v>321</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C20" s="50" t="s">
         <v>318</v>
@@ -7589,7 +7764,7 @@
         <v>140</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J20" s="50"/>
       <c r="K20" s="59">
@@ -7617,7 +7792,7 @@
         <v>319</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F21" s="56" t="s">
         <v>339</v>
@@ -7627,7 +7802,7 @@
         <v>60</v>
       </c>
       <c r="I21" s="50" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J21" s="52"/>
       <c r="K21" s="59">
@@ -7653,9 +7828,9 @@
       </c>
       <c r="D22" s="51"/>
       <c r="E22" s="52" t="s">
-        <v>648</v>
-      </c>
-      <c r="F22" s="118" t="s">
+        <v>634</v>
+      </c>
+      <c r="F22" s="117" t="s">
         <v>162</v>
       </c>
       <c r="G22" s="56"/>
@@ -7681,7 +7856,7 @@
     </row>
     <row r="23" spans="1:18" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B23" s="59">
         <v>42236</v>
@@ -7760,7 +7935,7 @@
         <v>226</v>
       </c>
       <c r="B25" s="59">
-        <v>42243</v>
+        <v>42244</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>127</v>
@@ -7769,10 +7944,10 @@
         <v>64</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="G25" s="56"/>
       <c r="H25" s="56" t="s">
@@ -7805,7 +7980,7 @@
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="52" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F26" s="56"/>
       <c r="G26" s="56"/>
@@ -7892,7 +8067,7 @@
       <c r="R28" s="52"/>
     </row>
     <row r="29" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="140" t="s">
         <v>349</v>
       </c>
       <c r="B29" s="93" t="s">
@@ -7964,7 +8139,7 @@
         <v>360</v>
       </c>
       <c r="B31" s="113" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C31" s="111" t="s">
         <v>357</v>
@@ -8032,14 +8207,14 @@
         <v>386</v>
       </c>
       <c r="B33" s="113" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C33" s="111" t="s">
         <v>384</v>
       </c>
       <c r="D33" s="112"/>
       <c r="E33" s="112" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F33" s="110"/>
       <c r="G33" s="110"/>
@@ -8064,16 +8239,16 @@
         <v>400</v>
       </c>
       <c r="B34" s="107" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C34" s="111" t="s">
         <v>399</v>
       </c>
       <c r="D34" s="112" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F34" s="110" t="s">
         <v>407</v>
@@ -8172,7 +8347,7 @@
         <v>433</v>
       </c>
       <c r="B37" s="113" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C37" s="111" t="s">
         <v>432</v>
@@ -8181,7 +8356,7 @@
         <v>304</v>
       </c>
       <c r="E37" s="112" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F37" s="110" t="s">
         <v>434</v>
@@ -8208,7 +8383,7 @@
         <v>435</v>
       </c>
       <c r="B38" s="110" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C38" s="111" t="s">
         <v>127</v>
@@ -8242,20 +8417,20 @@
         <v>446</v>
       </c>
       <c r="B39" s="107" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>445</v>
       </c>
       <c r="D39" s="112"/>
       <c r="E39" s="52" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F39" s="110"/>
       <c r="G39" s="110"/>
       <c r="H39" s="110"/>
       <c r="I39" s="112" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J39" s="111"/>
       <c r="K39" s="110"/>
@@ -8268,35 +8443,35 @@
       <c r="R39" s="110"/>
     </row>
     <row r="40" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="142" t="s">
+      <c r="A40" s="141" t="s">
+        <v>449</v>
+      </c>
+      <c r="B40" s="119" t="s">
+        <v>497</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>450</v>
-      </c>
-      <c r="B40" s="120" t="s">
-        <v>499</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>451</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29" t="s">
-        <v>596</v>
-      </c>
-      <c r="F40" s="123" t="s">
-        <v>453</v>
+        <v>589</v>
+      </c>
+      <c r="F40" s="122" t="s">
+        <v>452</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H40" s="36" t="s">
         <v>309</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="K40" s="120">
+        <v>453</v>
+      </c>
+      <c r="K40" s="119">
         <v>42227</v>
       </c>
       <c r="L40" s="32"/>
@@ -8308,33 +8483,33 @@
       <c r="R40" s="32"/>
     </row>
     <row r="41" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="143" t="s">
-        <v>455</v>
-      </c>
-      <c r="B41" s="124">
+      <c r="A41" s="142" t="s">
+        <v>454</v>
+      </c>
+      <c r="B41" s="123">
         <v>42273</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>271</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G41" s="38"/>
       <c r="H41" s="39" t="s">
         <v>217</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="J41" s="33"/>
-      <c r="K41" s="124">
+      <c r="K41" s="123">
         <v>42227</v>
       </c>
       <c r="L41" s="33"/>
@@ -8347,16 +8522,16 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="G42" s="3">
         <v>9000</v>
@@ -8367,48 +8542,48 @@
     </row>
     <row r="43" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B43" s="13">
         <v>42235</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="K43" s="13">
         <v>42227</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>623</v>
+        <v>464</v>
       </c>
       <c r="B44" s="13">
-        <v>42241</v>
+        <v>42236</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>622</v>
+        <v>463</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>304</v>
+        <v>465</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F44" s="168" t="s">
-        <v>574</v>
+        <v>632</v>
+      </c>
+      <c r="F44" s="85" t="s">
+        <v>466</v>
       </c>
       <c r="K44" s="13">
         <v>42228</v>
@@ -8416,22 +8591,25 @@
     </row>
     <row r="45" spans="1:18" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B45" s="13">
-        <v>42236</v>
+        <v>467</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>570</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>466</v>
+        <v>42</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>646</v>
+        <v>590</v>
       </c>
       <c r="F45" s="85" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="K45" s="13">
         <v>42228</v>
@@ -8439,25 +8617,19 @@
     </row>
     <row r="46" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>576</v>
+        <v>497</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>42</v>
+        <v>469</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>597</v>
+        <v>544</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>469</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="K46" s="13">
         <v>42228</v>
@@ -8465,19 +8637,16 @@
     </row>
     <row r="47" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>499</v>
+        <v>424</v>
+      </c>
+      <c r="B47" s="13">
+        <v>42241</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F47" s="85" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="K47" s="13">
         <v>42228</v>
@@ -8485,244 +8654,285 @@
     </row>
     <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="B48" s="13">
-        <v>42241</v>
+        <v>42237</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>421</v>
+        <v>472</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>488</v>
+        <v>521</v>
+      </c>
+      <c r="F48" s="85" t="s">
+        <v>474</v>
       </c>
       <c r="K48" s="13">
         <v>42228</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B49" s="13">
-        <v>42237</v>
+      <c r="B49" s="13" t="s">
+        <v>588</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>474</v>
+        <v>304</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="F49" s="85" t="s">
-        <v>475</v>
+        <v>483</v>
+      </c>
+      <c r="F49" t="s">
+        <v>479</v>
       </c>
       <c r="K49" s="13">
-        <v>42228</v>
+        <v>42219</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>484</v>
+      </c>
       <c r="B50" s="13" t="s">
-        <v>595</v>
+        <v>497</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>481</v>
+        <v>127</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>304</v>
+        <v>486</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F50" t="s">
-        <v>480</v>
+        <v>498</v>
+      </c>
+      <c r="F50" s="85" t="s">
+        <v>485</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="K50" s="13">
-        <v>42219</v>
+        <v>42229</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F51" s="85" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="K51" s="13">
         <v>42229</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>521</v>
+        <v>529</v>
+      </c>
+      <c r="B52" s="13">
+        <v>42249</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F52" s="85" t="s">
+        <v>530</v>
+      </c>
+      <c r="K52" s="13">
+        <v>42233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B53" s="13">
+        <v>42244</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="K52" s="13">
-        <v>42229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D53" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F53" s="85" t="s">
+        <v>534</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="K53" s="13">
+        <v>42233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B54" s="13">
         <v>42244</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>304</v>
+        <v>537</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>605</v>
+        <v>658</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>533</v>
+        <v>536</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="K54" s="13">
-        <v>42233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>42234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B55" s="13">
-        <v>42243</v>
+        <v>42249</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>247</v>
+        <v>127</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>538</v>
+        <v>647</v>
       </c>
       <c r="F55" s="85" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>535</v>
+        <v>60</v>
       </c>
       <c r="K55" s="13">
-        <v>42233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>42234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
+      </c>
+      <c r="B56" s="13">
+        <v>42236</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F56" s="85" t="s">
+        <v>548</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" s="13">
+        <v>42235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B57" s="13">
+        <v>42244</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F57" s="85" t="s">
+        <v>566</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="K57" s="13">
+        <v>42235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="F56" s="85" t="s">
-        <v>540</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="K56" s="13">
-        <v>42234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B57" s="13">
-        <v>42249</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F57" s="85" t="s">
-        <v>546</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K57" s="13">
-        <v>42234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>551</v>
-      </c>
       <c r="B58" s="13">
-        <v>42236</v>
+        <v>42241</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>554</v>
+        <v>656</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>60</v>
+        <v>584</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="K58" s="13">
         <v>42235</v>
@@ -8730,241 +8940,201 @@
     </row>
     <row r="59" spans="1:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="B59" s="13">
-        <v>42242</v>
+        <v>42249</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="F59" s="85" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>556</v>
+        <v>595</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="K59" s="13">
-        <v>42235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>42236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B60" s="13">
-        <v>42241</v>
+        <v>607</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>660</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>598</v>
+        <v>42</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="F60" s="85" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>591</v>
+        <v>214</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="K60" s="13">
-        <v>42235</v>
+        <v>42237</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B61" s="13">
-        <v>42242</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="B61" s="13"/>
       <c r="C61" s="2" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>603</v>
+        <v>64</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F61" s="85" t="s">
+        <v>615</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="K61" s="13">
+        <v>42241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="F61" s="85" t="s">
-        <v>600</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="K61" s="13">
-        <v>42236</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B62" s="13">
-        <v>42244</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>624</v>
-      </c>
       <c r="F62" s="85" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="K62" s="13">
-        <v>42237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>42241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="B63" s="13">
-        <v>42243</v>
+        <v>42250</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>630</v>
+        <v>458</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="F63" s="85" t="s">
-        <v>626</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="K63" s="13">
-        <v>42241</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B64" s="13">
-        <v>42243</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="F64" s="85" t="s">
-        <v>629</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="K64" s="13">
-        <v>42241</v>
-      </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
       <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2:R8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="B1 B54:B1048576 B29:B39 B42:B51">
-    <cfRule type="timePeriod" dxfId="274" priority="27" timePeriod="last7Days">
+  <conditionalFormatting sqref="B1 B52:B1048576 B29:B39 B42:B50">
+    <cfRule type="timePeriod" dxfId="219" priority="27" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="273" priority="28" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="218" priority="28" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="272" priority="29" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="217" priority="29" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B39">
-    <cfRule type="endsWith" dxfId="271" priority="19" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="216" priority="19" operator="endsWith" text="*">
       <formula>RIGHT(B2,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="270" priority="20" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="215" priority="20" timePeriod="today">
       <formula>FLOOR(B2,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="269" priority="21" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="214" priority="21" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B2,1)&lt;=6,FLOOR(B2,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="268" priority="22" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="213" priority="22" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:A1048576 A42:A51 A1:A39">
-    <cfRule type="beginsWith" dxfId="267" priority="9" operator="beginsWith" text="068">
+  <conditionalFormatting sqref="A52:A1048576 A1:A39 A42:A50">
+    <cfRule type="beginsWith" dxfId="212" priority="9" operator="beginsWith" text="068">
       <formula>LEFT(A1,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="266" priority="10" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="211" priority="10" operator="beginsWith" text="098">
       <formula>LEFT(A1,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="265" priority="11" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="210" priority="11" operator="beginsWith" text="097">
       <formula>LEFT(A1,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="264" priority="12" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="209" priority="12" operator="beginsWith" text="096">
       <formula>LEFT(A1,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="263" priority="14" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="208" priority="14" operator="beginsWith" text="067">
       <formula>LEFT(A1,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B41">
-    <cfRule type="endsWith" dxfId="262" priority="1" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="207" priority="1" operator="endsWith" text="*">
       <formula>RIGHT(B40,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="261" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="206" priority="2" timePeriod="today">
       <formula>FLOOR(B40,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="260" priority="3" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="205" priority="3" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B40,1)&lt;=6,FLOOR(B40,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="259" priority="4" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="204" priority="4" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B40,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B40,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8987,10 +9157,10 @@
   <dimension ref="A1:R201"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9125,19 +9295,19 @@
     </row>
     <row r="3" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B3" s="51">
         <v>42242</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>71</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F3" s="50" t="s">
         <v>367</v>
@@ -9229,7 +9399,7 @@
         <v>322</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="F5" s="91" t="s">
         <v>336</v>
@@ -9271,13 +9441,13 @@
         <v>42242</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="F6" s="56" t="s">
         <v>308</v>
@@ -9309,26 +9479,26 @@
       <c r="Q6" s="52"/>
       <c r="R6" s="56"/>
     </row>
-    <row r="7" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B7" s="59">
-        <v>42242</v>
+        <v>42250</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>423</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="F7" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="170">
+      <c r="G7" s="168">
         <v>23500</v>
       </c>
       <c r="H7" s="58" t="s">
@@ -9348,12 +9518,12 @@
       </c>
       <c r="O7" s="56"/>
       <c r="P7" s="52" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q7" s="57"/>
       <c r="R7" s="56"/>
     </row>
-    <row r="8" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="110" t="s">
         <v>416</v>
       </c>
@@ -9366,10 +9536,10 @@
       <c r="D8" s="112" t="s">
         <v>402</v>
       </c>
-      <c r="E8" s="112" t="s">
-        <v>524</v>
-      </c>
-      <c r="F8" s="117" t="s">
+      <c r="E8" s="52" t="s">
+        <v>657</v>
+      </c>
+      <c r="F8" s="121" t="s">
         <v>409</v>
       </c>
       <c r="G8" s="110">
@@ -9381,9 +9551,7 @@
       <c r="I8" s="112" t="s">
         <v>403</v>
       </c>
-      <c r="J8" s="111" t="s">
-        <v>498</v>
-      </c>
+      <c r="J8" s="111"/>
       <c r="K8" s="113">
         <v>42216</v>
       </c>
@@ -9393,12 +9561,12 @@
       <c r="M8" s="112">
         <v>2132.2854000000002</v>
       </c>
-      <c r="N8" s="119">
+      <c r="N8" s="118">
         <v>42247</v>
       </c>
       <c r="O8" s="110"/>
       <c r="P8" s="111" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q8" s="110"/>
       <c r="R8" s="110"/>
@@ -9414,10 +9582,10 @@
         <v>89</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="F9" s="50" t="s">
         <v>73</v>
@@ -9451,36 +9619,36 @@
       <c r="Q9" s="52"/>
       <c r="R9" s="52"/>
     </row>
-    <row r="10" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B10" s="63">
-        <v>42237</v>
+        <v>42263</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>613</v>
+        <v>649</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>607</v>
-      </c>
-      <c r="G10" s="169">
+        <v>599</v>
+      </c>
+      <c r="G10" s="167">
         <v>57300</v>
       </c>
       <c r="H10" s="66" t="s">
         <v>143</v>
       </c>
       <c r="I10" s="61" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="J10" s="64" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="K10" s="64"/>
       <c r="L10" s="63">
@@ -9489,46 +9657,46 @@
       <c r="M10" s="61">
         <v>2895</v>
       </c>
-      <c r="N10" s="139">
+      <c r="N10" s="138">
         <v>42289</v>
       </c>
       <c r="O10" s="64"/>
       <c r="P10" s="61" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="Q10" s="65"/>
       <c r="R10" s="67"/>
     </row>
     <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B11" s="13">
         <v>42244</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G11" s="3">
         <v>81550</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="K11" s="13">
         <v>42233</v>
@@ -13241,222 +13409,222 @@
     <sortCondition ref="C4"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}" scale="85">
+      <pane xSplit="4" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}" showAutoFilter="1">
       <pane xSplit="4" ySplit="1" topLeftCell="E31" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="A36" sqref="A36"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A1:R33"/>
-    </customSheetView>
-    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}" scale="85">
-      <pane xSplit="4" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B7 B12:B1048576 B1:B4">
-    <cfRule type="endsWith" dxfId="237" priority="165" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="203" priority="165" operator="endsWith" text="*">
       <formula>RIGHT(B1,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="236" priority="167" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="202" priority="167" timePeriod="today">
       <formula>FLOOR(B1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="235" priority="168" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="201" priority="168" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="234" priority="169" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="200" priority="169" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="endsWith" dxfId="233" priority="153" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="199" priority="153" operator="endsWith" text="*">
       <formula>RIGHT(B5,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="232" priority="154" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="198" priority="154" timePeriod="today">
       <formula>FLOOR(B5,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="231" priority="155" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="197" priority="155" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B5,1)&lt;=6,FLOOR(B5,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="230" priority="156" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="196" priority="156" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B5,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B5,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="endsWith" dxfId="229" priority="149" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="195" priority="149" operator="endsWith" text="*">
       <formula>RIGHT(B5,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="228" priority="150" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="194" priority="150" timePeriod="today">
       <formula>FLOOR(B5,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="227" priority="151" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="193" priority="151" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B5,1)&lt;=6,FLOOR(B5,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="226" priority="152" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="192" priority="152" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B5,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B5,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="beginsWith" dxfId="225" priority="144" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="191" priority="144" operator="beginsWith" text="068">
       <formula>LEFT(A5,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="224" priority="145" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="190" priority="145" operator="beginsWith" text="098">
       <formula>LEFT(A5,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="223" priority="146" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="189" priority="146" operator="beginsWith" text="097">
       <formula>LEFT(A5,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="222" priority="147" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="188" priority="147" operator="beginsWith" text="096">
       <formula>LEFT(A5,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="221" priority="148" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="187" priority="148" operator="beginsWith" text="067">
       <formula>LEFT(A5,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="beginsWith" dxfId="220" priority="114" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="186" priority="114" operator="beginsWith" text="068">
       <formula>LEFT(A6,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="219" priority="115" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="185" priority="115" operator="beginsWith" text="098">
       <formula>LEFT(A6,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="218" priority="116" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="184" priority="116" operator="beginsWith" text="097">
       <formula>LEFT(A6,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="217" priority="117" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="183" priority="117" operator="beginsWith" text="096">
       <formula>LEFT(A6,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="216" priority="118" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="182" priority="118" operator="beginsWith" text="067">
       <formula>LEFT(A6,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="endsWith" dxfId="215" priority="119" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="181" priority="119" operator="endsWith" text="*">
       <formula>RIGHT(B6,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="214" priority="120" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="180" priority="120" timePeriod="today">
       <formula>FLOOR(B6,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="213" priority="121" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="179" priority="121" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B6,1)&lt;=6,FLOOR(B6,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="212" priority="122" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="178" priority="122" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B6,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B6,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="beginsWith" dxfId="211" priority="30" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="177" priority="30" operator="beginsWith" text="068">
       <formula>LEFT(A8,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="210" priority="31" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="176" priority="31" operator="beginsWith" text="098">
       <formula>LEFT(A8,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="209" priority="32" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="175" priority="32" operator="beginsWith" text="097">
       <formula>LEFT(A8,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="208" priority="33" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="174" priority="33" operator="beginsWith" text="096">
       <formula>LEFT(A8,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="207" priority="34" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="173" priority="34" operator="beginsWith" text="067">
       <formula>LEFT(A8,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="timePeriod" dxfId="206" priority="39" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="172" priority="39" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B8,1)&lt;=6,FLOOR(B8,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="205" priority="40" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="171" priority="40" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B8,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B8,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="204" priority="41" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="170" priority="41" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B8,1)&lt;=6,FLOOR(B8,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="endsWith" dxfId="203" priority="35" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="169" priority="35" operator="endsWith" text="*">
       <formula>RIGHT(B8,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="202" priority="36" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="168" priority="36" timePeriod="today">
       <formula>FLOOR(B8,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="201" priority="37" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="167" priority="37" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B8,1)&lt;=6,FLOOR(B8,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="200" priority="38" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="166" priority="38" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B8,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B8,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="beginsWith" dxfId="199" priority="21" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="165" priority="21" operator="beginsWith" text="068">
       <formula>LEFT(A9,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="198" priority="22" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="164" priority="22" operator="beginsWith" text="098">
       <formula>LEFT(A9,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="197" priority="23" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="163" priority="23" operator="beginsWith" text="097">
       <formula>LEFT(A9,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="196" priority="24" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="162" priority="24" operator="beginsWith" text="096">
       <formula>LEFT(A9,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="195" priority="25" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="161" priority="25" operator="beginsWith" text="067">
       <formula>LEFT(A9,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="endsWith" dxfId="194" priority="26" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="160" priority="26" operator="endsWith" text="*">
       <formula>RIGHT(B9,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="193" priority="27" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="159" priority="27" timePeriod="today">
       <formula>FLOOR(B9,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="192" priority="28" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="158" priority="28" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B9,1)&lt;=6,FLOOR(B9,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="191" priority="29" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="157" priority="29" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B9,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B9,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="endsWith" dxfId="190" priority="9" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="156" priority="9" operator="endsWith" text="*">
       <formula>RIGHT(B10,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="189" priority="10" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="155" priority="10" timePeriod="today">
       <formula>FLOOR(B10,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="188" priority="11" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="154" priority="11" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B10,1)&lt;=6,FLOOR(B10,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="187" priority="12" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="153" priority="12" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B10,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B10,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="timePeriod" dxfId="186" priority="6" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="152" priority="6" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B11,1)&lt;=6,FLOOR(B11,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="185" priority="7" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="151" priority="7" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B11,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B11,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="184" priority="8" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="150" priority="8" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B11,1)&lt;=6,FLOOR(B11,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="beginsWith" dxfId="183" priority="1" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="149" priority="1" operator="beginsWith" text="068">
       <formula>LEFT(A11,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="182" priority="2" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="148" priority="2" operator="beginsWith" text="098">
       <formula>LEFT(A11,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="181" priority="3" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="147" priority="3" operator="beginsWith" text="097">
       <formula>LEFT(A11,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="4" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="146" priority="4" operator="beginsWith" text="096">
       <formula>LEFT(A11,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="179" priority="5" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="145" priority="5" operator="beginsWith" text="067">
       <formula>LEFT(A11,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13476,10 +13644,10 @@
   <dimension ref="A1:U237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F8" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="I8" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13501,72 +13669,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="175" t="s">
+      <c r="D1" s="173" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="175" t="s">
+      <c r="E1" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="175" t="s">
+      <c r="F1" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="175" t="s">
+      <c r="G1" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="175" t="s">
+      <c r="H1" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="175" t="s">
+      <c r="I1" s="173" t="s">
         <v>31</v>
       </c>
       <c r="J1" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="175" t="s">
+      <c r="K1" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="175" t="s">
+      <c r="L1" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175" t="s">
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175" t="s">
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="175" t="s">
+      <c r="R1" s="173" t="s">
         <v>25</v>
       </c>
       <c r="S1" s="179"/>
-      <c r="T1" s="173" t="s">
+      <c r="T1" s="175" t="s">
         <v>11</v>
       </c>
       <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="181"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
       <c r="J2" s="178"/>
-      <c r="K2" s="176"/>
+      <c r="K2" s="174"/>
       <c r="L2" s="82" t="s">
         <v>24</v>
       </c>
@@ -13582,14 +13750,14 @@
       <c r="P2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="176"/>
+      <c r="Q2" s="174"/>
       <c r="R2" s="82" t="s">
         <v>21</v>
       </c>
       <c r="S2" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="174"/>
+      <c r="T2" s="176"/>
       <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14063,11 +14231,11 @@
         <v>21150</v>
       </c>
       <c r="L9" s="74">
-        <v>11750</v>
+        <v>23500</v>
       </c>
       <c r="M9" s="72">
         <f t="shared" si="8"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N9" s="69">
         <f>Заказы!L7</f>
@@ -14077,7 +14245,7 @@
       <c r="P9" s="74"/>
       <c r="Q9" s="68">
         <f t="shared" si="9"/>
-        <v>11750</v>
+        <v>0</v>
       </c>
       <c r="R9" s="68">
         <f t="shared" si="10"/>
@@ -14089,7 +14257,7 @@
       </c>
       <c r="T9" s="73" t="str">
         <f>Заказы!E7</f>
-        <v>Узнать за проплату--Будет готов 21.08--Узнать плательщика (заказчика), Составить тех задание и подписать---Проплатили</v>
+        <v>Забирать будут в начале сентября--Проплатили полностью--Будет готов 21.08--Узнать плательщика (заказчика), Составить тех задание и подписать---Проплатили</v>
       </c>
       <c r="U9" s="8"/>
     </row>
@@ -14158,7 +14326,7 @@
       </c>
       <c r="T10" s="73" t="str">
         <f>Заказы!E8</f>
-        <v>Ждем выполнения--Выяснить приход денег, позвонить Сереже---Ждать проплату---Созвон, Отправили счет---Подготавливает тех задание,позвонит сегодня</v>
+        <v>Пакеты для тестов, ШД готов, запайщик еще нет--Выяснить приход денег, позвонить Сереже---Ждать проплату---Созвон, Отправили счет---Подготавливает тех задание,позвонит сегодня</v>
       </c>
       <c r="U10" s="8"/>
     </row>
@@ -14298,7 +14466,7 @@
       </c>
       <c r="T12" s="73" t="str">
         <f>Заказы!E10</f>
-        <v>Оплатили--Переделать счет</v>
+        <v>Проконтродировать готовность, проблемы--Оплатили--Переделать счет</v>
       </c>
       <c r="U12" s="8"/>
     </row>
@@ -18191,25 +18359,20 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
       <pane xSplit="4" ySplit="2" topLeftCell="E31" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="16">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -18221,6 +18384,11 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -18273,12 +18441,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
+      <selection activeCell="F1" sqref="F1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
       <selection activeCell="C2" sqref="C2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
-      <selection activeCell="F1" sqref="F1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18381,7 +18549,7 @@
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="171">
+      <c r="B2" s="169">
         <v>42212</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -18457,79 +18625,79 @@
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="S7" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="171"/>
+      <c r="B11" s="169"/>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
+      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
-      <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B5 B11:B1048576 B2 B7:B9">
-    <cfRule type="timePeriod" dxfId="134" priority="9" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="144" priority="9" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="133" priority="10" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="143" priority="10" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B2,1)&lt;=6,FLOOR(B2,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="endsWith" dxfId="132" priority="5" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="142" priority="5" operator="endsWith" text="*">
       <formula>RIGHT(B1,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="131" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="141" priority="6" timePeriod="today">
       <formula>FLOOR(B1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="130" priority="7" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="140" priority="7" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="129" priority="8" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="139" priority="8" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="endsWith" dxfId="128" priority="1" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="138" priority="1" operator="endsWith" text="*">
       <formula>RIGHT(B4,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="127" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="137" priority="2" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="126" priority="3" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="136" priority="3" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B4,1)&lt;=6,FLOOR(B4,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="125" priority="4" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="135" priority="4" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18620,7 +18788,7 @@
         <v>173</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="121" t="s">
         <v>393</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -18754,120 +18922,120 @@
         <v>426</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>140</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="115" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="115" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="D16" t="s">
-        <v>641</v>
-      </c>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172" t="s">
-        <v>639</v>
+        <v>630</v>
+      </c>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170" t="s">
+        <v>628</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
-      <selection activeCell="A7" sqref="A7"/>
+    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
+      <selection activeCell="C9" sqref="C9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
-      <selection activeCell="C9" sqref="C9"/>
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
+      <selection activeCell="A7" sqref="A7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="A1">
-    <cfRule type="timePeriod" dxfId="124" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="134" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18887,13 +19055,13 @@
   <sheetPr>
     <tabColor rgb="FFAFDC7E"/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19185,10 +19353,10 @@
       <c r="B6" s="43">
         <v>0.1</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="139"/>
+      <c r="D6" s="138"/>
       <c r="E6" s="60" t="s">
         <v>83</v>
       </c>
@@ -19211,289 +19379,289 @@
       <c r="L6" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="M6" s="139">
+      <c r="M6" s="138">
         <v>42177</v>
       </c>
-      <c r="N6" s="139">
+      <c r="N6" s="138">
         <v>42185</v>
       </c>
       <c r="O6" s="61">
         <v>2368</v>
       </c>
-      <c r="P6" s="139">
+      <c r="P6" s="138">
         <v>42215</v>
       </c>
-      <c r="Q6" s="139">
+      <c r="Q6" s="138">
         <v>42228</v>
       </c>
       <c r="R6" s="60" t="s">
         <v>86</v>
       </c>
       <c r="S6" s="61"/>
-      <c r="T6" s="140" t="s">
+      <c r="T6" s="139" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="160">
+      <c r="A7" s="158">
         <v>10560</v>
       </c>
-      <c r="B7" s="158">
+      <c r="B7" s="156">
         <v>0.1</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="144" t="s">
+      <c r="D7" s="144"/>
+      <c r="E7" s="143" t="s">
         <v>362</v>
       </c>
-      <c r="F7" s="146" t="s">
+      <c r="F7" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="146"/>
-      <c r="H7" s="144" t="s">
+      <c r="G7" s="145"/>
+      <c r="H7" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="149" t="s">
-        <v>482</v>
-      </c>
-      <c r="J7" s="146" t="s">
+      <c r="I7" s="148" t="s">
+        <v>481</v>
+      </c>
+      <c r="J7" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="146" t="s">
+      <c r="K7" s="145" t="s">
         <v>188</v>
       </c>
-      <c r="L7" s="146"/>
-      <c r="M7" s="145">
+      <c r="L7" s="145"/>
+      <c r="M7" s="144">
         <v>42158</v>
       </c>
-      <c r="N7" s="145" t="s">
+      <c r="N7" s="144" t="s">
         <v>268</v>
       </c>
-      <c r="O7" s="146">
+      <c r="O7" s="145">
         <v>2592</v>
       </c>
-      <c r="P7" s="146" t="s">
+      <c r="P7" s="145" t="s">
         <v>269</v>
       </c>
-      <c r="Q7" s="146"/>
-      <c r="R7" s="144" t="s">
+      <c r="Q7" s="145"/>
+      <c r="R7" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="S7" s="146"/>
-      <c r="T7" s="155"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="153"/>
     </row>
     <row r="8" spans="1:20" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1330</v>
       </c>
-      <c r="B8" s="158">
+      <c r="B8" s="156">
         <v>0.1</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="144" t="s">
+      <c r="D8" s="144"/>
+      <c r="E8" s="143" t="s">
         <v>362</v>
       </c>
-      <c r="F8" s="146" t="s">
+      <c r="F8" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="146"/>
-      <c r="H8" s="144" t="s">
+      <c r="G8" s="145"/>
+      <c r="H8" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="149" t="s">
+      <c r="I8" s="148" t="s">
+        <v>481</v>
+      </c>
+      <c r="J8" s="145" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="145" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="145"/>
+      <c r="M8" s="144">
+        <v>42158</v>
+      </c>
+      <c r="N8" s="144" t="s">
+        <v>268</v>
+      </c>
+      <c r="O8" s="145">
+        <v>2592</v>
+      </c>
+      <c r="P8" s="145" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="143" t="s">
+        <v>128</v>
+      </c>
+      <c r="S8" s="145"/>
+      <c r="T8" s="153"/>
+    </row>
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="158">
+        <v>420</v>
+      </c>
+      <c r="B9" s="156">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="130" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9" s="133"/>
+      <c r="E9" s="132" t="s">
+        <v>410</v>
+      </c>
+      <c r="F9" s="132" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="132"/>
+      <c r="H9" s="131" t="s">
+        <v>411</v>
+      </c>
+      <c r="I9" s="155">
+        <v>4200</v>
+      </c>
+      <c r="J9" s="131" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="132" t="s">
+        <v>397</v>
+      </c>
+      <c r="L9" s="132"/>
+      <c r="M9" s="133">
+        <v>42216</v>
+      </c>
+      <c r="N9" s="133">
+        <v>42221</v>
+      </c>
+      <c r="O9" s="132">
+        <v>2556</v>
+      </c>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="133">
+        <v>42225</v>
+      </c>
+      <c r="R9" s="132"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="137"/>
+    </row>
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="158">
+        <v>350</v>
+      </c>
+      <c r="B10" s="156">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="152" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="150"/>
+      <c r="E10" s="124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>430</v>
+      </c>
+      <c r="G10" s="126"/>
+      <c r="H10" s="151" t="s">
+        <v>428</v>
+      </c>
+      <c r="I10" s="180">
+        <v>3500</v>
+      </c>
+      <c r="J10" s="151"/>
+      <c r="K10" s="126" t="s">
+        <v>431</v>
+      </c>
+      <c r="L10" s="135"/>
+      <c r="M10" s="150">
+        <v>42221</v>
+      </c>
+      <c r="N10" s="150">
+        <v>42222</v>
+      </c>
+      <c r="O10" s="126">
+        <v>2542</v>
+      </c>
+      <c r="P10" s="125">
+        <v>42226</v>
+      </c>
+      <c r="Q10" s="150">
+        <v>42226</v>
+      </c>
+      <c r="R10" s="126"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="154"/>
+    </row>
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="158">
+        <v>2350</v>
+      </c>
+      <c r="B11" s="156">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="127" t="s">
+        <v>424</v>
+      </c>
+      <c r="D11" s="128"/>
+      <c r="E11" s="129" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="129" t="s">
+        <v>423</v>
+      </c>
+      <c r="G11" s="129"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="149">
+        <v>23500</v>
+      </c>
+      <c r="J11" s="134" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="129" t="s">
+        <v>422</v>
+      </c>
+      <c r="L11" s="129"/>
+      <c r="M11" s="128">
+        <v>42220</v>
+      </c>
+      <c r="N11" s="128">
+        <v>42220</v>
+      </c>
+      <c r="O11" s="129">
+        <v>2490</v>
+      </c>
+      <c r="P11" s="147">
+        <v>42223</v>
+      </c>
+      <c r="Q11" s="128">
+        <v>42224</v>
+      </c>
+      <c r="R11" s="129"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="136"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="160">
+        <v>155</v>
+      </c>
+      <c r="B12" s="156">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="J8" s="146" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="146" t="s">
-        <v>188</v>
-      </c>
-      <c r="L8" s="146"/>
-      <c r="M8" s="145">
-        <v>42158</v>
-      </c>
-      <c r="N8" s="145" t="s">
-        <v>268</v>
-      </c>
-      <c r="O8" s="146">
-        <v>2592</v>
-      </c>
-      <c r="P8" s="146" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q8" s="146"/>
-      <c r="R8" s="144" t="s">
-        <v>128</v>
-      </c>
-      <c r="S8" s="146"/>
-      <c r="T8" s="155"/>
-    </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="160">
-        <v>420</v>
-      </c>
-      <c r="B9" s="158">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="131" t="s">
-        <v>398</v>
-      </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="133" t="s">
-        <v>410</v>
-      </c>
-      <c r="F9" s="133" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="133"/>
-      <c r="H9" s="132" t="s">
-        <v>411</v>
-      </c>
-      <c r="I9" s="157">
-        <v>4200</v>
-      </c>
-      <c r="J9" s="132" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="133" t="s">
-        <v>397</v>
-      </c>
-      <c r="L9" s="133"/>
-      <c r="M9" s="134">
-        <v>42216</v>
-      </c>
-      <c r="N9" s="134">
-        <v>42221</v>
-      </c>
-      <c r="O9" s="133">
-        <v>2556</v>
-      </c>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="134">
-        <v>42225</v>
-      </c>
-      <c r="R9" s="133"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="138"/>
-    </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="160">
-        <v>350</v>
-      </c>
-      <c r="B10" s="158">
-        <v>0.1</v>
-      </c>
-      <c r="C10" s="153" t="s">
-        <v>429</v>
-      </c>
-      <c r="D10" s="151"/>
-      <c r="E10" s="125" t="s">
-        <v>246</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>430</v>
-      </c>
-      <c r="G10" s="127"/>
-      <c r="H10" s="152" t="s">
-        <v>428</v>
-      </c>
-      <c r="I10" s="154" t="s">
-        <v>447</v>
-      </c>
-      <c r="J10" s="152"/>
-      <c r="K10" s="127" t="s">
-        <v>431</v>
-      </c>
-      <c r="L10" s="136"/>
-      <c r="M10" s="151">
-        <v>42221</v>
-      </c>
-      <c r="N10" s="151">
-        <v>42222</v>
-      </c>
-      <c r="O10" s="127">
-        <v>2542</v>
-      </c>
-      <c r="P10" s="126">
-        <v>42226</v>
-      </c>
-      <c r="Q10" s="151">
-        <v>42226</v>
-      </c>
-      <c r="R10" s="127"/>
-      <c r="S10" s="159"/>
-      <c r="T10" s="156"/>
-    </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="160">
-        <v>2350</v>
-      </c>
-      <c r="B11" s="158">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="128" t="s">
-        <v>424</v>
-      </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="130" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="130" t="s">
-        <v>423</v>
-      </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="150">
-        <v>23500</v>
-      </c>
-      <c r="J11" s="135" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="130" t="s">
-        <v>422</v>
-      </c>
-      <c r="L11" s="130"/>
-      <c r="M11" s="129">
-        <v>42220</v>
-      </c>
-      <c r="N11" s="129">
-        <v>42220</v>
-      </c>
-      <c r="O11" s="130">
-        <v>2490</v>
-      </c>
-      <c r="P11" s="148">
-        <v>42223</v>
-      </c>
-      <c r="Q11" s="129">
-        <v>42224</v>
-      </c>
-      <c r="R11" s="130"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="137"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="162">
-        <v>155</v>
-      </c>
-      <c r="B12" s="158">
-        <v>0.05</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>474</v>
+        <v>653</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="85"/>
@@ -19523,27 +19691,27 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="162">
+      <c r="A13" s="160">
         <v>350</v>
       </c>
-      <c r="B13" s="158">
+      <c r="B13" s="156">
         <v>0.1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>430</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H13" s="85" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I13" s="3">
         <v>3500</v>
@@ -19556,371 +19724,496 @@
       <c r="M13" s="13">
         <v>42234</v>
       </c>
-      <c r="N13" s="167">
+      <c r="N13" s="165">
         <v>42235</v>
       </c>
       <c r="O13" s="3">
         <v>2544</v>
       </c>
-      <c r="P13" s="167">
+      <c r="P13" s="165">
         <v>42235</v>
       </c>
-      <c r="Q13" s="167">
+      <c r="Q13" s="165">
         <v>42235</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="162">
+      <c r="A14" s="160">
         <v>660</v>
       </c>
-      <c r="B14" s="158">
+      <c r="B14" s="156">
         <v>0.1</v>
       </c>
-      <c r="C14" s="128" t="s">
-        <v>497</v>
-      </c>
-      <c r="D14" s="129"/>
-      <c r="E14" s="127" t="s">
+      <c r="C14" s="127" t="s">
+        <v>496</v>
+      </c>
+      <c r="D14" s="128"/>
+      <c r="E14" s="126" t="s">
         <v>442</v>
       </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="126" t="s">
         <v>388</v>
       </c>
-      <c r="G14" s="127" t="s">
-        <v>529</v>
-      </c>
-      <c r="H14" s="163" t="s">
+      <c r="G14" s="126" t="s">
+        <v>526</v>
+      </c>
+      <c r="H14" s="161" t="s">
         <v>394</v>
       </c>
-      <c r="I14" s="150">
+      <c r="I14" s="149">
         <v>6600</v>
       </c>
-      <c r="J14" s="136" t="s">
+      <c r="J14" s="135" t="s">
         <v>389</v>
       </c>
-      <c r="K14" s="127" t="s">
+      <c r="K14" s="126" t="s">
         <v>390</v>
       </c>
-      <c r="L14" s="130"/>
-      <c r="M14" s="129">
+      <c r="L14" s="129"/>
+      <c r="M14" s="128">
         <v>42213</v>
       </c>
-      <c r="N14" s="129">
+      <c r="N14" s="128">
         <v>42214</v>
       </c>
-      <c r="O14" s="127" t="s">
+      <c r="O14" s="126" t="s">
         <v>391</v>
       </c>
-      <c r="P14" s="148">
+      <c r="P14" s="147">
         <v>42230</v>
       </c>
-      <c r="Q14" s="135"/>
+      <c r="Q14" s="134"/>
+    </row>
+    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="H15" s="166" t="s">
+        <v>568</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="13">
+        <v>42228</v>
+      </c>
+      <c r="N15" s="13">
+        <v>42244</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="13">
+        <v>42244</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>42244</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="160">
+        <v>2350</v>
+      </c>
+      <c r="B16" s="156">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>527</v>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="60" t="s">
+        <v>597</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>423</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="167">
+        <v>23500</v>
+      </c>
+      <c r="J16" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="61"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="63">
+        <v>42222</v>
+      </c>
+      <c r="O16" s="61">
+        <v>2602</v>
+      </c>
+      <c r="P16" s="138">
+        <v>42237</v>
+      </c>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="61" t="s">
+        <v>531</v>
+      </c>
+      <c r="S16" s="65"/>
+      <c r="T16" s="67"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
+    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="D1">
-    <cfRule type="endsWith" dxfId="117" priority="93" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="133" priority="105" operator="endsWith" text="*">
       <formula>RIGHT(D1,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="116" priority="94" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="132" priority="106" timePeriod="today">
       <formula>FLOOR(D1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="115" priority="95" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="131" priority="107" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D1,1)&lt;=6,FLOOR(D1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="114" priority="96" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="130" priority="108" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="endsWith" dxfId="113" priority="89" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="129" priority="101" operator="endsWith" text="*">
       <formula>RIGHT(D2,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="112" priority="90" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="128" priority="102" timePeriod="today">
       <formula>FLOOR(D2,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="111" priority="91" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="127" priority="103" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D2,1)&lt;=6,FLOOR(D2,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="110" priority="92" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="126" priority="104" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="endsWith" dxfId="109" priority="85" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="125" priority="97" operator="endsWith" text="*">
       <formula>RIGHT(D3,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="108" priority="86" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="124" priority="98" timePeriod="today">
       <formula>FLOOR(D3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="107" priority="87" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="123" priority="99" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D3,1)&lt;=6,FLOOR(D3,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="106" priority="88" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="122" priority="100" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D3,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D3,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="endsWith" dxfId="105" priority="81" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="121" priority="93" operator="endsWith" text="*">
       <formula>RIGHT(D4,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="104" priority="82" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="120" priority="94" timePeriod="today">
       <formula>FLOOR(D4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="103" priority="83" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="119" priority="95" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D4,1)&lt;=6,FLOOR(D4,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="102" priority="84" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="118" priority="96" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="endsWith" dxfId="101" priority="77" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="117" priority="89" operator="endsWith" text="*">
       <formula>RIGHT(D5,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="100" priority="78" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="116" priority="90" timePeriod="today">
       <formula>FLOOR(D5,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="99" priority="79" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="115" priority="91" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D5,1)&lt;=6,FLOOR(D5,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="98" priority="80" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="114" priority="92" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D5,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D5,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="endsWith" dxfId="97" priority="61" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="113" priority="73" operator="endsWith" text="*">
       <formula>RIGHT(D6,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="96" priority="62" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="112" priority="74" timePeriod="today">
       <formula>FLOOR(D6,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="95" priority="63" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="111" priority="75" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D6,1)&lt;=6,FLOOR(D6,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="94" priority="64" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="110" priority="76" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D6,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D6,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="endsWith" dxfId="93" priority="57" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="109" priority="69" operator="endsWith" text="*">
       <formula>RIGHT(D7,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="92" priority="58" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="108" priority="70" timePeriod="today">
       <formula>FLOOR(D7,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="91" priority="59" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="107" priority="71" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D7,1)&lt;=6,FLOOR(D7,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="90" priority="60" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="106" priority="72" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D7,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D7,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="beginsWith" dxfId="89" priority="45" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="105" priority="57" operator="beginsWith" text="068">
       <formula>LEFT(C9,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="88" priority="46" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="104" priority="58" operator="beginsWith" text="098">
       <formula>LEFT(C9,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="87" priority="47" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="103" priority="59" operator="beginsWith" text="097">
       <formula>LEFT(C9,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="86" priority="48" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="102" priority="60" operator="beginsWith" text="096">
       <formula>LEFT(C9,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="85" priority="49" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="101" priority="61" operator="beginsWith" text="067">
       <formula>LEFT(C9,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="timePeriod" dxfId="84" priority="54" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="100" priority="66" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D9,1)&lt;=6,FLOOR(D9,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="83" priority="55" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="99" priority="67" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D9,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D9,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="82" priority="56" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="98" priority="68" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D9,1)&lt;=6,FLOOR(D9,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="endsWith" dxfId="81" priority="50" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="97" priority="62" operator="endsWith" text="*">
       <formula>RIGHT(D9,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="80" priority="51" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="96" priority="63" timePeriod="today">
       <formula>FLOOR(D9,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="79" priority="52" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="95" priority="64" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D9,1)&lt;=6,FLOOR(D9,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="78" priority="53" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="94" priority="65" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D9,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D9,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="endsWith" dxfId="77" priority="41" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="93" priority="53" operator="endsWith" text="*">
       <formula>RIGHT(D10,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="76" priority="42" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="92" priority="54" timePeriod="today">
       <formula>FLOOR(D10,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="75" priority="43" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="91" priority="55" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D10,1)&lt;=6,FLOOR(D10,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="74" priority="44" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="90" priority="56" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D10,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D10,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="beginsWith" dxfId="73" priority="29" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="89" priority="41" operator="beginsWith" text="068">
       <formula>LEFT(C11,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="72" priority="30" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="88" priority="42" operator="beginsWith" text="098">
       <formula>LEFT(C11,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="71" priority="31" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="87" priority="43" operator="beginsWith" text="097">
       <formula>LEFT(C11,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="70" priority="32" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="86" priority="44" operator="beginsWith" text="096">
       <formula>LEFT(C11,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="69" priority="33" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="85" priority="45" operator="beginsWith" text="067">
       <formula>LEFT(C11,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="timePeriod" dxfId="68" priority="38" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="84" priority="50" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D11,1)&lt;=6,FLOOR(D11,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="67" priority="39" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="83" priority="51" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D11,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D11,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="66" priority="40" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="82" priority="52" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D11,1)&lt;=6,FLOOR(D11,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="endsWith" dxfId="65" priority="34" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="81" priority="46" operator="endsWith" text="*">
       <formula>RIGHT(D11,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="64" priority="35" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="80" priority="47" timePeriod="today">
       <formula>FLOOR(D11,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="63" priority="36" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="79" priority="48" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D11,1)&lt;=6,FLOOR(D11,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="62" priority="37" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="78" priority="49" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D11,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D11,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="timePeriod" dxfId="61" priority="26" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="77" priority="38" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D12,1)&lt;=6,FLOOR(D12,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="60" priority="27" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="76" priority="39" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D12,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D12,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="59" priority="28" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="75" priority="40" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D12,1)&lt;=6,FLOOR(D12,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="beginsWith" dxfId="58" priority="21" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="74" priority="33" operator="beginsWith" text="068">
       <formula>LEFT(C12,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="57" priority="22" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="73" priority="34" operator="beginsWith" text="098">
       <formula>LEFT(C12,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="56" priority="23" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="72" priority="35" operator="beginsWith" text="097">
       <formula>LEFT(C12,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="55" priority="24" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="71" priority="36" operator="beginsWith" text="096">
       <formula>LEFT(C12,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="54" priority="25" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="70" priority="37" operator="beginsWith" text="067">
       <formula>LEFT(C12,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="timePeriod" dxfId="53" priority="18" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="69" priority="30" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D13,1)&lt;=6,FLOOR(D13,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="52" priority="19" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="68" priority="31" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D13,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D13,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="51" priority="20" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="67" priority="32" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D13,1)&lt;=6,FLOOR(D13,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="beginsWith" dxfId="50" priority="13" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="66" priority="25" operator="beginsWith" text="068">
       <formula>LEFT(C13,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="49" priority="14" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="65" priority="26" operator="beginsWith" text="098">
       <formula>LEFT(C13,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="48" priority="15" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="64" priority="27" operator="beginsWith" text="097">
       <formula>LEFT(C13,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="47" priority="16" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="63" priority="28" operator="beginsWith" text="096">
       <formula>LEFT(C13,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="17" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="62" priority="29" operator="beginsWith" text="067">
       <formula>LEFT(C13,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="beginsWith" dxfId="45" priority="1" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="61" priority="13" operator="beginsWith" text="068">
       <formula>LEFT(C14,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="44" priority="2" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="60" priority="14" operator="beginsWith" text="098">
       <formula>LEFT(C14,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="43" priority="3" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="59" priority="15" operator="beginsWith" text="097">
       <formula>LEFT(C14,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="4" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="58" priority="16" operator="beginsWith" text="096">
       <formula>LEFT(C14,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="41" priority="5" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="57" priority="17" operator="beginsWith" text="067">
       <formula>LEFT(C14,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="timePeriod" dxfId="40" priority="10" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="56" priority="22" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D14,1)&lt;=6,FLOOR(D14,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="39" priority="11" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="55" priority="23" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D14,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D14,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="38" priority="12" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="54" priority="24" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D14,1)&lt;=6,FLOOR(D14,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="endsWith" dxfId="37" priority="6" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="53" priority="18" operator="endsWith" text="*">
       <formula>RIGHT(D14,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="36" priority="7" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="52" priority="19" timePeriod="today">
       <formula>FLOOR(D14,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="35" priority="8" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="51" priority="20" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(D14,1)&lt;=6,FLOOR(D14,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="34" priority="9" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="50" priority="21" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(D14,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D14,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="timePeriod" dxfId="49" priority="10" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(D15,1)&lt;=6,FLOOR(D15,1)&lt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="48" priority="11" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(D15,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D15,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="47" priority="12" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(D15,1)&lt;=6,FLOOR(D15,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="beginsWith" dxfId="46" priority="5" operator="beginsWith" text="068">
+      <formula>LEFT(C15,LEN("068"))="068"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="45" priority="6" operator="beginsWith" text="098">
+      <formula>LEFT(C15,LEN("098"))="098"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="44" priority="7" operator="beginsWith" text="097">
+      <formula>LEFT(C15,LEN("097"))="097"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="43" priority="8" operator="beginsWith" text="096">
+      <formula>LEFT(C15,LEN("096"))="096"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="42" priority="9" operator="beginsWith" text="067">
+      <formula>LEFT(C15,LEN("067"))="067"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="endsWith" dxfId="7" priority="1" operator="endsWith" text="*">
+      <formula>RIGHT(D16,LEN("*"))="*"</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="6" priority="2" timePeriod="today">
+      <formula>FLOOR(D16,1)=TODAY()</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="5" priority="3" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(D16,1)&lt;=6,FLOOR(D16,1)&lt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="4" priority="4" timePeriod="lastWeek">
+      <formula>AND(TODAY()-ROUNDDOWN(D16,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(D16,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -20203,168 +20496,168 @@
       <c r="R6" s="67"/>
     </row>
     <row r="7" spans="1:18" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="159" t="s">
         <v>284</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="150" t="s">
         <v>354</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="E7" s="127" t="s">
-        <v>512</v>
-      </c>
-      <c r="F7" s="136" t="s">
+      <c r="E7" s="126" t="s">
+        <v>510</v>
+      </c>
+      <c r="F7" s="135" t="s">
         <v>285</v>
       </c>
-      <c r="G7" s="136"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="125" t="s">
+      <c r="G7" s="135"/>
+      <c r="H7" s="151"/>
+      <c r="I7" s="124" t="s">
         <v>288</v>
       </c>
-      <c r="J7" s="125" t="s">
+      <c r="J7" s="124" t="s">
         <v>286</v>
       </c>
-      <c r="K7" s="151">
+      <c r="K7" s="150">
         <v>42200</v>
       </c>
-      <c r="L7" s="136"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="156"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="154"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
+    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7C21AB2F-8371-4768-A121-03485CF32494}">
+    <customSheetView guid="{F21BD4B8-C6FA-422D-B8B2-7C578E87F027}">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B1">
-    <cfRule type="endsWith" dxfId="33" priority="30" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="41" priority="30" operator="endsWith" text="*">
       <formula>RIGHT(B1,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="32" priority="31" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="40" priority="31" timePeriod="today">
       <formula>FLOOR(B1,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="31" priority="32" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="39" priority="32" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="30" priority="33" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="38" priority="33" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B1,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B1,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="endsWith" dxfId="29" priority="26" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="37" priority="26" operator="endsWith" text="*">
       <formula>RIGHT(B2,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="28" priority="27" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="36" priority="27" timePeriod="today">
       <formula>FLOOR(B2,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="27" priority="28" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="35" priority="28" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B2,1)&lt;=6,FLOOR(B2,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="26" priority="29" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="34" priority="29" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="endsWith" dxfId="25" priority="22" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="33" priority="22" operator="endsWith" text="*">
       <formula>RIGHT(B3,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="24" priority="23" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="32" priority="23" timePeriod="today">
       <formula>FLOOR(B3,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="23" priority="24" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="31" priority="24" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B3,1)&lt;=6,FLOOR(B3,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="22" priority="25" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="30" priority="25" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B3,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B3,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="endsWith" dxfId="21" priority="18" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="29" priority="18" operator="endsWith" text="*">
       <formula>RIGHT(B4,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="20" priority="19" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="28" priority="19" timePeriod="today">
       <formula>FLOOR(B4,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="19" priority="20" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="27" priority="20" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B4,1)&lt;=6,FLOOR(B4,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="18" priority="21" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="26" priority="21" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="endsWith" dxfId="17" priority="14" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="25" priority="14" operator="endsWith" text="*">
       <formula>RIGHT(B5,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="16" priority="15" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="24" priority="15" timePeriod="today">
       <formula>FLOOR(B5,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="15" priority="16" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="23" priority="16" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B5,1)&lt;=6,FLOOR(B5,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="14" priority="17" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="22" priority="17" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B5,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B5,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="endsWith" dxfId="13" priority="10" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="21" priority="10" operator="endsWith" text="*">
       <formula>RIGHT(B6,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="12" priority="11" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="20" priority="11" timePeriod="today">
       <formula>FLOOR(B6,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="11" priority="12" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="19" priority="12" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B6,1)&lt;=6,FLOOR(B6,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="10" priority="13" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="18" priority="13" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B6,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B6,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="endsWith" dxfId="9" priority="6" operator="endsWith" text="*">
+    <cfRule type="endsWith" dxfId="17" priority="6" operator="endsWith" text="*">
       <formula>RIGHT(B7,LEN("*"))="*"</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="8" priority="7" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="16" priority="7" timePeriod="today">
       <formula>FLOOR(B7,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="7" priority="8" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="15" priority="8" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(B7,1)&lt;=6,FLOOR(B7,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="6" priority="9" timePeriod="lastWeek">
+    <cfRule type="timePeriod" dxfId="14" priority="9" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(B7,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(B7,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="beginsWith" dxfId="5" priority="1" operator="beginsWith" text="068">
+    <cfRule type="beginsWith" dxfId="13" priority="1" operator="beginsWith" text="068">
       <formula>LEFT(A7,LEN("068"))="068"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" operator="beginsWith" text="098">
+    <cfRule type="beginsWith" dxfId="12" priority="2" operator="beginsWith" text="098">
       <formula>LEFT(A7,LEN("098"))="098"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="097">
+    <cfRule type="beginsWith" dxfId="11" priority="3" operator="beginsWith" text="097">
       <formula>LEFT(A7,LEN("097"))="097"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="096">
+    <cfRule type="beginsWith" dxfId="10" priority="4" operator="beginsWith" text="096">
       <formula>LEFT(A7,LEN("096"))="096"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" operator="beginsWith" text="067">
+    <cfRule type="beginsWith" dxfId="9" priority="5" operator="beginsWith" text="067">
       <formula>LEFT(A7,LEN("067"))="067"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20400,56 +20693,56 @@
       <c r="C1" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="162" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="165" t="s">
+      <c r="F1" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="165" t="s">
+      <c r="G1" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="165" t="s">
+      <c r="H1" s="163" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="166" t="s">
+      <c r="I1" s="164" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="E2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F2" t="s">
         <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="E3" t="s">
         <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="G3" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="8" priority="1" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
